--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -274,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -377,6 +377,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -434,7 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,6 +539,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +558,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +620,55 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="351">
+  <dxfs count="393">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -660,6 +730,82 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -960,6 +1106,126 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2023,6 +2289,128 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3983,11 +4371,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H720"/>
+  <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4021,7 +4409,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4047,21 +4435,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13">
         <f t="shared" ref="C3:F3" ca="1" si="0">IF(AND(NOT(ISBLANK(C2)), NOT(C2 = "לא ניתן תרגיל")), IF(OR(C4 = "כן", C4 = "לא"), "", C2-TODAY()), "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4073,11 +4461,11 @@
       </c>
       <c r="H3" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4085,7 +4473,9 @@
       <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>49</v>
       </c>
@@ -4095,7 +4485,7 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -4109,7 +4499,7 @@
       </c>
       <c r="E5" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="F5" s="22" t="str">
         <f t="shared" si="2"/>
@@ -4125,7 +4515,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -4155,7 +4545,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4169,7 +4559,7 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4199,7 +4589,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
@@ -4211,7 +4601,7 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +4631,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
@@ -4271,7 +4661,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4285,7 +4675,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4315,7 +4705,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +4717,7 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -4356,1323 +4746,1344 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f t="shared" ref="C17:H17" ca="1" si="11">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G17" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="H17" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="29" t="str">
+        <f t="shared" ref="C19:H19" si="12">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E19" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G19" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H19" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="str">
-        <f t="shared" ref="C16:H16" si="11">IF(C12 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="C20" s="30" t="str">
+        <f t="shared" ref="C20:H20" si="13">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H20" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13" t="e">
+        <f t="shared" ref="C21:H21" ca="1" si="14">IF(AND(NOT(ISBLANK(C20)), NOT(C20 = "לא ניתן תרגיל")), IF(OR(C22 = "כן", C22 = "לא"), "", C20-TODAY()), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f t="shared" ref="C23:H23" si="15">IF(C22 = "כן","בוצע", IF(C22 = "לא", "לא הוגש", IF((C20 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C20)), "טרם", ""))))</f>
+        <v>טרם</v>
+      </c>
+      <c r="D23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>טרם</v>
+      </c>
+      <c r="E23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>טרם</v>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>טרם</v>
+      </c>
+      <c r="G23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>טרם</v>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>טרם</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f t="shared" ref="C24:H24" si="16">IF(C20 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D24" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H24" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="11" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13" t="str">
-        <f t="shared" ref="C18:H18" ca="1" si="12">IF(AND(NOT(ISBLANK(C17)), NOT(C17 = "לא ניתן תרגיל")), IF(OR(C19 = "כן", C19 = "לא"), "", C17-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="F18" s="13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="G18" s="13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="H18" s="13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="11" t="s">
+      <c r="C26" s="13" t="str">
+        <f t="shared" ref="C26:H26" ca="1" si="17">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="G26" s="13" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="H26" s="13" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="11" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22" t="str">
-        <f t="shared" ref="C20:H20" si="13">IF(C19 = "כן","בוצע", IF(C19 = "לא", "לא הוגש", IF((C17 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C17)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="F20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="14" t="s">
+      <c r="C28" s="22" t="str">
+        <f t="shared" ref="C28:H28" si="18">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D28" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E28" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F28" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G28" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H28" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="23" t="str">
-        <f t="shared" ref="C21:H21" si="14">IF(C17 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D21" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E21" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F21" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G21" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H21" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C29" s="23" t="str">
+        <f t="shared" ref="C29:H29" si="19">IF(C25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="11" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="13" t="str">
-        <f t="shared" ref="C23:H23" ca="1" si="15">IF(AND(NOT(ISBLANK(C22)), NOT(C22 = "לא ניתן תרגיל")), IF(OR(C24 = "כן", C24 = "לא"), "", C22-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D23" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="E23" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="F23" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="G23" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="H23" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="11" t="s">
+      <c r="C31" s="13" t="str">
+        <f t="shared" ref="C31:H31" ca="1" si="20">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="G31" s="13" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H31" s="13" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="11" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="22" t="str">
-        <f t="shared" ref="C25:H25" si="16">IF(C24 = "כן","בוצע", IF(C24 = "לא", "לא הוגש", IF((C22 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C22)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D25" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E25" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F25" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G25" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H25" s="22" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="14" t="s">
+      <c r="C33" s="22" t="str">
+        <f t="shared" ref="C33:H33" si="21">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D33" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E33" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="F33" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:H26" si="17">IF(C22 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E26" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="F26" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G26" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H26" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C34" s="23" t="str">
+        <f t="shared" ref="C34:H34" si="22">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D34" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F34" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="G34" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H34" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="11" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="13" t="str">
-        <f t="shared" ref="C28:H28" ca="1" si="18">IF(AND(NOT(ISBLANK(C27)), NOT(C27 = "לא ניתן תרגיל")), IF(OR(C29 = "כן", C29 = "לא"), "", C27-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D28" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="E28" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F28" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="G28" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="H28" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="11" t="s">
+      <c r="C36" s="13" t="str">
+        <f t="shared" ref="C36:H36" ca="1" si="23">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="G36" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="H36" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A37" s="31"/>
+      <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="11" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A38" s="31"/>
+      <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="22" t="str">
-        <f t="shared" ref="C30:H30" si="19">IF(C29 = "כן","בוצע", IF(C29 = "לא", "לא הוגש", IF((C27 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C27)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D30" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F30" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G30" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H30" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="14" t="s">
+      <c r="C38" s="22" t="str">
+        <f t="shared" ref="C38:H38" si="24">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D38" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E38" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="F38" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="G38" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H38" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="23" t="str">
-        <f t="shared" ref="C31:H31" si="20">IF(C27 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E31" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F31" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G31" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H31" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="C39" s="23" t="str">
+        <f t="shared" ref="C39:H39" si="25">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D39" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F39" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G39" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H39" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A40" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="11" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="13" t="str">
-        <f t="shared" ref="C33:H33" ca="1" si="21">IF(AND(NOT(ISBLANK(C32)), NOT(C32 = "לא ניתן תרגיל")), IF(OR(C34 = "כן", C34 = "לא"), "", C32-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="E33" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="F33" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="G33" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="H33" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="11" t="s">
+      <c r="C41" s="13" t="str">
+        <f t="shared" ref="C41:H41" ca="1" si="26">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="G41" s="13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="H41" s="13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="11" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="22" t="str">
-        <f t="shared" ref="C35:H35" si="22">IF(C34 = "כן","בוצע", IF(C34 = "לא", "לא הוגש", IF((C32 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C32)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H35" s="22" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="14" t="s">
+      <c r="C43" s="22" t="str">
+        <f t="shared" ref="C43:H43" si="27">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D43" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="E43" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="F43" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="G43" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="23" t="str">
-        <f t="shared" ref="C36:H36" si="23">IF(C32 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="F36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H36" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="C44" s="23" t="str">
+        <f t="shared" ref="C44:H44" si="28">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D44" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="E44" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="F44" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G44" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H44" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="11" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="13" t="str">
-        <f t="shared" ref="C38:H38" ca="1" si="24">IF(AND(NOT(ISBLANK(C37)), NOT(C37 = "לא ניתן תרגיל")), IF(OR(C39 = "כן", C39 = "לא"), "", C37-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D38" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="F38" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="G38" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="H38" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="11" t="s">
+      <c r="C46" s="13" t="str">
+        <f t="shared" ref="C46:H46" ca="1" si="29">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="E46" s="13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="G46" s="13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="H46" s="13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A47" s="31"/>
+      <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="11" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="22" t="str">
-        <f t="shared" ref="C40:H40" si="25">IF(C39 = "כן","בוצע", IF(C39 = "לא", "לא הוגש", IF((C37 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C37)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="E40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H40" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="14" t="s">
+      <c r="C48" s="22" t="str">
+        <f t="shared" ref="C48:H48" si="30">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D48" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="E48" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="F48" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G48" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="23" t="str">
-        <f t="shared" ref="C41:H41" si="26">IF(C37 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D41" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E41" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F41" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G41" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H41" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="C49" s="23" t="str">
+        <f t="shared" ref="C49:H49" si="31">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D49" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="E49" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="F49" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G49" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H49" s="23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="11" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="13" t="str">
-        <f t="shared" ref="C43:H43" ca="1" si="27">IF(AND(NOT(ISBLANK(C42)), NOT(C42 = "לא ניתן תרגיל")), IF(OR(C44 = "כן", C44 = "לא"), "", C42-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D43" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="E43" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="F43" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="G43" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="H43" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="11" t="s">
+      <c r="C51" s="13" t="str">
+        <f t="shared" ref="C51:H51" ca="1" si="32">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D51" s="13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="G51" s="13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="H51" s="13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="11" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="22" t="str">
-        <f t="shared" ref="C45:H45" si="28">IF(C44 = "כן","בוצע", IF(C44 = "לא", "לא הוגש", IF((C42 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C42)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D45" s="22" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="E45" s="22" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="F45" s="22" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="G45" s="22" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="H45" s="22" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="14" t="s">
+      <c r="C53" s="22" t="str">
+        <f t="shared" ref="C53:H53" si="33">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D53" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="E53" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="F53" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G53" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="23" t="str">
-        <f t="shared" ref="C46:H46" si="29">IF(C42 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D46" s="23" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="E46" s="23" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F46" s="23" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="G46" s="23" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H46" s="23" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="C54" s="23" t="str">
+        <f t="shared" ref="C54:H54" si="34">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D54" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E54" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F54" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G54" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H54" s="23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A55" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="11" t="s">
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="13" t="str">
-        <f t="shared" ref="C48:H48" ca="1" si="30">IF(AND(NOT(ISBLANK(C47)), NOT(C47 = "לא ניתן תרגיל")), IF(OR(C49 = "כן", C49 = "לא"), "", C47-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D48" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="E48" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="F48" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="G48" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="H48" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="11" t="s">
+      <c r="C56" s="13" t="str">
+        <f t="shared" ref="C56:H56" ca="1" si="35">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="E56" s="13" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="G56" s="13" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="H56" s="13" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="11" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="22" t="str">
-        <f t="shared" ref="C50:H50" si="31">IF(C49 = "כן","בוצע", IF(C49 = "לא", "לא הוגש", IF((C47 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C47)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D50" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="E50" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="F50" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="G50" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H50" s="22" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="14" t="s">
+      <c r="C58" s="22" t="str">
+        <f t="shared" ref="C58:H58" si="36">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D58" s="22" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="E58" s="22" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F58" s="22" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G58" s="22" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="23" t="str">
-        <f t="shared" ref="C51:H51" si="32">IF(C47 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D51" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E51" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="F51" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G51" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H51" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A52" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="C59" s="23" t="str">
+        <f t="shared" ref="C59:H59" si="37">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="E59" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F59" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G59" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H59" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A60" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="11" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A61" s="31"/>
+      <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="13" t="str">
-        <f t="shared" ref="C53:H53" ca="1" si="33">IF(AND(NOT(ISBLANK(C52)), NOT(C52 = "לא ניתן תרגיל")), IF(OR(C54 = "כן", C54 = "לא"), "", C52-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D53" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="E53" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="F53" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="G53" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="H53" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="11" t="s">
+      <c r="C61" s="13" t="str">
+        <f t="shared" ref="C61:H61" ca="1" si="38">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D61" s="13" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="E61" s="13" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="F61" s="13" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="G61" s="13" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="H61" s="13" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A62" s="31"/>
+      <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="11" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A63" s="31"/>
+      <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="22" t="str">
-        <f t="shared" ref="C55:H55" si="34">IF(C54 = "כן","בוצע", IF(C54 = "לא", "לא הוגש", IF((C52 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C52)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D55" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="E55" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F55" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G55" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H55" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="14" t="s">
+      <c r="C63" s="22" t="str">
+        <f t="shared" ref="C63:H63" si="39">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D63" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="E63" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F63" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G63" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H63" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="23" t="str">
-        <f t="shared" ref="C56:H56" si="35">IF(C52 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D56" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="E56" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F56" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G56" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H56" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A57" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="C64" s="23" t="str">
+        <f t="shared" ref="C64:H64" si="40">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="E64" s="23" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="F64" s="23" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="G64" s="23" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="H64" s="23" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A65" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="11" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A66" s="31"/>
+      <c r="B66" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="13" t="str">
-        <f t="shared" ref="C58:H58" ca="1" si="36">IF(AND(NOT(ISBLANK(C57)), NOT(C57 = "לא ניתן תרגיל")), IF(OR(C59 = "כן", C59 = "לא"), "", C57-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D58" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="E58" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="F58" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="G58" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="H58" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="11" t="s">
+      <c r="C66" s="13" t="str">
+        <f t="shared" ref="C66:H66" ca="1" si="41">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D66" s="13" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="E66" s="13" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="F66" s="13" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="G66" s="13" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="H66" s="13" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A67" s="31"/>
+      <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="11" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A68" s="31"/>
+      <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="22" t="str">
-        <f t="shared" ref="C60:H60" si="37">IF(C59 = "כן","בוצע", IF(C59 = "לא", "לא הוגש", IF((C57 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C57)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D60" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="E60" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="F60" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="G60" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="H60" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="14" t="s">
+      <c r="C68" s="22" t="str">
+        <f t="shared" ref="C68:H68" si="42">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D68" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E68" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F68" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G68" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H68" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A69" s="32"/>
+      <c r="B69" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="23" t="str">
-        <f t="shared" ref="C61:H61" si="38">IF(C57 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D61" s="23" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E61" s="23" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="F61" s="23" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="G61" s="23" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H61" s="23" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A62" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="13" t="str">
-        <f t="shared" ref="C63:H63" ca="1" si="39">IF(AND(NOT(ISBLANK(C62)), NOT(C62 = "לא ניתן תרגיל")), IF(OR(C64 = "כן", C64 = "לא"), "", C62-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D63" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="E63" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="F63" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="G63" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="H63" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="22" t="str">
-        <f t="shared" ref="C65:H65" si="40">IF(C64 = "כן","בוצע", IF(C64 = "לא", "לא הוגש", IF((C62 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C62)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D65" s="22" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="E65" s="22" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F65" s="22" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G65" s="22" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H65" s="22" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="23" t="str">
-        <f t="shared" ref="C66:H66" si="41">IF(C62 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D66" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E66" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F66" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G66" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H66" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A67" s="16" t="s">
+      <c r="C69" s="23" t="str">
+        <f t="shared" ref="C69:H69" si="43">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D69" s="23" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E69" s="23" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F69" s="23" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G69" s="23" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H69" s="23" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="9" t="e">
-        <f t="shared" ref="C67:H67" si="42">AVERAGE(C6,C11,C16,C21,C26,C31,C36,C41,C46,C51,C56,C61,C66)</f>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9" t="e">
+        <f>AVERAGE(C6,C11,C19,C24,C29,C34,C39,C44,C49,C54,C59,C64,C69)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D67" s="9" t="e">
-        <f t="shared" si="42"/>
+      <c r="D70" s="9" t="e">
+        <f>AVERAGE(D6,D11,D19,D24,D29,D34,D39,D44,D49,D54,D59,D64,D69)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E67" s="9" t="e">
-        <f t="shared" si="42"/>
+      <c r="E70" s="9" t="e">
+        <f>AVERAGE(E6,E11,E19,E24,E29,E34,E39,E44,E49,E54,E59,E64,E69)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F67" s="9" t="e">
-        <f t="shared" si="42"/>
+      <c r="F70" s="9" t="e">
+        <f>AVERAGE(F6,F11,F19,F24,F29,F34,F39,F44,F49,F54,F59,F64,F69)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="9" t="e">
-        <f t="shared" si="42"/>
+      <c r="G70" s="9" t="e">
+        <f>AVERAGE(G6,G11,G19,G24,G29,G34,G39,G44,G49,G54,G59,G64,G69)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="9" t="e">
-        <f t="shared" si="42"/>
+      <c r="H70" s="9" t="e">
+        <f>AVERAGE(H6,H11,H19,H24,H29,H34,H39,H44,H49,H54,H59,H64,H69)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="B68" s="17"/>
-    </row>
-    <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A69"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="19" t="s">
+    <row r="71" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A72"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D72" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E72" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G72" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="5" t="e">
-        <f>C67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="e">
-        <f>0.15*C70+0.1*D70+0.6*E70+0.15*MAX(D70,E70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A71" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="5" t="e">
-        <f>D67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
-        <f>E71</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A72" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="5" t="e">
-        <f>E67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="e">
-        <f>0.25*C72+0.75*E72</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="5" t="e">
-        <f>F67</f>
+        <f>C70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="e">
-        <f>0.2*C73+0.1*D73+0.7*E73</f>
+        <f>0.15*C73+0.1*D73+0.6*E73+0.15*MAX(D73,E73)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="5" t="e">
-        <f>G67</f>
+        <f>D70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D74" s="5"/>
@@ -5685,97 +6096,91 @@
     </row>
     <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="5" t="e">
-        <f>H67</f>
+        <f>E70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="e">
-        <f>0.2*C75+0.8*E75</f>
+        <f>0.25*C75+0.75*E75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
+    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="5" t="e">
+        <f>F70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="e">
+        <f>0.2*C76+0.1*D76+0.7*E76</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A77"/>
-      <c r="B77" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
+      <c r="A77" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="5" t="e">
+        <f>G70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <f>E77</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="5">
-        <f t="shared" ref="B78:B83" si="43">G70</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="5">
-        <v>4</v>
-      </c>
-      <c r="D78" s="5">
-        <f t="shared" ref="D78:D83" si="44">B78*C78</f>
-        <v>0</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A79" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="5">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="C79" s="5">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="5" t="e">
+        <f>H70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="e">
+        <f>0.2*C78+0.8*E78</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="5">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="C80" s="5">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5">
-        <f t="shared" si="44"/>
-        <v>0</v>
+      <c r="A80"/>
+      <c r="B80" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
@@ -5783,17 +6188,17 @@
     </row>
     <row r="81" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="B81:B86" si="44">G73</f>
         <v>0</v>
       </c>
       <c r="C81" s="5">
         <v>4</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="D81:D86" si="45">B81*C81</f>
         <v>0</v>
       </c>
       <c r="E81"/>
@@ -5802,36 +6207,36 @@
     </row>
     <row r="82" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B82" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C82" s="5">
         <v>3</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="83" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B83" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C83" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E83"/>
@@ -5839,19 +6244,18 @@
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A84" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="20">
-        <f>D84/C84</f>
+      <c r="A84" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="5">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="C84" s="20">
-        <f>SUM(C78:C83)</f>
-        <v>22</v>
-      </c>
-      <c r="D84" s="20">
-        <f>SUM(D78:D83)</f>
+      <c r="C84" s="5">
+        <v>4</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E84"/>
@@ -5859,13 +6263,62 @@
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B86" s="17"/>
+      <c r="A85" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A86" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B87" s="17"/>
+      <c r="A87" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="20">
+        <f>D87/C87</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="20">
+        <f>SUM(C81:C86)</f>
+        <v>22</v>
+      </c>
+      <c r="D87" s="20">
+        <f>SUM(D81:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
     </row>
     <row r="88" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="B88" s="17"/>
@@ -5954,13 +6407,13 @@
     <row r="116" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B116" s="17"/>
     </row>
-    <row r="117" spans="2:2" ht="23.1" customHeight="1">
+    <row r="117" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B117" s="17"/>
     </row>
-    <row r="118" spans="2:2" ht="23.1" customHeight="1">
+    <row r="118" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B118" s="17"/>
     </row>
-    <row r="119" spans="2:2" ht="23.1" customHeight="1">
+    <row r="119" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B119" s="17"/>
     </row>
     <row r="120" spans="2:2" ht="23.1" customHeight="1">
@@ -7766,856 +8219,887 @@
     <row r="720" spans="2:2" ht="23.1" customHeight="1">
       <c r="B720" s="17"/>
     </row>
+    <row r="721" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B721" s="17"/>
+    </row>
+    <row r="722" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B722" s="17"/>
+    </row>
+    <row r="723" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B723" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A54"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="350" priority="180" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="392" priority="194" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="181" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="391" priority="195" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="182" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="390" priority="196" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="347" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="389" priority="193" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="346" priority="178" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="388" priority="192" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="345" priority="177" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="387" priority="191" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="344" priority="176" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="386" priority="190" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="343" priority="175" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="385" priority="189" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="342" priority="172" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="384" priority="186" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="173" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="383" priority="187" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="174" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="382" priority="188" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="339" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="381" priority="185" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="338" priority="170" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="380" priority="184" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="337" priority="169" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="379" priority="183" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="336" priority="166" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="378" priority="180" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="167" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="377" priority="181" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="168" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="376" priority="182" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="333" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="375" priority="179" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="332" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="374" priority="178" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="331" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="373" priority="177" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="330" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="372" priority="176" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="329" priority="161" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="371" priority="175" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="328" priority="158" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="370" priority="172" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="159" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="369" priority="173" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="160" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="368" priority="174" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="325" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="367" priority="171" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="324" priority="156" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="366" priority="170" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="323" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="365" priority="169" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="322" priority="152" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="364" priority="166" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="153" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="363" priority="167" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="154" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="362" priority="168" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F16">
-    <cfRule type="cellIs" dxfId="319" priority="151" operator="between">
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="containsText" dxfId="356" priority="158" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="159" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="160" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:F23">
+    <cfRule type="containsText" dxfId="350" priority="152" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="153" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="154" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F24">
+    <cfRule type="cellIs" dxfId="347" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="318" priority="150" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="316" priority="148" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="315" priority="147" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="314" priority="144" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="145" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="146" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="cellIs" dxfId="311" priority="143" operator="between">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="346" priority="150" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="containsText" dxfId="345" priority="149" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="containsText" dxfId="344" priority="148" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="343" priority="147" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="342" priority="144" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="145" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="146" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="cellIs" dxfId="339" priority="143" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="310" priority="142" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="309" priority="141" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:F20">
-    <cfRule type="containsText" dxfId="308" priority="138" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="139" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="140" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="305" priority="137" operator="between">
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="338" priority="142" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="337" priority="141" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:F28">
+    <cfRule type="containsText" dxfId="336" priority="138" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="139" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="140" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F29">
+    <cfRule type="cellIs" dxfId="333" priority="137" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="304" priority="136" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="303" priority="135" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="302" priority="134" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="301" priority="133" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="300" priority="130" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="131" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="132" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="cellIs" dxfId="297" priority="129" operator="between">
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="332" priority="136" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="containsText" dxfId="331" priority="135" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="330" priority="134" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="329" priority="133" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="containsText" dxfId="328" priority="130" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="131" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="132" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="cellIs" dxfId="325" priority="129" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="296" priority="128" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="295" priority="127" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:F25">
-    <cfRule type="containsText" dxfId="294" priority="124" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="125" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="126" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="291" priority="123" operator="between">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="324" priority="128" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="323" priority="127" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:F33">
+    <cfRule type="containsText" dxfId="322" priority="124" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="125" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="126" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:F34">
+    <cfRule type="cellIs" dxfId="319" priority="123" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="290" priority="122" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="289" priority="121" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="288" priority="120" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="containsText" dxfId="286" priority="116" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="117" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="118" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" dxfId="283" priority="115" operator="between">
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="318" priority="122" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="317" priority="121" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" dxfId="316" priority="120" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="315" priority="119" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="containsText" dxfId="314" priority="116" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="117" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="118" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="cellIs" dxfId="311" priority="115" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="281" priority="113" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:F30">
-    <cfRule type="containsText" dxfId="280" priority="110" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="111" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="112" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:F31">
-    <cfRule type="cellIs" dxfId="277" priority="109" operator="between">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="310" priority="114" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="309" priority="113" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:F38">
+    <cfRule type="containsText" dxfId="308" priority="110" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="111" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="112" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:F39">
+    <cfRule type="cellIs" dxfId="305" priority="109" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="276" priority="108" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="274" priority="106" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="containsText" dxfId="272" priority="102" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
-    <cfRule type="cellIs" dxfId="269" priority="101" operator="between">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="304" priority="108" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="303" priority="107" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="302" priority="106" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="301" priority="105" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:H38">
+    <cfRule type="containsText" dxfId="300" priority="102" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="103" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="104" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="cellIs" dxfId="297" priority="101" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="268" priority="100" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:F35">
-    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:F36">
-    <cfRule type="cellIs" dxfId="263" priority="95" operator="between">
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsText" dxfId="296" priority="100" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="295" priority="99" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:F43">
+    <cfRule type="containsText" dxfId="294" priority="96" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="97" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="98" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:F44">
+    <cfRule type="cellIs" dxfId="291" priority="95" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="262" priority="94" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="260" priority="92" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="258" priority="88" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="89" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:H36">
-    <cfRule type="cellIs" dxfId="255" priority="87" operator="between">
+  <conditionalFormatting sqref="C44">
+    <cfRule type="containsText" dxfId="290" priority="94" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="containsText" dxfId="289" priority="93" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="288" priority="92" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="287" priority="91" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="containsText" dxfId="286" priority="88" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="89" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="90" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44">
+    <cfRule type="cellIs" dxfId="283" priority="87" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="254" priority="86" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="253" priority="85" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:F40">
-    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:F41">
-    <cfRule type="cellIs" dxfId="249" priority="81" operator="between">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsText" dxfId="282" priority="86" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsText" dxfId="281" priority="85" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F48">
+    <cfRule type="containsText" dxfId="280" priority="82" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="83" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="84" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49">
+    <cfRule type="cellIs" dxfId="277" priority="81" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:H40">
-    <cfRule type="containsText" dxfId="244" priority="74" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="76" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
-    <cfRule type="cellIs" dxfId="241" priority="73" operator="between">
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsText" dxfId="276" priority="80" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="275" priority="79" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="274" priority="78" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="273" priority="77" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48">
+    <cfRule type="containsText" dxfId="272" priority="74" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="75" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="76" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="cellIs" dxfId="269" priority="73" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:F45">
-    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="70" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="235" priority="67" operator="between">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="268" priority="72" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="containsText" dxfId="267" priority="71" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:F53">
+    <cfRule type="containsText" dxfId="266" priority="68" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="69" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="70" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:F54">
+    <cfRule type="cellIs" dxfId="263" priority="67" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:H46">
-    <cfRule type="cellIs" dxfId="227" priority="59" operator="between">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="containsText" dxfId="262" priority="66" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="261" priority="65" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="260" priority="64" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="259" priority="63" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H53">
+    <cfRule type="containsText" dxfId="258" priority="60" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="257" priority="61" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="62" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:H54">
+    <cfRule type="cellIs" dxfId="255" priority="59" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:F50">
-    <cfRule type="containsText" dxfId="224" priority="54" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:F51">
-    <cfRule type="cellIs" dxfId="221" priority="53" operator="between">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="containsText" dxfId="254" priority="58" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="containsText" dxfId="253" priority="57" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:F58">
+    <cfRule type="containsText" dxfId="252" priority="54" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="55" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="56" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:F59">
+    <cfRule type="cellIs" dxfId="249" priority="53" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:H50">
-    <cfRule type="containsText" dxfId="216" priority="46" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="48" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:H51">
-    <cfRule type="cellIs" dxfId="213" priority="45" operator="between">
+  <conditionalFormatting sqref="C59">
+    <cfRule type="containsText" dxfId="248" priority="52" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="247" priority="51" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="246" priority="50" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="245" priority="49" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="containsText" dxfId="244" priority="46" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="47" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="48" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="cellIs" dxfId="241" priority="45" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:F55">
-    <cfRule type="containsText" dxfId="210" priority="40" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="42" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="207" priority="39" operator="between">
+  <conditionalFormatting sqref="G59">
+    <cfRule type="containsText" dxfId="240" priority="44" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="239" priority="43" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:F63">
+    <cfRule type="containsText" dxfId="238" priority="40" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="41" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="236" priority="42" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:F64">
+    <cfRule type="cellIs" dxfId="235" priority="39" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:H55">
-    <cfRule type="containsText" dxfId="202" priority="32" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="34" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:H56">
-    <cfRule type="cellIs" dxfId="199" priority="31" operator="between">
+  <conditionalFormatting sqref="C64">
+    <cfRule type="containsText" dxfId="234" priority="38" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="233" priority="37" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="232" priority="36" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="231" priority="35" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:H63">
+    <cfRule type="containsText" dxfId="230" priority="32" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="33" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="34" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64:H64">
+    <cfRule type="cellIs" dxfId="227" priority="31" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:F60">
-    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="28" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:F61">
-    <cfRule type="cellIs" dxfId="193" priority="25" operator="between">
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="226" priority="30" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="225" priority="29" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:F68">
+    <cfRule type="containsText" dxfId="224" priority="26" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="27" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="28" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="cellIs" dxfId="221" priority="25" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H60">
-    <cfRule type="containsText" dxfId="188" priority="18" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="20" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61:H61">
-    <cfRule type="cellIs" dxfId="185" priority="17" operator="between">
+  <conditionalFormatting sqref="C69">
+    <cfRule type="containsText" dxfId="220" priority="24" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="containsText" dxfId="219" priority="23" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="218" priority="22" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="217" priority="21" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:H68">
+    <cfRule type="containsText" dxfId="216" priority="18" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="19" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="20" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69:H69">
+    <cfRule type="cellIs" dxfId="213" priority="17" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65:F65">
-    <cfRule type="containsText" dxfId="182" priority="12" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="14" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="179" priority="11" operator="between">
+  <conditionalFormatting sqref="G69">
+    <cfRule type="containsText" dxfId="212" priority="16" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="211" priority="15" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:F19">
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:F20">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="178" priority="10" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:H65">
-    <cfRule type="containsText" dxfId="174" priority="4" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66:H66">
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="between">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H66)))</formula>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61:H61 C6:H6 C11:H11 C16:H16 C21:H21 C26:H26 C31:H31 C36:H36 C41:H41 C46:H46 C51:H51 C56:H56 C66:H66">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64:H64 C6:H6 C11:H11 C69:H69 C24:H24 C29:H29 C34:H34 C39:H39 C44:H44 C49:H49 C54:H54 C59:H59 C20:H20">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -8665,7 +9149,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8678,7 +9162,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -8704,7 +9188,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8715,7 +9199,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8741,7 +9225,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -8767,7 +9251,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8780,7 +9264,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -8806,7 +9290,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8817,7 +9301,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -8843,7 +9327,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -8869,7 +9353,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8882,7 +9366,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8908,7 +9392,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -8919,7 +9403,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -8945,7 +9429,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -8971,7 +9455,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8984,7 +9468,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9010,7 +9494,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9021,7 +9505,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9047,7 +9531,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9073,7 +9557,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9086,7 +9570,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9112,7 +9596,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9123,7 +9607,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9149,7 +9633,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9175,7 +9659,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9188,7 +9672,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9698,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9225,7 +9709,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9251,7 +9735,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9277,7 +9761,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9290,7 +9774,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9316,7 +9800,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9327,7 +9811,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9353,7 +9837,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9379,7 +9863,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9392,7 +9876,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9418,7 +9902,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9429,7 +9913,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9455,7 +9939,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -9481,7 +9965,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9494,7 +9978,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9520,7 +10004,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9531,7 +10015,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -9557,7 +10041,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="32"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -9583,7 +10067,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9596,7 +10080,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -9622,7 +10106,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9633,7 +10117,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9659,7 +10143,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="32"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -9685,7 +10169,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -9698,7 +10182,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -9724,7 +10208,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -9735,7 +10219,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -9761,7 +10245,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="32"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -9787,7 +10271,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -9800,7 +10284,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -9826,7 +10310,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -9837,7 +10321,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -9863,7 +10347,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="32"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -9889,7 +10373,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -9902,7 +10386,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -9928,7 +10412,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -9939,7 +10423,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -9965,7 +10449,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="32"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10213,11 +10697,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10226,771 +10705,776 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="196" priority="215" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="216" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="195" priority="216" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="217" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="194" priority="217" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="165" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="214" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="192" priority="165" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="191" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="190" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="161" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="189" priority="162" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="188" priority="161" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="187" priority="160" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="186" priority="159" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="185" priority="158" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="184" priority="157" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="cellIs" dxfId="155" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="156" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="182" priority="155" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="181" priority="154" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="152" priority="153" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="180" priority="153" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="179" priority="152" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="150" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="149" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="177" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="176" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="175" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="174" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="173" priority="146" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="172" priority="145" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="171" priority="144" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="170" priority="143" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="169" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="141" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="167" priority="140" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="166" priority="139" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="137" priority="138" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="165" priority="138" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="164" priority="137" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F36">
-    <cfRule type="cellIs" dxfId="135" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="136" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="162" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="161" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="160" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="159" priority="132" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="131" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="157" priority="130" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="156" priority="129" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="155" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="154" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="126" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="152" priority="125" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="151" priority="124" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="150" priority="123" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="149" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:F51">
-    <cfRule type="cellIs" dxfId="120" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="121" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="147" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="146" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="145" priority="118" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="144" priority="117" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="116" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="142" priority="115" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="141" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="140" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="139" priority="112" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="111" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="137" priority="110" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="136" priority="109" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="135" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="134" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="106" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="132" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="131" priority="104" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="130" priority="103" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="129" priority="102" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="128" priority="99" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="127" priority="100" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="126" priority="101" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="125" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="124" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="123" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="122" priority="93" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="121" priority="94" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="120" priority="95" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:F25">
-    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="119" priority="90" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="118" priority="91" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="117" priority="92" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="116" priority="87" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="115" priority="88" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="114" priority="89" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="113" priority="84" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="112" priority="85" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="111" priority="86" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="110" priority="81" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="109" priority="82" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="108" priority="83" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="107" priority="78" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="106" priority="79" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="105" priority="80" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="104" priority="75" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="103" priority="76" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="102" priority="77" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="101" priority="72" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="100" priority="73" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="99" priority="74" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:F60">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="98" priority="69" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="97" priority="70" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="96" priority="71" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="95" priority="66" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="94" priority="67" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="93" priority="68" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="92" priority="63" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="91" priority="64" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="90" priority="65" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="62" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="88" priority="61" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="60" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="86" priority="59" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="58" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="84" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="56" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="82" priority="55" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="54" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="80" priority="53" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="52" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="78" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="50" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="48" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="46" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="72" priority="45" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="44" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="70" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="42" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="40" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="64" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="63" priority="34" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="61" priority="36" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="59" priority="32" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="58" priority="33" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="57" priority="28" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="56" priority="29" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="55" priority="30" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="53" priority="26" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="51" priority="22" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="49" priority="24" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="47" priority="20" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="41" priority="14" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G65)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -545,6 +545,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,9 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,25 +620,364 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="393">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+  <dxfs count="357">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -660,6 +999,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -670,6 +1016,193 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -730,30 +1263,332 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -796,6 +1631,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -806,6 +1669,424 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -836,6 +2117,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -866,6 +2171,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -896,6 +2239,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -926,6 +2293,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -956,6 +2361,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -986,6 +2415,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1016,6 +2483,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1046,6 +2537,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1076,6 +2605,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1106,6 +2659,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1136,6 +2727,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1166,6 +2781,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1196,6 +2849,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1233,6 +2910,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1243,6 +2941,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1260,6 +2995,57 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1277,6 +3063,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1294,6 +3117,57 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1311,6 +3185,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1328,6 +3239,57 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1345,6 +3307,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1362,6 +3361,57 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1379,74 +3429,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1503,2294 +3485,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4375,7 +4069,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4441,7 +4135,7 @@
       </c>
       <c r="C3" s="13">
         <f t="shared" ref="C3:F3" ca="1" si="0">IF(AND(NOT(ISBLANK(C2)), NOT(C2 = "לא ניתן תרגיל")), IF(OR(C4 = "כן", C4 = "לא"), "", C2-TODAY()), "")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4459,9 +4153,9 @@
         <f t="shared" ref="G3:H3" ca="1" si="1">IF(AND(NOT(ISBLANK(G2)), NOT(G2 = "לא ניתן תרגיל")), IF(OR(G4 = "כן", G4 = "לא"), "", G2-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4482,7 +4176,9 @@
       <c r="G4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A5" s="31"/>
@@ -4511,7 +4207,7 @@
       </c>
       <c r="H5" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4747,7 +4443,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -4759,7 +4455,7 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
@@ -4789,7 +4485,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -6014,27 +5710,27 @@
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="e">
-        <f>AVERAGE(C6,C11,C19,C24,C29,C34,C39,C44,C49,C54,C59,C64,C69)</f>
+        <f t="shared" ref="C70:H70" si="44">AVERAGE(C6,C11,C19,C24,C29,C34,C39,C44,C49,C54,C59,C64,C69)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D70" s="9" t="e">
-        <f>AVERAGE(D6,D11,D19,D24,D29,D34,D39,D44,D49,D54,D59,D64,D69)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E70" s="9" t="e">
-        <f>AVERAGE(E6,E11,E19,E24,E29,E34,E39,E44,E49,E54,E59,E64,E69)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F70" s="9" t="e">
-        <f>AVERAGE(F6,F11,F19,F24,F29,F34,F39,F44,F49,F54,F59,F64,F69)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G70" s="9" t="e">
-        <f>AVERAGE(G6,G11,G19,G24,G29,G34,G39,G44,G49,G54,G59,G64,G69)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="9" t="e">
-        <f>AVERAGE(H6,H11,H19,H24,H29,H34,H39,H44,H49,H54,H59,H64,H69)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6191,14 +5887,14 @@
         <v>32</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" ref="B81:B86" si="44">G73</f>
+        <f t="shared" ref="B81:B86" si="45">G73</f>
         <v>0</v>
       </c>
       <c r="C81" s="5">
         <v>4</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" ref="D81:D86" si="45">B81*C81</f>
+        <f t="shared" ref="D81:D86" si="46">B81*C81</f>
         <v>0</v>
       </c>
       <c r="E81"/>
@@ -6210,14 +5906,14 @@
         <v>33</v>
       </c>
       <c r="B82" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C82" s="5">
         <v>3</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E82"/>
@@ -6229,14 +5925,14 @@
         <v>34</v>
       </c>
       <c r="B83" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C83" s="5">
         <v>5</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E83"/>
@@ -6248,14 +5944,14 @@
         <v>35</v>
       </c>
       <c r="B84" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C84" s="5">
         <v>4</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E84"/>
@@ -6267,14 +5963,14 @@
         <v>36</v>
       </c>
       <c r="B85" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C85" s="5">
         <v>3</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E85"/>
@@ -6286,14 +5982,14 @@
         <v>37</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -8230,6 +7926,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
@@ -8238,863 +7939,858 @@
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="392" priority="194" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="391" priority="195" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="355" priority="195" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="196" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="354" priority="196" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="389" priority="193" operator="between">
+    <cfRule type="cellIs" dxfId="353" priority="193" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="388" priority="192" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="352" priority="192" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="387" priority="191" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="351" priority="191" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="386" priority="190" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="350" priority="190" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="385" priority="189" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="349" priority="189" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="384" priority="186" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="348" priority="186" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="187" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="347" priority="187" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="188" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="346" priority="188" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="381" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="345" priority="185" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="380" priority="184" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="344" priority="184" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="379" priority="183" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="343" priority="183" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="378" priority="180" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="342" priority="180" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="181" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="341" priority="181" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="182" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="340" priority="182" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="375" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="339" priority="179" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="374" priority="178" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="338" priority="178" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="373" priority="177" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="337" priority="177" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="372" priority="176" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="336" priority="176" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="371" priority="175" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="335" priority="175" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="370" priority="172" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="334" priority="172" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="173" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="333" priority="173" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="174" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="332" priority="174" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="367" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="331" priority="171" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="366" priority="170" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="330" priority="170" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="365" priority="169" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="329" priority="169" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="364" priority="166" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="328" priority="166" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="167" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="327" priority="167" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="168" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="326" priority="168" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="356" priority="158" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="325" priority="158" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="159" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="324" priority="159" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="160" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="323" priority="160" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:F23">
-    <cfRule type="containsText" dxfId="350" priority="152" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="322" priority="152" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="153" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="321" priority="153" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="154" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="320" priority="154" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="cellIs" dxfId="347" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="319" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="346" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="318" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="345" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="344" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="316" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="343" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="315" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="342" priority="144" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="314" priority="144" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="145" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="313" priority="145" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="146" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="312" priority="146" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="cellIs" dxfId="339" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="143" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="338" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="310" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="337" priority="141" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="309" priority="141" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="containsText" dxfId="336" priority="138" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="308" priority="138" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="139" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="307" priority="139" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="140" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="306" priority="140" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="cellIs" dxfId="333" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="137" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="332" priority="136" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="304" priority="136" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="331" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="303" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="330" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="302" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="329" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="301" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="328" priority="130" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="300" priority="130" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="131" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="299" priority="131" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="132" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="298" priority="132" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="325" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="297" priority="129" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="324" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="296" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="323" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="295" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="containsText" dxfId="322" priority="124" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="294" priority="124" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="125" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="293" priority="125" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="126" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="292" priority="126" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="cellIs" dxfId="319" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="291" priority="123" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="318" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="290" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="317" priority="121" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="289" priority="121" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="316" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="288" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="315" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="314" priority="116" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="286" priority="116" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="117" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="285" priority="117" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="118" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="284" priority="118" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="cellIs" dxfId="311" priority="115" operator="between">
+    <cfRule type="cellIs" dxfId="283" priority="115" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="310" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="309" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="281" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38">
-    <cfRule type="containsText" dxfId="308" priority="110" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="280" priority="110" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="111" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="279" priority="111" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="112" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="278" priority="112" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:F39">
-    <cfRule type="cellIs" dxfId="305" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="277" priority="109" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="304" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="276" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="303" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="302" priority="106" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="274" priority="106" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="301" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="300" priority="102" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="272" priority="102" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="103" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="104" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="cellIs" dxfId="297" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="101" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="296" priority="100" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="268" priority="100" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="295" priority="99" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="containsText" dxfId="294" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="291" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="95" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="290" priority="94" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="262" priority="94" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="289" priority="93" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="288" priority="92" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="260" priority="92" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="287" priority="91" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="286" priority="88" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="258" priority="88" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="89" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="257" priority="89" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="90" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="283" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="87" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="282" priority="86" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="254" priority="86" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="281" priority="85" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="253" priority="85" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="containsText" dxfId="280" priority="82" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="83" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="84" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="277" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="81" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="276" priority="80" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="275" priority="79" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="274" priority="78" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="273" priority="77" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="containsText" dxfId="272" priority="74" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="244" priority="74" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="75" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="76" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="242" priority="76" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="269" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="73" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="268" priority="72" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="267" priority="71" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F53">
-    <cfRule type="containsText" dxfId="266" priority="68" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="69" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="70" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="236" priority="70" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:F54">
-    <cfRule type="cellIs" dxfId="263" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="67" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="262" priority="66" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="261" priority="65" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="260" priority="64" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="259" priority="63" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="258" priority="60" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="61" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="62" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="cellIs" dxfId="255" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="59" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="containsText" dxfId="254" priority="58" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="253" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="containsText" dxfId="252" priority="54" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="224" priority="54" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="55" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="56" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:F59">
-    <cfRule type="cellIs" dxfId="249" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="53" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="containsText" dxfId="248" priority="52" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="247" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="246" priority="50" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="245" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="244" priority="46" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="216" priority="46" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="47" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="48" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="214" priority="48" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="cellIs" dxfId="241" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="45" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="240" priority="44" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="239" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:F63">
-    <cfRule type="containsText" dxfId="238" priority="40" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="210" priority="40" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="41" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="42" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="208" priority="42" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="cellIs" dxfId="235" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="39" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="234" priority="38" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="233" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="232" priority="36" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="231" priority="35" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="230" priority="32" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="202" priority="32" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="33" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="34" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="200" priority="34" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:H64">
-    <cfRule type="cellIs" dxfId="227" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="31" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="226" priority="30" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="225" priority="29" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:F68">
-    <cfRule type="containsText" dxfId="224" priority="26" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="27" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="28" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="194" priority="28" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:F69">
-    <cfRule type="cellIs" dxfId="221" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="25" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="containsText" dxfId="220" priority="24" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="219" priority="23" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="218" priority="22" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="217" priority="21" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="216" priority="18" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="188" priority="18" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="19" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="20" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="186" priority="20" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:H69">
-    <cfRule type="cellIs" dxfId="213" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="185" priority="17" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="212" priority="16" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="211" priority="15" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="182" priority="12" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="180" priority="14" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="11" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="178" priority="10" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="174" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9149,7 +8845,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9162,7 +8858,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -9188,7 +8884,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9199,7 +8895,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -9225,7 +8921,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -9264,7 +8960,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9290,7 +8986,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9301,7 +8997,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -9327,7 +9023,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -9366,7 +9062,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9392,7 +9088,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9403,7 +9099,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9429,7 +9125,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -9455,7 +9151,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9468,7 +9164,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9494,7 +9190,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9505,7 +9201,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9531,7 +9227,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9570,7 +9266,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9596,7 +9292,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9607,7 +9303,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9633,7 +9329,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9672,7 +9368,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9698,7 +9394,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9709,7 +9405,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9735,7 +9431,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9774,7 +9470,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9800,7 +9496,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9811,7 +9507,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9837,7 +9533,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9876,7 +9572,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9902,7 +9598,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9913,7 +9609,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9939,7 +9635,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -9978,7 +9674,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -10004,7 +9700,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -10015,7 +9711,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -10041,7 +9737,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -10080,7 +9776,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -10106,7 +9802,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -10117,7 +9813,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -10143,7 +9839,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -10182,7 +9878,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -10208,7 +9904,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -10219,7 +9915,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -10245,7 +9941,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -10284,7 +9980,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -10310,7 +10006,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -10321,7 +10017,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="33"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10347,7 +10043,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -10386,7 +10082,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="33"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -10412,7 +10108,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -10423,7 +10119,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -10449,7 +10145,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="34"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10697,6 +10393,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10705,776 +10406,771 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="196" priority="215" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="216" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="167" priority="216" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="217" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="166" priority="217" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="193" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="214" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="192" priority="165" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="191" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="190" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="189" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="161" priority="162" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="188" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="187" priority="160" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="186" priority="159" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="185" priority="158" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="184" priority="157" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="cellIs" dxfId="183" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="156" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="182" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="181" priority="154" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="180" priority="153" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="152" priority="153" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="179" priority="152" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="178" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="177" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="149" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="176" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="175" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="174" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="173" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="172" priority="145" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="171" priority="144" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="170" priority="143" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="169" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="cellIs" dxfId="168" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="167" priority="140" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="166" priority="139" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="165" priority="138" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="137" priority="138" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="164" priority="137" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F36">
-    <cfRule type="cellIs" dxfId="163" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="162" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="161" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="160" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="159" priority="132" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="cellIs" dxfId="158" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="157" priority="130" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="156" priority="129" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="155" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="154" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="153" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="152" priority="125" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="151" priority="124" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="150" priority="123" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="149" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:F51">
-    <cfRule type="cellIs" dxfId="148" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="147" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="146" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="145" priority="118" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="144" priority="117" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="143" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="142" priority="115" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="141" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="140" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="139" priority="112" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="cellIs" dxfId="138" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="137" priority="110" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="136" priority="109" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="135" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="134" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="133" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="132" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="131" priority="104" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="130" priority="103" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="129" priority="102" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="128" priority="99" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="100" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="101" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="125" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="containsText" dxfId="122" priority="93" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="94" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="95" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:F25">
-    <cfRule type="containsText" dxfId="119" priority="90" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="91" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="92" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="containsText" dxfId="116" priority="87" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="88" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="89" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="containsText" dxfId="113" priority="84" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="85" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="86" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="containsText" dxfId="110" priority="81" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="82" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="83" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45">
-    <cfRule type="containsText" dxfId="107" priority="78" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="79" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="80" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="containsText" dxfId="104" priority="75" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="76" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="77" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="containsText" dxfId="101" priority="72" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="73" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="74" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:F60">
-    <cfRule type="containsText" dxfId="98" priority="69" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="70" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="71" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="containsText" dxfId="95" priority="66" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="67" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="68" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="92" priority="63" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="64" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="65" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="89" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="88" priority="61" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="87" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="86" priority="59" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="85" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="84" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="83" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="82" priority="55" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="81" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="80" priority="53" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="79" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="78" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="77" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="75" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="73" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="72" priority="45" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="71" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="70" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="69" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="65" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="64" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="63" priority="34" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="36" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="32" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="33" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="57" priority="28" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="29" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="30" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="26" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="51" priority="22" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="24" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="20" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="14" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G65)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4067,9 +4067,9 @@
   </sheetPr>
   <dimension ref="A1:H723"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4133,9 +4133,9 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="13" t="str">
         <f t="shared" ref="C3:F3" ca="1" si="0">IF(AND(NOT(ISBLANK(C2)), NOT(C2 = "לא ניתן תרגיל")), IF(OR(C4 = "כן", C4 = "לא"), "", C2-TODAY()), "")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="D3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4163,7 +4163,9 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
@@ -4187,7 +4189,7 @@
       </c>
       <c r="C5" s="22" t="str">
         <f t="shared" ref="C5:F5" si="2">IF(C4 = "כן","בוצע", IF(C4 = "לא", "לא הוגש", IF((C2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C2)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="D5" s="22" t="str">
         <f t="shared" si="2"/>
@@ -4247,41 +4249,53 @@
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="24">
+        <v>41962</v>
+      </c>
+      <c r="D7" s="24">
+        <v>41955</v>
+      </c>
+      <c r="E7" s="24">
+        <v>41955</v>
+      </c>
+      <c r="F7" s="24">
+        <v>41955</v>
+      </c>
+      <c r="G7" s="24">
+        <v>41955</v>
+      </c>
+      <c r="H7" s="24">
+        <v>41955</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:H8" ca="1" si="6">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="13" t="str">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E8" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="G8" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="H8" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4291,7 +4305,9 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -4303,27 +4319,27 @@
       </c>
       <c r="C10" s="22" t="str">
         <f t="shared" ref="C10:H10" si="7">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="D10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="E10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>בוצע</v>
       </c>
       <c r="F10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="G10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="H10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>טרם</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -7926,11 +7942,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
@@ -7939,6 +7950,11 @@
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
@@ -10393,11 +10409,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10406,6 +10417,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4069,7 +4069,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4275,11 +4275,11 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" ref="C8:H8" ca="1" si="6">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4287,15 +4287,15 @@
       </c>
       <c r="F8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4310,7 +4310,9 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A10" s="31"/>
@@ -4339,7 +4341,7 @@
       </c>
       <c r="H10" s="22" t="str">
         <f t="shared" si="7"/>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -7942,6 +7944,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
@@ -7950,11 +7957,6 @@
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
@@ -10409,6 +10411,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10417,11 +10424,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,6 +545,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,7 +626,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="357">
+  <dxfs count="393">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -982,6 +988,126 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2141,6 +2267,130 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3759,6 +4009,68 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4065,11 +4377,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H723"/>
+  <dimension ref="A1:H728"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4103,7 +4415,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4129,7 +4441,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4159,7 +4471,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +4495,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4525,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -4234,16 +4546,15 @@
         <v/>
       </c>
       <c r="G6" s="23" t="str">
-        <f t="shared" ref="G6:H6" si="5">IF(G2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="H6" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="G6" si="5">IF(G2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4269,17 +4580,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" ref="C8:H8" ca="1" si="6">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4287,11 +4598,11 @@
       </c>
       <c r="F8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4299,7 +4610,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +4626,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -4345,7 +4656,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
@@ -4375,7 +4686,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4389,7 +4700,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4730,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4742,7 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -4461,7 +4772,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -4473,7 +4784,7 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
@@ -4503,7 +4814,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -4514,174 +4825,172 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A19" s="35"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" ref="C19:H19" si="12">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
+        <f>IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D19" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(D18 = "כן","בוצע", IF(D18 = "לא", "לא הוגש", IF((D16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E19" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(E18 = "כן","בוצע", IF(E18 = "לא", "לא הוגש", IF((E16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F19" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(F18 = "כן","בוצע", IF(F18 = "לא", "לא הוגש", IF((F16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G19" s="29" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(G18 = "כן","בוצע", IF(G18 = "לא", "לא הוגש", IF((G16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="H19" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>7</v>
-      </c>
+        <f>IF(H18 = "כן","בוצע", IF(H18 = "לא", "לא הוגש", IF((H16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(H16)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="30" t="str">
-        <f t="shared" ref="C20:H20" si="13">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D20" s="30" t="str">
+      <c r="C20" s="32" t="str">
+        <f t="shared" ref="C20:H20" si="12">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D20" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E20" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F20" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G20" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H20" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="30" t="str">
+        <f t="shared" ref="C21:H21" si="13">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D21" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E20" s="30" t="str">
+      <c r="E21" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F21" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G21" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H21" s="30" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="11" t="s">
+    <row r="22" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="13" t="e">
-        <f t="shared" ref="C21:H21" ca="1" si="14">IF(AND(NOT(ISBLANK(C20)), NOT(C20 = "לא ניתן תרגיל")), IF(OR(C22 = "כן", C22 = "לא"), "", C20-TODAY()), "")</f>
+      <c r="C22" s="13" t="e">
+        <f t="shared" ref="C22:H22" ca="1" si="14">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="13" t="e">
+      <c r="D22" s="13" t="e">
         <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="13" t="e">
+      <c r="E22" s="13" t="e">
         <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="13" t="e">
+      <c r="F22" s="13" t="e">
         <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="13" t="e">
+      <c r="G22" s="13" t="e">
         <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="13" t="e">
+      <c r="H22" s="13" t="e">
         <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="22" t="str">
-        <f t="shared" ref="C23:H23" si="15">IF(C22 = "כן","בוצע", IF(C22 = "לא", "לא הוגש", IF((C20 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C20)), "טרם", ""))))</f>
+      <c r="C24" s="22" t="str">
+        <f t="shared" ref="C24:H24" si="15">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>טרם</v>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>טרם</v>
       </c>
-      <c r="F23" s="22" t="str">
+      <c r="F24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>טרם</v>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>טרם</v>
       </c>
-      <c r="H23" s="22" t="str">
+      <c r="H24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>טרם</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="23" t="str">
-        <f t="shared" ref="C24:H24" si="16">IF(C20 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H24" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A25" s="31" t="s">
-        <v>8</v>
-      </c>
+    <row r="25" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A25" s="35"/>
       <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
@@ -4692,38 +5001,38 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A26" s="31"/>
+    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A26" s="35"/>
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f t="shared" ref="C26:H26" ca="1" si="17">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
+        <f t="shared" ref="C26:H26" ca="1" si="16">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="E26" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="F26" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="G26" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A27" s="31"/>
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A27" s="35"/>
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
@@ -4734,69 +5043,69 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A28" s="35"/>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="22" t="str">
-        <f t="shared" ref="C28:H28" si="18">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
-        <v/>
-      </c>
-      <c r="D28" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E28" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F28" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G28" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H28" s="22" t="str">
-        <f t="shared" si="18"/>
+      <c r="C28" s="31" t="str">
+        <f>IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D28" s="31" t="str">
+        <f>IF(D27 = "כן","בוצע", IF(D27 = "לא", "לא הוגש", IF((D25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="E28" s="31" t="str">
+        <f>IF(E27 = "כן","בוצע", IF(E27 = "לא", "לא הוגש", IF((E25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="F28" s="31" t="str">
+        <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="G28" s="31" t="str">
+        <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="H28" s="31" t="str">
+        <f>IF(H27 = "כן","בוצע", IF(H27 = "לא", "לא הוגש", IF((H25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(H25)), "טרם", ""))))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f t="shared" ref="C29:H29" si="19">IF(C25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C29:H29" si="17">IF(C21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F29" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G29" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H29" s="23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A30" s="31" t="s">
-        <v>9</v>
+      <c r="A30" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>2</v>
@@ -4809,37 +5118,37 @@
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31:H31" ca="1" si="20">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <f t="shared" ref="C31:H31" ca="1" si="18">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="E31" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="G31" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
@@ -4851,68 +5160,68 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:H33" si="21">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <f t="shared" ref="C33:H33" si="19">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34:H34" si="22">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34:H34" si="20">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F34" s="23" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G34" s="23" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H34" s="23" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>10</v>
+      <c r="A35" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>2</v>
@@ -4925,37 +5234,37 @@
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36:H36" ca="1" si="23">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36:H36" ca="1" si="21">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="E36" s="13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="G36" s="13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
@@ -4967,68 +5276,68 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38:H38" si="24">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38:H38" si="22">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E38" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F38" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G38" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H38" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39:H39" si="25">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39:H39" si="23">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F39" s="23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G39" s="23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H39" s="23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A40" s="31" t="s">
-        <v>11</v>
+      <c r="A40" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>2</v>
@@ -5041,37 +5350,37 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41:H41" ca="1" si="26">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41:H41" ca="1" si="24">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="E41" s="13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="G41" s="13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
@@ -5083,68 +5392,68 @@
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43:H43" si="27">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43:H43" si="25">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E43" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="F43" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="G43" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="H43" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44:H44" si="28">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44:H44" si="26">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F44" s="23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G44" s="23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H44" s="23" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A45" s="31" t="s">
-        <v>12</v>
+      <c r="A45" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>2</v>
@@ -5157,37 +5466,37 @@
       <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46:H46" ca="1" si="29">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46:H46" ca="1" si="27">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="E46" s="13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="F46" s="13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
@@ -5199,68 +5508,68 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48:H48" si="30">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48:H48" si="28">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E48" s="22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F48" s="22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G48" s="22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H48" s="22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A49" s="32"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49:H49" si="31">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49:H49" si="29">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F49" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G49" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H49" s="23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A50" s="31" t="s">
-        <v>13</v>
+      <c r="A50" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>2</v>
@@ -5273,37 +5582,37 @@
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51:H51" ca="1" si="32">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51:H51" ca="1" si="30">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="E51" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="F51" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="G51" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="H51" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
@@ -5315,68 +5624,68 @@
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53:H53" si="33">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53:H53" si="31">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E53" s="22" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F53" s="22" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G53" s="22" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H53" s="22" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A54" s="32"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54:H54" si="34">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54:H54" si="32">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F54" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G54" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H54" s="23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A55" s="31" t="s">
-        <v>14</v>
+      <c r="A55" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>2</v>
@@ -5389,37 +5698,37 @@
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56:H56" ca="1" si="35">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56:H56" ca="1" si="33">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="E56" s="13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="F56" s="13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="G56" s="13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="H56" s="13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
@@ -5431,68 +5740,68 @@
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58:H58" si="36">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58:H58" si="34">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E58" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="F58" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G58" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="H58" s="22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="32"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59:H59" si="37">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59:H59" si="35">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="F59" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="G59" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H59" s="23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A60" s="31" t="s">
-        <v>15</v>
+      <c r="A60" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>2</v>
@@ -5505,37 +5814,37 @@
       <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61:H61" ca="1" si="38">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61:H61" ca="1" si="36">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="E61" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="F61" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="G61" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="H61" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
@@ -5547,68 +5856,68 @@
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63:H63" si="39">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63:H63" si="37">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E63" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F63" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G63" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H63" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A64" s="32"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64:H64" si="40">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64:H64" si="38">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F64" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G64" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H64" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A65" s="31" t="s">
-        <v>16</v>
+      <c r="A65" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>2</v>
@@ -5621,37 +5930,37 @@
       <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66:H66" ca="1" si="41">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66:H66" ca="1" si="39">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="E66" s="13" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="F66" s="13" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="G66" s="13" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="H66" s="13" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
@@ -5663,351 +5972,372 @@
       <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68:H68" si="42">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68:H68" si="40">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E68" s="22" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F68" s="22" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G68" s="22" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H68" s="22" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A69" s="32"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69:H69" si="43">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69:H69" si="41">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="E69" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F69" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G69" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H69" s="23" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A71" s="33"/>
+      <c r="B71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="13" t="str">
+        <f t="shared" ref="C71:H71" ca="1" si="42">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D71" s="13" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="E71" s="13" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="F71" s="13" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="G71" s="13" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="H71" s="13" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A72" s="33"/>
+      <c r="B72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A73" s="33"/>
+      <c r="B73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="22" t="str">
+        <f t="shared" ref="C73:H73" si="43">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D73" s="22" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E69" s="23" t="str">
+      <c r="E73" s="22" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F69" s="23" t="str">
+      <c r="F73" s="22" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G69" s="23" t="str">
+      <c r="G73" s="22" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H69" s="23" t="str">
+      <c r="H73" s="22" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A70" s="16" t="s">
+    <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="23" t="str">
+        <f t="shared" ref="C74:H74" si="44">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D74" s="23" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="E74" s="23" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F74" s="23" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G74" s="23" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H74" s="23" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A75" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9" t="e">
-        <f t="shared" ref="C70:H70" si="44">AVERAGE(C6,C11,C19,C24,C29,C34,C39,C44,C49,C54,C59,C64,C69)</f>
+      <c r="B75" s="11"/>
+      <c r="C75" s="9" t="e">
+        <f>AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D70" s="9" t="e">
-        <f t="shared" si="44"/>
+      <c r="D75" s="9" t="e">
+        <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="9" t="e">
-        <f t="shared" si="44"/>
+      <c r="E75" s="9" t="e">
+        <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F70" s="9" t="e">
-        <f t="shared" si="44"/>
+      <c r="F75" s="9" t="e">
+        <f>AVERAGE(F6,F11,F19,F29,F34,F39,F44,F49,F54,F59,F64,F69,F74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="9" t="e">
-        <f t="shared" si="44"/>
+      <c r="G75" s="9" t="e">
+        <f>AVERAGE(G6,G11,G19,G29,G34,G39,G44,G49,G54,G59,G64,G69,G74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="9" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="B71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A72"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="19" t="s">
+      <c r="H75" s="9">
+        <f>AVERAGE(H6,H11,H19,H29,H34,H39,H44,H49,H54,H59,H64,H69,H74)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A77"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F77" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A73" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="5" t="e">
-        <f>C70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="e">
-        <f>0.15*C73+0.1*D73+0.6*E73+0.15*MAX(D73,E73)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="5" t="e">
-        <f>D70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f>E74</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A75" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="5" t="e">
-        <f>E70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="e">
-        <f>0.25*C75+0.75*E75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A76" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="5" t="e">
-        <f>F70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="e">
-        <f>0.2*C76+0.1*D76+0.7*E76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="5" t="e">
-        <f>G70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
-        <f>E77</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="5" t="e">
-        <f>H70</f>
+        <f>C75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="e">
-        <f>0.2*C78+0.8*E78</f>
+        <f>0.15*C78+0.1*D78+0.6*E78+0.15*MAX(D78,E78)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
+    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A79" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="5" t="e">
+        <f>D75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f>E79</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A80"/>
-      <c r="B80" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
+      <c r="A80" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="5" t="e">
+        <f>E75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="e">
+        <f>0.25*C80+0.75*E80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="5">
-        <f t="shared" ref="B81:B86" si="45">G73</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="5">
-        <v>4</v>
-      </c>
-      <c r="D81" s="5">
-        <f t="shared" ref="D81:D86" si="46">B81*C81</f>
-        <v>0</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
+        <v>35</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="5" t="e">
+        <f>F75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="e">
+        <f>0.2*C81+0.1*D81+0.7*E81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="5">
-        <f t="shared" si="45"/>
+        <v>36</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="5" t="e">
+        <f>G75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
+        <f>E82</f>
         <v>0</v>
       </c>
-      <c r="C82" s="5">
-        <v>3</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="5">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="5">
-        <v>5</v>
-      </c>
-      <c r="D83" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="5">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="C84" s="5">
-        <v>4</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
+        <f>H75</f>
+        <v>100</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
+        <f>0.2*C83+0.8*E83</f>
+        <v>20</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="5">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="C85" s="5">
-        <v>3</v>
-      </c>
-      <c r="D85" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
+      <c r="A85"/>
+      <c r="B85" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="86" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="B86:B91" si="45">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="D86:D91" si="46">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -6015,19 +6345,18 @@
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A87" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="20">
-        <f>D87/C87</f>
+      <c r="A87" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="5">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="C87" s="20">
-        <f>SUM(C81:C86)</f>
-        <v>22</v>
-      </c>
-      <c r="D87" s="20">
-        <f>SUM(D81:D86)</f>
+      <c r="C87" s="5">
+        <v>3</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -6035,19 +6364,100 @@
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B88" s="17"/>
+      <c r="A88" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>5</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
     </row>
     <row r="89" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B89" s="17"/>
+      <c r="A89" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
     </row>
     <row r="90" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B91" s="17"/>
+      <c r="A90" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>3</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A91" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
     </row>
     <row r="92" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="B92" s="17"/>
+      <c r="A92" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="20">
+        <f>D92/C92</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="20">
+        <f>SUM(C86:C91)</f>
+        <v>22</v>
+      </c>
+      <c r="D92" s="20">
+        <f>SUM(D86:D91)</f>
+        <v>0</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
     </row>
     <row r="93" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="B93" s="17"/>
@@ -6130,19 +6540,19 @@
     <row r="119" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B119" s="17"/>
     </row>
-    <row r="120" spans="2:2" ht="23.1" customHeight="1">
+    <row r="120" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B120" s="17"/>
     </row>
-    <row r="121" spans="2:2" ht="23.1" customHeight="1">
+    <row r="121" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B121" s="17"/>
     </row>
-    <row r="122" spans="2:2" ht="23.1" customHeight="1">
+    <row r="122" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B122" s="17"/>
     </row>
-    <row r="123" spans="2:2" ht="23.1" customHeight="1">
+    <row r="123" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B123" s="17"/>
     </row>
-    <row r="124" spans="2:2" ht="23.1" customHeight="1">
+    <row r="124" spans="2:2" ht="17.399999999999999" customHeight="1">
       <c r="B124" s="17"/>
     </row>
     <row r="125" spans="2:2" ht="23.1" customHeight="1">
@@ -7942,878 +8352,957 @@
     <row r="723" spans="2:2" ht="23.1" customHeight="1">
       <c r="B723" s="17"/>
     </row>
+    <row r="724" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B724" s="17"/>
+    </row>
+    <row r="725" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B725" s="17"/>
+    </row>
+    <row r="726" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B726" s="17"/>
+    </row>
+    <row r="727" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B727" s="17"/>
+    </row>
+    <row r="728" spans="2:2" ht="23.1" customHeight="1">
+      <c r="B728" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="384" priority="208" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="195" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="383" priority="209" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="196" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="382" priority="210" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="353" priority="193" operator="between">
+    <cfRule type="cellIs" dxfId="381" priority="207" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="352" priority="192" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="380" priority="206" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="351" priority="191" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="379" priority="205" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="350" priority="190" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="378" priority="204" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="349" priority="189" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="377" priority="203" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="348" priority="186" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="376" priority="200" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="187" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="375" priority="201" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="188" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="374" priority="202" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="345" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="373" priority="199" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="344" priority="184" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="372" priority="198" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="343" priority="183" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="371" priority="197" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="342" priority="180" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="370" priority="194" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="181" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="369" priority="195" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="182" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="368" priority="196" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="339" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="367" priority="193" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="338" priority="178" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="366" priority="192" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="337" priority="177" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="365" priority="191" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="336" priority="176" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="364" priority="190" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="335" priority="175" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="363" priority="189" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="334" priority="172" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="362" priority="186" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="173" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="361" priority="187" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="174" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="360" priority="188" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="331" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="359" priority="185" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="330" priority="170" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="358" priority="184" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="329" priority="169" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="357" priority="183" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="328" priority="166" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="356" priority="180" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="167" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="355" priority="181" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="168" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="354" priority="182" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="325" priority="158" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="353" priority="172" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="159" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="352" priority="173" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="160" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="351" priority="174" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:F23">
-    <cfRule type="containsText" dxfId="322" priority="152" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="153" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="154" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="cellIs" dxfId="319" priority="151" operator="between">
+    <cfRule type="containsText" dxfId="350" priority="166" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="167" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="168" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F29">
+    <cfRule type="cellIs" dxfId="347" priority="165" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="318" priority="150" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="316" priority="148" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="315" priority="147" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="314" priority="144" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="145" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="146" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G23)))</formula>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="346" priority="164" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="containsText" dxfId="345" priority="163" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="344" priority="162" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="343" priority="161" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="cellIs" dxfId="311" priority="143" operator="between">
+    <cfRule type="containsText" dxfId="342" priority="158" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="159" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="160" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="cellIs" dxfId="339" priority="157" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="310" priority="142" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="309" priority="141" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:F28">
-    <cfRule type="containsText" dxfId="308" priority="138" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="139" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="140" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F29">
-    <cfRule type="cellIs" dxfId="305" priority="137" operator="between">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="338" priority="156" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="337" priority="155" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:F33">
+    <cfRule type="containsText" dxfId="336" priority="152" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="153" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="154" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:F34">
+    <cfRule type="cellIs" dxfId="333" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="304" priority="136" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="303" priority="135" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="302" priority="134" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="301" priority="133" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="300" priority="130" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="131" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="132" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="297" priority="129" operator="between">
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="332" priority="150" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="331" priority="149" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" dxfId="330" priority="148" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="329" priority="147" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="containsText" dxfId="328" priority="144" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="145" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="146" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="cellIs" dxfId="325" priority="143" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="296" priority="128" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="295" priority="127" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:F33">
-    <cfRule type="containsText" dxfId="294" priority="124" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="125" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="126" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F34">
-    <cfRule type="cellIs" dxfId="291" priority="123" operator="between">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="324" priority="142" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="323" priority="141" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:F38">
+    <cfRule type="containsText" dxfId="322" priority="138" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="139" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="140" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:F39">
+    <cfRule type="cellIs" dxfId="319" priority="137" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="290" priority="122" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="289" priority="121" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="288" priority="120" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="286" priority="116" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="117" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="118" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="cellIs" dxfId="283" priority="115" operator="between">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="318" priority="136" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="317" priority="135" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="316" priority="134" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="315" priority="133" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:H38">
+    <cfRule type="containsText" dxfId="314" priority="130" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="131" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="132" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="cellIs" dxfId="311" priority="129" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="281" priority="113" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:F38">
-    <cfRule type="containsText" dxfId="280" priority="110" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="111" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="112" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:F39">
-    <cfRule type="cellIs" dxfId="277" priority="109" operator="between">
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsText" dxfId="310" priority="128" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="309" priority="127" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:F43">
+    <cfRule type="containsText" dxfId="308" priority="124" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="125" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="126" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:F44">
+    <cfRule type="cellIs" dxfId="305" priority="123" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="276" priority="108" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="274" priority="106" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="272" priority="102" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
-    <cfRule type="cellIs" dxfId="269" priority="101" operator="between">
+  <conditionalFormatting sqref="C44">
+    <cfRule type="containsText" dxfId="304" priority="122" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="containsText" dxfId="303" priority="121" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="302" priority="120" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="301" priority="119" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="containsText" dxfId="300" priority="116" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="117" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="118" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44">
+    <cfRule type="cellIs" dxfId="297" priority="115" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="268" priority="100" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:F43">
-    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="263" priority="95" operator="between">
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsText" dxfId="296" priority="114" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="containsText" dxfId="295" priority="113" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F48">
+    <cfRule type="containsText" dxfId="294" priority="110" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="111" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="112" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49">
+    <cfRule type="cellIs" dxfId="291" priority="109" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="262" priority="94" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="260" priority="92" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="258" priority="88" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="89" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="255" priority="87" operator="between">
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsText" dxfId="290" priority="108" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="289" priority="107" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="288" priority="106" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="287" priority="105" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48">
+    <cfRule type="containsText" dxfId="286" priority="102" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="103" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="104" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="cellIs" dxfId="283" priority="101" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="254" priority="86" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="253" priority="85" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:F48">
-    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="249" priority="81" operator="between">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="282" priority="100" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="containsText" dxfId="281" priority="99" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:F53">
+    <cfRule type="containsText" dxfId="280" priority="96" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="97" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="98" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:F54">
+    <cfRule type="cellIs" dxfId="277" priority="95" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48">
-    <cfRule type="containsText" dxfId="244" priority="74" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="76" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="241" priority="73" operator="between">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="containsText" dxfId="276" priority="94" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="275" priority="93" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="274" priority="92" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="273" priority="91" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H53">
+    <cfRule type="containsText" dxfId="272" priority="88" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="89" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="90" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:H54">
+    <cfRule type="cellIs" dxfId="269" priority="87" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:F53">
-    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="70" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:F54">
-    <cfRule type="cellIs" dxfId="235" priority="67" operator="between">
+  <conditionalFormatting sqref="G54">
+    <cfRule type="containsText" dxfId="268" priority="86" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="containsText" dxfId="267" priority="85" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:F58">
+    <cfRule type="containsText" dxfId="266" priority="82" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="83" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="84" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:F59">
+    <cfRule type="cellIs" dxfId="263" priority="81" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:H54">
-    <cfRule type="cellIs" dxfId="227" priority="59" operator="between">
+  <conditionalFormatting sqref="C59">
+    <cfRule type="containsText" dxfId="262" priority="80" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="261" priority="79" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="260" priority="78" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="259" priority="77" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="containsText" dxfId="258" priority="74" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="257" priority="75" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="76" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="cellIs" dxfId="255" priority="73" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:F58">
-    <cfRule type="containsText" dxfId="224" priority="54" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:F59">
-    <cfRule type="cellIs" dxfId="221" priority="53" operator="between">
+  <conditionalFormatting sqref="G59">
+    <cfRule type="containsText" dxfId="254" priority="72" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="253" priority="71" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:F63">
+    <cfRule type="containsText" dxfId="252" priority="68" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="251" priority="69" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="70" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:F64">
+    <cfRule type="cellIs" dxfId="249" priority="67" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="216" priority="46" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="48" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
-    <cfRule type="cellIs" dxfId="213" priority="45" operator="between">
+  <conditionalFormatting sqref="C64">
+    <cfRule type="containsText" dxfId="248" priority="66" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="247" priority="65" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="246" priority="64" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="245" priority="63" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:H63">
+    <cfRule type="containsText" dxfId="244" priority="60" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="61" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="62" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64:H64">
+    <cfRule type="cellIs" dxfId="241" priority="59" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:F63">
-    <cfRule type="containsText" dxfId="210" priority="40" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="42" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:F64">
-    <cfRule type="cellIs" dxfId="207" priority="39" operator="between">
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="240" priority="58" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="239" priority="57" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:F68">
+    <cfRule type="containsText" dxfId="238" priority="54" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="55" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="236" priority="56" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="cellIs" dxfId="235" priority="53" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="202" priority="32" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="34" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64:H64">
-    <cfRule type="cellIs" dxfId="199" priority="31" operator="between">
+  <conditionalFormatting sqref="C69">
+    <cfRule type="containsText" dxfId="234" priority="52" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="containsText" dxfId="233" priority="51" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="232" priority="50" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="231" priority="49" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:H68">
+    <cfRule type="containsText" dxfId="230" priority="46" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="47" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="48" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69:H69">
+    <cfRule type="cellIs" dxfId="227" priority="45" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:F68">
-    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="28" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:F69">
-    <cfRule type="cellIs" dxfId="193" priority="25" operator="between">
+  <conditionalFormatting sqref="G69">
+    <cfRule type="containsText" dxfId="226" priority="44" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="containsText" dxfId="225" priority="43" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:F73">
+    <cfRule type="containsText" dxfId="224" priority="40" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="41" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="42" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:F74">
+    <cfRule type="cellIs" dxfId="221" priority="39" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="188" priority="18" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="20" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69:H69">
-    <cfRule type="cellIs" dxfId="185" priority="17" operator="between">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="containsText" dxfId="220" priority="38" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="containsText" dxfId="219" priority="37" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" dxfId="218" priority="36" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="217" priority="35" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:H73">
+    <cfRule type="containsText" dxfId="216" priority="32" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="33" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="34" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:H74">
+    <cfRule type="cellIs" dxfId="213" priority="31" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="containsText" dxfId="212" priority="30" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="containsText" dxfId="211" priority="29" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="containsText" dxfId="182" priority="12" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="210" priority="26" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="209" priority="27" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="14" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="208" priority="28" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:F20">
-    <cfRule type="cellIs" dxfId="179" priority="11" operator="between">
+  <conditionalFormatting sqref="C21:F21">
+    <cfRule type="cellIs" dxfId="207" priority="25" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="178" priority="10" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="206" priority="24" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="205" priority="23" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="containsText" dxfId="204" priority="22" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="203" priority="21" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="174" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="202" priority="18" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="201" priority="19" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="200" priority="20" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="between">
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="cellIs" dxfId="199" priority="17" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="containsText" dxfId="198" priority="16" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="197" priority="15" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="195" priority="7" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:F20">
+    <cfRule type="cellIs" dxfId="188" priority="14" operator="between">
+      <formula>1</formula>
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="187" priority="13" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="186" priority="12" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsText" dxfId="185" priority="11" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="184" priority="10" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="between">
+      <formula>1</formula>
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="182" priority="8" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
+  <conditionalFormatting sqref="C28:F28">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64:H64 C6:H6 C11:H11 C69:H69 C24:H24 C29:H29 C34:H34 C39:H39 C44:H44 C49:H49 C54:H54 C59:H59 C20:H20">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:H69 C6:H6 C11:H11 C74:H74 C29:H29 C34:H34 C39:H39 C44:H44 C49:H49 C54:H54 C59:H59 C64:H64 C20:H21">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -8863,7 +9352,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8876,7 +9365,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -8902,7 +9391,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +9402,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8939,7 +9428,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -8965,7 +9454,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8978,7 +9467,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9004,7 +9493,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9015,7 +9504,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +9530,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -9067,7 +9556,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9080,7 +9569,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9106,7 +9595,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9117,7 +9606,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9143,7 +9632,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -9169,7 +9658,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9182,7 +9671,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9208,7 +9697,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9219,7 +9708,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9245,7 +9734,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9271,7 +9760,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9284,7 +9773,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9310,7 +9799,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9321,7 +9810,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9347,7 +9836,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9373,7 +9862,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9386,7 +9875,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9901,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9423,7 +9912,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9449,7 +9938,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9475,7 +9964,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9488,7 +9977,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9514,7 +10003,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9525,7 +10014,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9551,7 +10040,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9577,7 +10066,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9590,7 +10079,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9616,7 +10105,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9627,7 +10116,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +10142,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -9679,7 +10168,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9692,7 +10181,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9718,7 +10207,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9729,7 +10218,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -9755,7 +10244,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -9781,7 +10270,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9794,7 +10283,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -9820,7 +10309,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9831,7 +10320,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9857,7 +10346,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -9883,7 +10372,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -9896,7 +10385,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -9922,7 +10411,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -9933,7 +10422,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -9959,7 +10448,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -9985,7 +10474,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -9998,7 +10487,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -10024,7 +10513,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -10035,7 +10524,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10061,7 +10550,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -10087,7 +10576,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -10100,7 +10589,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -10126,7 +10615,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -10137,7 +10626,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="34"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -10163,7 +10652,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="35"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10411,11 +10900,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10424,771 +10908,776 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="180" priority="215" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="216" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="179" priority="216" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="217" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="178" priority="217" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="165" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="214" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="176" priority="165" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="175" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="174" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="161" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="173" priority="162" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="161" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="171" priority="160" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="170" priority="159" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="169" priority="158" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="168" priority="157" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="cellIs" dxfId="155" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="167" priority="156" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="166" priority="155" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="165" priority="154" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="152" priority="153" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="164" priority="153" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="163" priority="152" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="150" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="149" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="161" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="160" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="159" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="158" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="146" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="156" priority="145" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="155" priority="144" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="154" priority="143" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="153" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="141" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="151" priority="140" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="150" priority="139" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="137" priority="138" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="149" priority="138" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="148" priority="137" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F36">
-    <cfRule type="cellIs" dxfId="135" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="136" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="146" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="145" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="144" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="143" priority="132" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="131" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="141" priority="130" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="140" priority="129" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="139" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="138" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="126" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="136" priority="125" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="135" priority="124" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="134" priority="123" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:F51">
-    <cfRule type="cellIs" dxfId="120" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="121" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="131" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="130" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="129" priority="118" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="128" priority="117" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="116" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="126" priority="115" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="125" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="123" priority="112" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="111" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="120" priority="109" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="119" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="118" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="106" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="116" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="114" priority="103" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="113" priority="102" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="112" priority="99" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="111" priority="100" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="110" priority="101" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="109" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="108" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="107" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="106" priority="93" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="105" priority="94" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="104" priority="95" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:F25">
-    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="103" priority="90" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="102" priority="91" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="101" priority="92" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="97" priority="84" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="96" priority="85" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="95" priority="86" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="94" priority="81" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="93" priority="82" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="92" priority="83" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="91" priority="78" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="90" priority="79" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="89" priority="80" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="88" priority="75" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="85" priority="72" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="84" priority="73" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="83" priority="74" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:F60">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="81" priority="70" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="79" priority="66" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="76" priority="63" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="75" priority="64" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="62" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="72" priority="61" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="70" priority="59" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="58" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="68" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="56" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="66" priority="55" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="54" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="64" priority="53" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="52" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="50" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="46" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="38" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G65)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -626,7 +626,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="393">
+  <dxfs count="371">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -988,6 +988,227 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1108,6 +1329,297 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1132,6 +1644,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1149,6 +1682,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1166,6 +1720,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1183,6 +1758,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1200,6 +1796,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1217,6 +1834,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1234,6 +1872,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1251,6 +1910,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1268,6 +1948,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1285,6 +1986,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1302,6 +2024,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1319,6 +2062,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1419,6 +2183,92 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1449,6 +2299,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1479,6 +2367,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1509,6 +2421,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1539,6 +2489,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1569,6 +2543,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1599,6 +2611,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1629,6 +2665,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1659,6 +2733,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1689,6 +2787,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1733,20 +2869,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -1757,6 +2879,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1795,16 +2947,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1833,6 +3001,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1871,16 +3069,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,6 +3123,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1947,16 +3191,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1985,6 +3245,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2023,16 +3313,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2061,6 +3367,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2099,16 +3435,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2137,6 +3489,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2175,16 +3557,92 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2257,6 +3715,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2267,16 +3739,32 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2305,6 +3793,50 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2329,68 +3861,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2417,1660 +3887,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4381,7 +4197,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4533,21 +4349,18 @@
         <f t="shared" ref="C6:F6" si="4">IF(C2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="D6" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="D6" s="23">
+        <v>100</v>
+      </c>
+      <c r="E6" s="23">
+        <v>84</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G6" s="23" t="str">
-        <f t="shared" ref="G6" si="5">IF(G2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="G6" s="23">
+        <v>100</v>
       </c>
       <c r="H6" s="23">
         <v>100</v>
@@ -4585,27 +4398,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="13">
-        <f t="shared" ref="C8:H8" ca="1" si="6">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
-        <v>8</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="C8:H8" ca="1" si="5">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="E8" s="13" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="G8" s="13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="H8" s="13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
@@ -4615,12 +4428,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" s="13" t="s">
         <v>49</v>
       </c>
@@ -4631,27 +4450,27 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f t="shared" ref="C10:H10" si="7">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
+        <f t="shared" ref="C10:H10" si="6">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
       <c r="D10" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>טרם</v>
+        <f t="shared" si="6"/>
+        <v>בוצע</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>בוצע</v>
       </c>
       <c r="F10" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>טרם</v>
+        <f t="shared" si="6"/>
+        <v>בוצע</v>
       </c>
       <c r="G10" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>טרם</v>
+        <f t="shared" si="6"/>
+        <v>בוצע</v>
       </c>
       <c r="H10" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>בוצע</v>
       </c>
     </row>
@@ -4661,27 +4480,27 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f t="shared" ref="C11:H11" si="8">IF(C7 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C11:H11" si="7">IF(C7 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F11" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G11" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H11" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4705,27 +4524,27 @@
         <v>5</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f t="shared" ref="C13:H13" ca="1" si="9">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
+        <f t="shared" ref="C13:H13" ca="1" si="8">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="E13" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="G13" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="H13" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -4747,27 +4566,27 @@
         <v>6</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f t="shared" ref="C15:H15" si="10">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
+        <f t="shared" ref="C15:H15" si="9">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4789,27 +4608,27 @@
         <v>5</v>
       </c>
       <c r="C17" s="13" t="str">
-        <f t="shared" ref="C17:H17" ca="1" si="11">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
+        <f t="shared" ref="C17:H17" ca="1" si="10">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E17" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="G17" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="H17" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
@@ -4831,27 +4650,27 @@
         <v>6</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f>IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
+        <f t="shared" ref="C19:H19" si="11">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D19" s="29" t="str">
-        <f>IF(D18 = "כן","בוצע", IF(D18 = "לא", "לא הוגש", IF((D16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D16)), "טרם", ""))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E19" s="29" t="str">
-        <f>IF(E18 = "כן","בוצע", IF(E18 = "לא", "לא הוגש", IF((E16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E16)), "טרם", ""))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F19" s="29" t="str">
-        <f>IF(F18 = "כן","בוצע", IF(F18 = "לא", "לא הוגש", IF((F16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F16)), "טרם", ""))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G19" s="29" t="str">
-        <f>IF(G18 = "כן","בוצע", IF(G18 = "לא", "לא הוגש", IF((G16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G16)), "טרם", ""))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H19" s="29" t="str">
-        <f>IF(H18 = "כן","בוצע", IF(H18 = "לא", "לא הוגש", IF((H16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(H16)), "טרם", ""))))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -5049,27 +4868,27 @@
         <v>6</v>
       </c>
       <c r="C28" s="31" t="str">
-        <f>IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <f t="shared" ref="C28:H28" si="17">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D28" s="31" t="str">
-        <f>IF(D27 = "כן","בוצע", IF(D27 = "לא", "לא הוגש", IF((D25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D25)), "טרם", ""))))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E28" s="31" t="str">
-        <f>IF(E27 = "כן","בוצע", IF(E27 = "לא", "לא הוגש", IF((E25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E25)), "טרם", ""))))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F28" s="31" t="str">
-        <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G28" s="31" t="str">
-        <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H28" s="31" t="str">
-        <f>IF(H27 = "כן","בוצע", IF(H27 = "לא", "לא הוגש", IF((H25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(H25)), "טרם", ""))))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -5079,27 +4898,27 @@
         <v>4</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f t="shared" ref="C29:H29" si="17">IF(C21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C29:H29" si="18">IF(C21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F29" s="23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G29" s="23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H29" s="23" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5123,27 +4942,27 @@
         <v>5</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31:H31" ca="1" si="18">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <f t="shared" ref="C31:H31" ca="1" si="19">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="E31" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="G31" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -5165,27 +4984,27 @@
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:H33" si="19">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <f t="shared" ref="C33:H33" si="20">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H33" s="22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -5195,27 +5014,27 @@
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34:H34" si="20">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34:H34" si="21">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F34" s="23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G34" s="23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H34" s="23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -5239,27 +5058,27 @@
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36:H36" ca="1" si="21">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36:H36" ca="1" si="22">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="E36" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="G36" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -5281,27 +5100,27 @@
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38:H38" si="22">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38:H38" si="23">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E38" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F38" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G38" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H38" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -5311,27 +5130,27 @@
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39:H39" si="23">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39:H39" si="24">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F39" s="23" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G39" s="23" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="H39" s="23" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5355,27 +5174,27 @@
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41:H41" ca="1" si="24">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41:H41" ca="1" si="25">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="E41" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="G41" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -5397,27 +5216,27 @@
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43:H43" si="25">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43:H43" si="26">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E43" s="22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F43" s="22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G43" s="22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H43" s="22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -5427,27 +5246,27 @@
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44:H44" si="26">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44:H44" si="27">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F44" s="23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G44" s="23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H44" s="23" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -5471,27 +5290,27 @@
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46:H46" ca="1" si="27">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46:H46" ca="1" si="28">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="E46" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F46" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
     </row>
@@ -5513,27 +5332,27 @@
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48:H48" si="28">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48:H48" si="29">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E48" s="22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F48" s="22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G48" s="22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H48" s="22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -5543,27 +5362,27 @@
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49:H49" si="29">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49:H49" si="30">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F49" s="23" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G49" s="23" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H49" s="23" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -5587,27 +5406,27 @@
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51:H51" ca="1" si="30">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51:H51" ca="1" si="31">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="E51" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="F51" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="G51" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="H51" s="13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -5629,27 +5448,27 @@
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53:H53" si="31">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53:H53" si="32">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E53" s="22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F53" s="22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G53" s="22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H53" s="22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -5659,27 +5478,27 @@
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54:H54" si="32">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54:H54" si="33">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F54" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G54" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H54" s="23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -5703,27 +5522,27 @@
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56:H56" ca="1" si="33">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56:H56" ca="1" si="34">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="E56" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="F56" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="G56" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="H56" s="13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
     </row>
@@ -5745,27 +5564,27 @@
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58:H58" si="34">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58:H58" si="35">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E58" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="F58" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="G58" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H58" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5775,27 +5594,27 @@
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59:H59" si="35">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59:H59" si="36">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F59" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G59" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H59" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
@@ -5819,27 +5638,27 @@
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61:H61" ca="1" si="36">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61:H61" ca="1" si="37">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="E61" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="F61" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="G61" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H61" s="13" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
     </row>
@@ -5861,27 +5680,27 @@
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63:H63" si="37">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63:H63" si="38">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E63" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F63" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G63" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H63" s="22" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
@@ -5891,27 +5710,27 @@
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64:H64" si="38">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64:H64" si="39">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F64" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G64" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H64" s="23" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
@@ -5935,27 +5754,27 @@
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66:H66" ca="1" si="39">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66:H66" ca="1" si="40">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="E66" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="F66" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="G66" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="H66" s="13" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
@@ -5977,27 +5796,27 @@
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68:H68" si="40">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68:H68" si="41">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E68" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F68" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G68" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H68" s="22" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -6007,27 +5826,27 @@
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69:H69" si="41">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69:H69" si="42">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E69" s="23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F69" s="23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G69" s="23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H69" s="23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
@@ -6051,27 +5870,27 @@
         <v>5</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f t="shared" ref="C71:H71" ca="1" si="42">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <f t="shared" ref="C71:H71" ca="1" si="43">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D71" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="E71" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="F71" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="G71" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="H71" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
     </row>
@@ -6093,27 +5912,27 @@
         <v>6</v>
       </c>
       <c r="C73" s="22" t="str">
-        <f t="shared" ref="C73:H73" si="43">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <f t="shared" ref="C73:H73" si="44">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E73" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F73" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G73" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H73" s="22" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -6123,27 +5942,27 @@
         <v>4</v>
       </c>
       <c r="C74" s="23" t="str">
-        <f t="shared" ref="C74:H74" si="44">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C74:H74" si="45">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E74" s="23" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F74" s="23" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G74" s="23" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H74" s="23" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
@@ -6153,27 +5972,27 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="9" t="e">
-        <f>AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
+        <f t="shared" ref="C75:H75" si="46">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D75" s="9" t="e">
-        <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
+      <c r="D75" s="9">
+        <f t="shared" si="46"/>
+        <v>100</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="46"/>
+        <v>84</v>
+      </c>
+      <c r="F75" s="9" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="9" t="e">
-        <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F75" s="9" t="e">
-        <f>AVERAGE(F6,F11,F19,F29,F34,F39,F44,F49,F54,F59,F64,F69,F74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G75" s="9" t="e">
-        <f>AVERAGE(G6,G11,G19,G29,G34,G39,G44,G49,G54,G59,G64,G69,G74)</f>
-        <v>#DIV/0!</v>
+      <c r="G75" s="9">
+        <f t="shared" si="46"/>
+        <v>100</v>
       </c>
       <c r="H75" s="9">
-        <f>AVERAGE(H6,H11,H19,H29,H34,H39,H44,H49,H54,H59,H64,H69,H74)</f>
+        <f t="shared" si="46"/>
         <v>100</v>
       </c>
     </row>
@@ -6221,9 +6040,9 @@
         <v>33</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="5" t="e">
+      <c r="C79" s="5">
         <f>D75</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -6238,15 +6057,15 @@
         <v>34</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="5" t="e">
+      <c r="C80" s="5">
         <f>E75</f>
-        <v>#DIV/0!</v>
+        <v>84</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="5" t="e">
+      <c r="F80" s="5">
         <f>0.25*C80+0.75*E80</f>
-        <v>#DIV/0!</v>
+        <v>21</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -6272,9 +6091,9 @@
         <v>36</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="5" t="e">
+      <c r="C82" s="5">
         <f>G75</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -6330,14 +6149,14 @@
         <v>32</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B91" si="45">G78</f>
+        <f t="shared" ref="B86:B91" si="47">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:D91" si="46">B86*C86</f>
+        <f t="shared" ref="D86:D91" si="48">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -6349,14 +6168,14 @@
         <v>33</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -6368,14 +6187,14 @@
         <v>34</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="C88" s="5">
         <v>5</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E88"/>
@@ -6387,14 +6206,14 @@
         <v>35</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E89"/>
@@ -6406,14 +6225,14 @@
         <v>36</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E90"/>
@@ -6425,14 +6244,14 @@
         <v>37</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E91"/>
@@ -8369,6 +8188,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -8377,927 +8201,922 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="384" priority="208" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="370" priority="208" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="209" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="369" priority="209" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="210" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="368" priority="210" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="381" priority="207" operator="between">
+    <cfRule type="cellIs" dxfId="367" priority="207" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="380" priority="206" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="366" priority="206" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="379" priority="205" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="365" priority="205" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="378" priority="204" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="364" priority="204" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="377" priority="203" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="363" priority="203" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="376" priority="200" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="362" priority="200" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="201" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="361" priority="201" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="202" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="360" priority="202" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="373" priority="199" operator="between">
+    <cfRule type="cellIs" dxfId="359" priority="199" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="372" priority="198" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="358" priority="198" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="371" priority="197" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="357" priority="197" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="370" priority="194" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="195" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="355" priority="195" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="196" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="354" priority="196" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="367" priority="193" operator="between">
+    <cfRule type="cellIs" dxfId="353" priority="193" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="366" priority="192" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="352" priority="192" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="365" priority="191" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="351" priority="191" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="364" priority="190" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="350" priority="190" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="363" priority="189" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="349" priority="189" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="362" priority="186" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="348" priority="186" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="187" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="347" priority="187" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="188" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="346" priority="188" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="359" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="345" priority="185" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="358" priority="184" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="344" priority="184" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="357" priority="183" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="343" priority="183" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="356" priority="180" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="342" priority="180" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="181" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="341" priority="181" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="182" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="340" priority="182" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="353" priority="172" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="339" priority="172" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="173" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="338" priority="173" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="174" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="337" priority="174" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="containsText" dxfId="350" priority="166" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="336" priority="166" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="167" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="335" priority="167" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="168" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="334" priority="168" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="cellIs" dxfId="347" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="333" priority="165" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="346" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="332" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="345" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="331" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="344" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="330" priority="162" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="343" priority="161" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="329" priority="161" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="containsText" dxfId="342" priority="158" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="328" priority="158" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="159" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="327" priority="159" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="160" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="326" priority="160" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="339" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="157" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="338" priority="156" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="324" priority="156" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="337" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="323" priority="155" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="containsText" dxfId="336" priority="152" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="322" priority="152" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="153" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="321" priority="153" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="154" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="320" priority="154" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="cellIs" dxfId="333" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="319" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="332" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="318" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="331" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="330" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="316" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="329" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="315" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="328" priority="144" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="314" priority="144" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="145" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="313" priority="145" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="146" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="312" priority="146" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="cellIs" dxfId="325" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="143" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="324" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="310" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="323" priority="141" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="309" priority="141" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38">
-    <cfRule type="containsText" dxfId="322" priority="138" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="308" priority="138" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="139" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="307" priority="139" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="140" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="306" priority="140" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:F39">
-    <cfRule type="cellIs" dxfId="319" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="137" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="318" priority="136" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="304" priority="136" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="317" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="303" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="316" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="302" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="315" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="301" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="314" priority="130" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="300" priority="130" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="131" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="299" priority="131" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="132" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="298" priority="132" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:H39">
-    <cfRule type="cellIs" dxfId="311" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="297" priority="129" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="310" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="296" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="309" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="295" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="containsText" dxfId="308" priority="124" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="294" priority="124" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="125" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="293" priority="125" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="126" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="292" priority="126" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="305" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="291" priority="123" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="304" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="290" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="303" priority="121" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="289" priority="121" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="302" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="288" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="301" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="300" priority="116" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="286" priority="116" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="117" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="285" priority="117" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="118" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="284" priority="118" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="297" priority="115" operator="between">
+    <cfRule type="cellIs" dxfId="283" priority="115" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="296" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="295" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="281" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48">
-    <cfRule type="containsText" dxfId="294" priority="110" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="280" priority="110" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="111" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="279" priority="111" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="112" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="278" priority="112" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="291" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="277" priority="109" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="290" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="276" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="289" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="288" priority="106" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="274" priority="106" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="287" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:H48">
-    <cfRule type="containsText" dxfId="286" priority="102" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="272" priority="102" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="103" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="104" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="283" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="101" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="282" priority="100" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="268" priority="100" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="281" priority="99" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F53">
-    <cfRule type="containsText" dxfId="280" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:F54">
-    <cfRule type="cellIs" dxfId="277" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="95" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="276" priority="94" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="262" priority="94" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="275" priority="93" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="274" priority="92" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="260" priority="92" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="273" priority="91" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="272" priority="88" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="258" priority="88" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="89" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="257" priority="89" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="90" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="cellIs" dxfId="269" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="87" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="containsText" dxfId="268" priority="86" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="254" priority="86" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="267" priority="85" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="253" priority="85" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="containsText" dxfId="266" priority="82" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="83" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="84" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:F59">
-    <cfRule type="cellIs" dxfId="263" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="81" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="containsText" dxfId="262" priority="80" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="261" priority="79" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="260" priority="78" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="259" priority="77" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="258" priority="74" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="244" priority="74" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="75" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="76" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="242" priority="76" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:H59">
-    <cfRule type="cellIs" dxfId="255" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="73" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="254" priority="72" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="253" priority="71" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:F63">
-    <cfRule type="containsText" dxfId="252" priority="68" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="69" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="70" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="236" priority="70" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="cellIs" dxfId="249" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="67" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="248" priority="66" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="247" priority="65" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="246" priority="64" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="245" priority="63" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="244" priority="60" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="61" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="62" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:H64">
-    <cfRule type="cellIs" dxfId="241" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="59" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="240" priority="58" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="239" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:F68">
-    <cfRule type="containsText" dxfId="238" priority="54" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="224" priority="54" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="55" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="56" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:F69">
-    <cfRule type="cellIs" dxfId="235" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="53" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="containsText" dxfId="234" priority="52" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="233" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="232" priority="50" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="231" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="230" priority="46" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="216" priority="46" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="47" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="48" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="214" priority="48" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:H69">
-    <cfRule type="cellIs" dxfId="227" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="45" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="226" priority="44" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="225" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:F73">
-    <cfRule type="containsText" dxfId="224" priority="40" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="210" priority="40" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="41" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="42" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="208" priority="42" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:F74">
-    <cfRule type="cellIs" dxfId="221" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="39" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="containsText" dxfId="220" priority="38" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="containsText" dxfId="219" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="218" priority="36" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="217" priority="35" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:H73">
-    <cfRule type="containsText" dxfId="216" priority="32" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="202" priority="32" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="33" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="34" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="200" priority="34" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H74">
-    <cfRule type="cellIs" dxfId="213" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="31" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="212" priority="30" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="211" priority="29" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="containsText" dxfId="210" priority="26" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="27" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="28" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="194" priority="28" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="207" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="25" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="206" priority="24" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="205" priority="23" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="204" priority="22" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="203" priority="21" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="202" priority="18" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="188" priority="18" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="19" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="20" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="186" priority="20" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="cellIs" dxfId="199" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="185" priority="17" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="198" priority="16" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="197" priority="15" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="195" priority="7" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="182" priority="7" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="cellIs" dxfId="188" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="14" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="187" priority="13" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="180" priority="13" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="186" priority="12" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="179" priority="12" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="185" priority="11" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="184" priority="10" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="177" priority="10" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="cellIs" dxfId="183" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="9" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="182" priority="8" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="175" priority="8" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="174" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="171" priority="1" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="169" priority="3" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10900,6 +10719,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10908,776 +10732,771 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="180" priority="215" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="216" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="167" priority="216" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="217" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="166" priority="217" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="177" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="214" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="176" priority="165" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="175" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="174" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="173" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="161" priority="162" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="172" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="171" priority="160" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="170" priority="159" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="169" priority="158" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="168" priority="157" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="cellIs" dxfId="167" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="156" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="166" priority="155" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="165" priority="154" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="164" priority="153" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="152" priority="153" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="163" priority="152" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="162" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="161" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="149" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="160" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="159" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="158" priority="147" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26">
-    <cfRule type="cellIs" dxfId="157" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="156" priority="145" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="144" priority="145" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="155" priority="144" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="154" priority="143" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="153" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="cellIs" dxfId="152" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="151" priority="140" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="150" priority="139" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="149" priority="138" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="137" priority="138" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="148" priority="137" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F36">
-    <cfRule type="cellIs" dxfId="147" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="containsText" dxfId="146" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="145" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="144" priority="133" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="143" priority="132" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="cellIs" dxfId="142" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="141" priority="130" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="140" priority="129" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="139" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="127" priority="128" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="138" priority="127" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="cellIs" dxfId="137" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="136" priority="125" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="135" priority="124" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="134" priority="123" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:F51">
-    <cfRule type="cellIs" dxfId="132" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="121" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="131" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="130" priority="119" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="129" priority="118" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="128" priority="117" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56">
-    <cfRule type="cellIs" dxfId="127" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="126" priority="115" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="125" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="123" priority="112" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="cellIs" dxfId="122" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="120" priority="109" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="119" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="118" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:F66">
-    <cfRule type="cellIs" dxfId="117" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="116" priority="105" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="114" priority="103" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="113" priority="102" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="112" priority="99" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="100" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="101" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="109" priority="96" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20">
-    <cfRule type="containsText" dxfId="106" priority="93" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="94" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="95" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:F25">
-    <cfRule type="containsText" dxfId="103" priority="90" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="91" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="92" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="containsText" dxfId="97" priority="84" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="85" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="86" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="containsText" dxfId="94" priority="81" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="82" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="83" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45">
-    <cfRule type="containsText" dxfId="91" priority="78" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="79" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="80" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="containsText" dxfId="88" priority="75" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="containsText" dxfId="85" priority="72" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="73" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="74" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:F60">
-    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="70" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F65">
-    <cfRule type="containsText" dxfId="79" priority="66" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="76" priority="63" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="64" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="72" priority="61" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="70" priority="59" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="68" priority="57" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="66" priority="55" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="65" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="64" priority="53" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="63" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="לא הוגש">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",G65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",G65)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4197,7 +4197,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4346,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f t="shared" ref="C6:F6" si="4">IF(C2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C6" si="4">IF(C2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D6" s="23">
@@ -4355,9 +4355,8 @@
       <c r="E6" s="23">
         <v>84</v>
       </c>
-      <c r="F6" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F6" s="23">
+        <v>100</v>
       </c>
       <c r="G6" s="23">
         <v>100</v>
@@ -4397,9 +4396,9 @@
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="str">
         <f t="shared" ref="C8:H8" ca="1" si="5">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="D8" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4427,7 +4426,9 @@
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
       </c>
@@ -4451,7 +4452,7 @@
       </c>
       <c r="C10" s="22" t="str">
         <f t="shared" ref="C10:H10" si="6">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="D10" s="22" t="str">
         <f t="shared" si="6"/>
@@ -4597,10 +4598,18 @@
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="24">
+        <v>41962</v>
+      </c>
+      <c r="F16" s="24">
+        <v>41962</v>
+      </c>
+      <c r="G16" s="24">
+        <v>41962</v>
+      </c>
+      <c r="H16" s="24">
+        <v>41969</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="35"/>
@@ -4615,21 +4624,21 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E17" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="F17" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13">
+        <f ca="1">IF(AND(NOT(ISBLANK(F16)), NOT(F16 = "לא ניתן תרגיל")), IF(OR(F18 = "כן", F18 = "לא"), "", F16-TODAY()), "")</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <f ca="1">IF(AND(NOT(ISBLANK(G16)), NOT(G16 = "לא ניתן תרגיל")), IF(OR(G18 = "כן", G18 = "לא"), "", G16-TODAY()), "")</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="H17" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4659,19 +4668,19 @@
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="F19" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f>IF(F18 = "כן","בוצע", IF(F18 = "לא", "לא הוגש", IF((F16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F16)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="G19" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f>IF(G18 = "כן","בוצע", IF(G18 = "לא", "לא הוגש", IF((G16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G16)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="H19" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>טרם</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4692,11 +4701,11 @@
         <v/>
       </c>
       <c r="F20" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(F16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G20" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="H20" s="32" t="str">
@@ -4724,11 +4733,11 @@
         <v/>
       </c>
       <c r="F21" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(F16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G21" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="H21" s="30" t="str">
@@ -5983,9 +5992,9 @@
         <f t="shared" si="46"/>
         <v>84</v>
       </c>
-      <c r="F75" s="9" t="e">
+      <c r="F75" s="9">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="G75" s="9">
         <f t="shared" si="46"/>
@@ -6074,15 +6083,15 @@
         <v>35</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="5" t="e">
+      <c r="C81" s="5">
         <f>F75</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="5" t="e">
+      <c r="F81" s="5">
         <f>0.2*C81+0.1*D81+0.7*E81</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="G81" s="5"/>
     </row>
@@ -9120,7 +9129,7 @@
       <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:H69 C6:H6 C11:H11 C74:H74 C29:H29 C34:H34 C39:H39 C44:H44 C49:H49 C54:H54 C59:H59 C64:H64 C20:H21">
       <formula1>1</formula1>
       <formula2>150</formula2>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4197,7 +4197,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4624,21 +4624,21 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F17" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(F16)), NOT(F16 = "לא ניתן תרגיל")), IF(OR(F18 = "כן", F18 = "לא"), "", F16-TODAY()), "")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G16)), NOT(G16 = "לא ניתן תרגיל")), IF(OR(G18 = "כן", G18 = "לא"), "", G16-TODAY()), "")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4648,7 +4648,9 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="E19" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="F19" s="29" t="str">
         <f>IF(F18 = "כן","בוצע", IF(F18 = "לא", "לא הוגש", IF((F16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F16)), "טרם", ""))))</f>
@@ -8197,11 +8199,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -8210,6 +8207,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="370" priority="208" operator="containsText" text="לא הוגש">
@@ -10728,11 +10730,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10741,6 +10738,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="50">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4197,7 +4197,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4628,13 +4628,13 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F16)), NOT(F16 = "לא ניתן תרגיל")), IF(OR(F18 = "כן", F18 = "לא"), "", F16-TODAY()), "")</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
+        <v/>
+      </c>
+      <c r="G17" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(G16)), NOT(G16 = "לא ניתן תרגיל")), IF(OR(G18 = "כן", G18 = "לא"), "", G16-TODAY()), "")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="10"/>
@@ -4651,8 +4651,12 @@
       <c r="E18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1">
@@ -4674,11 +4678,11 @@
       </c>
       <c r="F19" s="29" t="str">
         <f>IF(F18 = "כן","בוצע", IF(F18 = "לא", "לא הוגש", IF((F16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F16)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="G19" s="29" t="str">
         <f>IF(G18 = "כן","בוצע", IF(G18 = "לא", "לא הוגש", IF((G16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G16)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="H19" s="29" t="str">
         <f t="shared" si="11"/>
@@ -8199,6 +8203,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -8207,11 +8216,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="370" priority="208" operator="containsText" text="לא הוגש">
@@ -10730,6 +10734,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10738,11 +10747,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -98,9 +98,6 @@
     <t>אלגוריתמים / Algorithms</t>
   </si>
   <si>
-    <t>דיני עסקים / Business Law</t>
-  </si>
-  <si>
     <t>ארכיטקטורות דיגיטליות / Digital Architectures</t>
   </si>
   <si>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>כן</t>
+  </si>
+  <si>
+    <t>לא ניתן תרגיל</t>
+  </si>
+  <si>
+    <t>לא רלוונטי</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +274,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -447,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,6 +554,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,7 +641,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="371">
+  <dxfs count="358">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2123,6 +2138,23 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2221,13 +2253,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2320,13 +2345,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2442,13 +2460,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2564,13 +2575,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2686,13 +2690,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2808,13 +2805,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -2930,13 +2920,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3052,13 +3035,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3174,13 +3150,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3296,13 +3265,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3418,13 +3380,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3472,13 +3427,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3540,13 +3488,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3722,13 +3663,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3" tint="-0.499984740745262"/>
       </font>
@@ -3819,13 +3753,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4193,11 +4120,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H728"/>
+  <dimension ref="A1:G728"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4208,7 +4135,7 @@
     <col min="9" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="58.2" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.2" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="11"/>
       <c r="C1" s="18" t="s">
@@ -4226,12 +4153,9 @@
       <c r="G1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="33" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4241,7 +4165,7 @@
         <v>41948</v>
       </c>
       <c r="D2" s="24">
-        <v>41945</v>
+        <v>41948</v>
       </c>
       <c r="E2" s="24">
         <v>41948</v>
@@ -4252,108 +4176,93 @@
       <c r="G2" s="24">
         <v>41948</v>
       </c>
-      <c r="H2" s="24">
-        <v>41948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="33"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" hidden="1" customHeight="1">
+      <c r="A3" s="35"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13" t="str">
-        <f t="shared" ref="C3:F3" ca="1" si="0">IF(AND(NOT(ISBLANK(C2)), NOT(C2 = "לא ניתן תרגיל")), IF(OR(C4 = "כן", C4 = "לא"), "", C2-TODAY()), "")</f>
+        <f t="shared" ref="C3" ca="1" si="0">IF(AND(NOT(ISBLANK(C2)), NOT(C2 = "לא ניתן תרגיל")), IF(OR(C4 = "כן", C4 = "לא"), "", C2-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D3" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D2)), NOT(D2 = "לא ניתן תרגיל")), IF(OR(D4 = "כן", D4 = "לא"), "", D2-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E3" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E2)), NOT(E2 = "לא ניתן תרגיל")), IF(OR(E4 = "כן", E4 = "לא"), "", E2-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F3" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="F3:G3" ca="1" si="1">IF(AND(NOT(ISBLANK(F2)), NOT(F2 = "לא ניתן תרגיל")), IF(OR(F4 = "כן", F4 = "לא"), "", F2-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G3" s="13" t="str">
-        <f t="shared" ref="G3:H3" ca="1" si="1">IF(AND(NOT(ISBLANK(G2)), NOT(G2 = "לא ניתן תרגיל")), IF(OR(G4 = "כן", G4 = "לא"), "", G2-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A4" s="35"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="33"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A5" s="35"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f t="shared" ref="C5:F5" si="2">IF(C4 = "כן","בוצע", IF(C4 = "לא", "לא הוגש", IF((C2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C2)), "טרם", ""))))</f>
+        <f t="shared" ref="C5" si="2">IF(C4 = "כן","בוצע", IF(C4 = "לא", "לא הוגש", IF((C2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C2)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="D5" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D4 = "כן","בוצע", IF(D4 = "לא", "לא הוגש", IF((D2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D2)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E4 = "כן","בוצע", IF(E4 = "לא", "לא הוגש", IF((E2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E2)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="F5" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F5:G5" si="3">IF(F4 = "כן","בוצע", IF(F4 = "לא", "לא הוגש", IF((F2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F2)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="G5" s="22" t="str">
-        <f t="shared" ref="G5:H5" si="3">IF(G4 = "כן","בוצע", IF(G4 = "לא", "לא הוגש", IF((G2 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G2)), "טרם", ""))))</f>
-        <v>בוצע</v>
-      </c>
-      <c r="H5" s="22" t="str">
         <f t="shared" si="3"/>
         <v>בוצע</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A6" s="36"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="str">
-        <f t="shared" ref="C6" si="4">IF(C2 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="C6" s="23">
+        <v>91</v>
       </c>
       <c r="D6" s="23">
+        <v>84</v>
+      </c>
+      <c r="E6" s="23">
         <v>100</v>
-      </c>
-      <c r="E6" s="23">
-        <v>84</v>
       </c>
       <c r="F6" s="23">
         <v>100</v>
@@ -4361,12 +4270,9 @@
       <c r="G6" s="23">
         <v>100</v>
       </c>
-      <c r="H6" s="23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="33" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4387,126 +4293,104 @@
       <c r="G7" s="24">
         <v>41955</v>
       </c>
-      <c r="H7" s="24">
-        <v>41955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A8" s="35"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="13" t="str">
-        <f t="shared" ref="C8:H8" ca="1" si="5">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
+        <f t="shared" ref="C8" ca="1" si="4">IF(AND(NOT(ISBLANK(C7)), NOT(C7 = "לא ניתן תרגיל")), IF(OR(C9 = "כן", C9 = "לא"), "", C7-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D7)), NOT(D7 = "לא ניתן תרגיל")), IF(OR(D9 = "כן", D9 = "לא"), "", D7-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E8" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E7)), NOT(E7 = "לא ניתן תרגיל")), IF(OR(E9 = "כן", E9 = "לא"), "", E7-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F8" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F7)), NOT(F7 = "לא ניתן תרגיל")), IF(OR(F9 = "כן", F9 = "לא"), "", F7-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G8" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H8" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G7)), NOT(G7 = "לא ניתן תרגיל")), IF(OR(G9 = "כן", G9 = "לא"), "", G7-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A9" s="35"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="33"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="22" t="str">
-        <f t="shared" ref="C10:H10" si="6">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
+        <f t="shared" ref="C10" si="5">IF(C9 = "כן","בוצע", IF(C9 = "לא", "לא הוגש", IF((C7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C7)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="D10" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(D9 = "כן","בוצע", IF(D9 = "לא", "לא הוגש", IF((D7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D7)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E9 = "כן","בוצע", IF(E9 = "לא", "לא הוגש", IF((E7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E7)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="F10" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(F9 = "כן","בוצע", IF(F9 = "לא", "לא הוגש", IF((F7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F7)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="G10" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(G9 = "כן","בוצע", IF(G9 = "לא", "לא הוגש", IF((G7 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G7)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
-      <c r="H10" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>בוצע</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A11" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A11" s="36"/>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f t="shared" ref="C11:H11" si="7">IF(C7 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="D11" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E11" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F11" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H11" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A12" s="33" t="s">
+        <f t="shared" ref="C11" si="6">IF(C7 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="23">
+        <v>98</v>
+      </c>
+      <c r="E11" s="23">
+        <v>100</v>
+      </c>
+      <c r="F11" s="23">
+        <v>100</v>
+      </c>
+      <c r="G11" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4517,40 +4401,35 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A13" s="33"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A13" s="35"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f t="shared" ref="C13:H13" ca="1" si="8">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
+        <f t="shared" ref="C13" ca="1" si="7">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D12)), NOT(D12 = "לא ניתן תרגיל")), IF(OR(D14 = "כן", D14 = "לא"), "", D12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E13" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E12)), NOT(E12 = "לא ניתן תרגיל")), IF(OR(E14 = "כן", E14 = "לא"), "", E12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F12)), NOT(F12 = "לא ניתן תרגיל")), IF(OR(F14 = "כן", F14 = "לא"), "", F12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G13" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="H13" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A14" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G12)), NOT(G12 = "לא ניתן תרגיל")), IF(OR(G14 = "כן", G14 = "לא"), "", G12-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A14" s="35"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
@@ -4559,45 +4438,44 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A15" s="33"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A15" s="35"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f t="shared" ref="C15:H15" si="9">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
+        <f t="shared" ref="C15" si="8">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D15" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(D14 = "כן","בוצע", IF(D14 = "לא", "לא הוגש", IF((D12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E15" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(E14 = "כן","בוצע", IF(E14 = "לא", "לא הוגש", IF((E12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F15" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F14 = "כן","בוצע", IF(F14 = "לא", "לא הוגש", IF((F12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G15" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H15" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="35"/>
+        <f>IF(G14 = "כן","בוצע", IF(G14 = "לא", "לא הוגש", IF((G12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G12)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A16" s="37"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="24">
+        <v>41962</v>
+      </c>
       <c r="E16" s="24">
         <v>41962</v>
       </c>
@@ -4605,27 +4483,24 @@
         <v>41962</v>
       </c>
       <c r="G16" s="24">
-        <v>41962</v>
-      </c>
-      <c r="H16" s="24">
         <v>41969</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A17" s="37"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="13" t="str">
-        <f t="shared" ref="C17:H17" ca="1" si="10">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
+        <f t="shared" ref="C17" ca="1" si="9">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D16)), NOT(D16 = "לא ניתן תרגיל")), IF(OR(D18 = "כן", D18 = "לא"), "", D16-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E17" s="13" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E16)), NOT(E16 = "לא ניתן תרגיל")), IF(OR(E18 = "כן", E18 = "לא"), "", E16-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F17" s="13" t="str">
@@ -4636,44 +4511,41 @@
         <f ca="1">IF(AND(NOT(ISBLANK(G16)), NOT(G16 = "לא ניתן תרגיל")), IF(OR(G18 = "כן", G18 = "לא"), "", G16-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="H17" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A18" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A18" s="37"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A19" s="35"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A19" s="37"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" ref="C19:H19" si="11">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
+        <f t="shared" ref="C19" si="10">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D19" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f>IF(D18 = "כן","בוצע", IF(D18 = "לא", "לא הוגש", IF((D16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D16)), "טרם", ""))))</f>
+        <v>בוצע</v>
       </c>
       <c r="E19" s="29" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(E18 = "כן","בוצע", IF(E18 = "לא", "לא הוגש", IF((E16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E16)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="F19" s="29" t="str">
@@ -4684,26 +4556,22 @@
         <f>IF(G18 = "כן","בוצע", IF(G18 = "לא", "לא הוגש", IF((G16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G16)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
-      <c r="H19" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>טרם</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A20" s="36"/>
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f t="shared" ref="C20:H20" si="12">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+        <f t="shared" ref="C20" si="11">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v>לא ניתן תרגיל</v>
       </c>
       <c r="D20" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(D16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E20" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(E16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F20" s="32" t="str">
@@ -4714,28 +4582,24 @@
         <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="H20" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A21" s="33" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A21" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="30" t="str">
-        <f t="shared" ref="C21:H21" si="13">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+        <f t="shared" ref="C21" si="12">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v>לא ניתן תרגיל</v>
       </c>
       <c r="D21" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(D16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E21" s="30" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(E16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F21" s="30" t="str">
@@ -4746,43 +4610,35 @@
         <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="H21" s="30" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A22" s="33"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A22" s="35"/>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="e">
-        <f t="shared" ref="C22:H22" ca="1" si="14">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
+      <c r="C22" s="13" t="str">
+        <f t="shared" ref="C22" ca="1" si="13">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D22" s="13" t="e">
+        <f ca="1">IF(AND(NOT(ISBLANK(D21)), NOT(D21 = "לא ניתן תרגיל")), IF(OR(D23 = "כן", D23 = "לא"), "", D21-TODAY()), "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="13" t="e">
-        <f t="shared" ca="1" si="14"/>
+      <c r="E22" s="13" t="e">
+        <f ca="1">IF(AND(NOT(ISBLANK(E21)), NOT(E21 = "לא ניתן תרגיל")), IF(OR(E23 = "כן", E23 = "לא"), "", E21-TODAY()), "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="13" t="e">
-        <f t="shared" ca="1" si="14"/>
+      <c r="F22" s="13" t="e">
+        <f ca="1">IF(AND(NOT(ISBLANK(F21)), NOT(F21 = "לא ניתן תרגיל")), IF(OR(F23 = "כן", F23 = "לא"), "", F21-TODAY()), "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="13" t="e">
-        <f t="shared" ca="1" si="14"/>
+      <c r="G22" s="13" t="e">
+        <f ca="1">IF(AND(NOT(ISBLANK(G21)), NOT(G21 = "לא ניתן תרגיל")), IF(OR(G23 = "כן", G23 = "לא"), "", G21-TODAY()), "")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="13" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="13" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A23" s="33"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
@@ -4791,82 +4647,82 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A24" s="33"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A24" s="35"/>
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f t="shared" ref="C24:H24" si="15">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
+        <f t="shared" ref="C24" si="14">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
+        <v/>
+      </c>
+      <c r="D24" s="22" t="str">
+        <f>IF(D23 = "כן","בוצע", IF(D23 = "לא", "לא הוגש", IF((D21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D21)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
-      <c r="D24" s="22" t="str">
-        <f t="shared" si="15"/>
+      <c r="E24" s="22" t="str">
+        <f>IF(E23 = "כן","בוצע", IF(E23 = "לא", "לא הוגש", IF((E21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E21)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
-      <c r="E24" s="22" t="str">
-        <f t="shared" si="15"/>
+      <c r="F24" s="22" t="str">
+        <f>IF(F23 = "כן","בוצע", IF(F23 = "לא", "לא הוגש", IF((F21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F21)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
-      <c r="F24" s="22" t="str">
-        <f t="shared" si="15"/>
+      <c r="G24" s="22" t="str">
+        <f>IF(G23 = "כן","בוצע", IF(G23 = "לא", "לא הוגש", IF((G21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G21)), "טרם", ""))))</f>
         <v>טרם</v>
       </c>
-      <c r="G24" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>טרם</v>
-      </c>
-      <c r="H24" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>טרם</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A25" s="35"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A25" s="37"/>
       <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A26" s="35"/>
+      <c r="C25" s="24">
+        <v>41976</v>
+      </c>
+      <c r="D25" s="24">
+        <v>41969</v>
+      </c>
+      <c r="E25" s="24">
+        <v>41973</v>
+      </c>
+      <c r="F25" s="24">
+        <v>41969</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A26" s="37"/>
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="str">
-        <f t="shared" ref="C26:H26" ca="1" si="16">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="F26" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
+      <c r="C26" s="13">
+        <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="13">
+        <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <f ca="1">IF(AND(NOT(ISBLANK(E25)), NOT(E25 = "לא ניתן תרגיל")), IF(OR(E27 = "כן", E27 = "לא"), "", E25-TODAY()), "")</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="13">
+        <f ca="1">IF(AND(NOT(ISBLANK(F25)), NOT(F25 = "לא ניתן תרגיל")), IF(OR(F27 = "כן", F27 = "לא"), "", F25-TODAY()), "")</f>
+        <v>1</v>
       </c>
       <c r="G26" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="H26" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A27" s="35"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A27" s="37"/>
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
@@ -4875,70 +4731,58 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A28" s="35"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A28" s="37"/>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="31" t="str">
-        <f t="shared" ref="C28:H28" si="17">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
-        <v/>
+        <f t="shared" ref="C28" si="16">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="D28" s="31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(D27 = "כן","בוצע", IF(D27 = "לא", "לא הוגש", IF((D25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D25)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="E28" s="31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(E27 = "כן","בוצע", IF(E27 = "לא", "לא הוגש", IF((E25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E25)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="F28" s="31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="G28" s="31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H28" s="31" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A29" s="34"/>
+        <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A29" s="36"/>
       <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="23" t="str">
-        <f t="shared" ref="C29:H29" si="18">IF(C21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(D21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(E21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F29" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G29" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H29" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A30" s="33" t="s">
+        <f>IF(F21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="33" t="str">
+        <f t="shared" ref="G29" si="17">IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v>לא ניתן תרגיל</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A30" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4949,40 +4793,35 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A31" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A31" s="35"/>
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31:H31" ca="1" si="19">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <f t="shared" ref="C31" ca="1" si="18">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E31" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E30)), NOT(E30 = "לא ניתן תרגיל")), IF(OR(E32 = "כן", E32 = "לא"), "", E30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F30)), NOT(F30 = "לא ניתן תרגיל")), IF(OR(F32 = "כן", F32 = "לא"), "", F30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G31" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A32" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G30)), NOT(G30 = "לא ניתן תרגיל")), IF(OR(G32 = "כן", G32 = "לא"), "", G30-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A32" s="35"/>
       <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
@@ -4991,70 +4830,61 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A33" s="33"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A33" s="35"/>
       <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33:H33" si="20">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <f t="shared" ref="C33" si="19">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(D32 = "כן","בוצע", IF(D32 = "לא", "לא הוגש", IF((D30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E33" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(E32 = "כן","בוצע", IF(E32 = "לא", "לא הוגש", IF((E30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F33" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(F32 = "כן","בוצע", IF(F32 = "לא", "לא הוגש", IF((F30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G33" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A34" s="34"/>
+        <f>IF(G32 = "כן","בוצע", IF(G32 = "לא", "לא הוגש", IF((G30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G30)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A34" s="36"/>
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34:H34" si="21">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34" si="20">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(D30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(E30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F34" s="23" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G34" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H34" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A35" s="33" t="s">
+        <f>IF(G30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A35" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -5065,40 +4895,35 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A36" s="33"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A36" s="35"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36:H36" ca="1" si="22">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36" ca="1" si="21">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E36" s="13" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G36" s="13" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A37" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A37" s="35"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
@@ -5107,70 +4932,61 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A38" s="33"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A38" s="35"/>
       <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38:H38" si="23">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38" si="22">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(D37 = "כן","בוצע", IF(D37 = "לא", "לא הוגש", IF((D35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E38" s="22" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(E37 = "כן","בוצע", IF(E37 = "לא", "לא הוגש", IF((E35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F38" s="22" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(F37 = "כן","בוצע", IF(F37 = "לא", "לא הוגש", IF((F35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G38" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H38" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="34"/>
+        <f>IF(G37 = "כן","בוצע", IF(G37 = "לא", "לא הוגש", IF((G35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G35)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A39" s="36"/>
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39:H39" si="24">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39" si="23">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(D35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(E35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F39" s="23" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(F35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G39" s="23" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H39" s="23" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A40" s="33" t="s">
+        <f>IF(G35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A40" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -5181,40 +4997,35 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A41" s="33"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A41" s="35"/>
       <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41:H41" ca="1" si="25">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41" ca="1" si="24">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D40)), NOT(D40 = "לא ניתן תרגיל")), IF(OR(D42 = "כן", D42 = "לא"), "", D40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E41" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F41" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F40)), NOT(F40 = "לא ניתן תרגיל")), IF(OR(F42 = "כן", F42 = "לא"), "", F40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G41" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G40)), NOT(G40 = "לא ניתן תרגיל")), IF(OR(G42 = "כן", G42 = "לא"), "", G40-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A42" s="35"/>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
@@ -5223,70 +5034,61 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="33"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A43" s="35"/>
       <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43:H43" si="26">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43" si="25">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(D42 = "כן","בוצע", IF(D42 = "לא", "לא הוגש", IF((D40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E43" s="22" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(E42 = "כן","בוצע", IF(E42 = "לא", "לא הוגש", IF((E40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F43" s="22" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(F42 = "כן","בוצע", IF(F42 = "לא", "לא הוגש", IF((F40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G43" s="22" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H43" s="22" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A44" s="34"/>
+        <f>IF(G42 = "כן","בוצע", IF(G42 = "לא", "לא הוגש", IF((G40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G40)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A44" s="36"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44:H44" si="27">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44" si="26">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(D40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(E40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F44" s="23" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(F40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G44" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H44" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A45" s="33" t="s">
+        <f>IF(G40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A45" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -5297,40 +5099,35 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A46" s="33"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A46" s="35"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46:H46" ca="1" si="28">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46" ca="1" si="27">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D45)), NOT(D45 = "לא ניתן תרגיל")), IF(OR(D47 = "כן", D47 = "לא"), "", D45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E46" s="13" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E45)), NOT(E45 = "לא ניתן תרגיל")), IF(OR(E47 = "כן", E47 = "לא"), "", E45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F46" s="13" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F45)), NOT(F45 = "לא ניתן תרגיל")), IF(OR(F47 = "כן", F47 = "לא"), "", F45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="H46" s="13" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A47" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G45)), NOT(G45 = "לא ניתן תרגיל")), IF(OR(G47 = "כן", G47 = "לא"), "", G45-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A47" s="35"/>
       <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
@@ -5339,70 +5136,61 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A48" s="33"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A48" s="35"/>
       <c r="B48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48:H48" si="29">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48" si="28">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(D47 = "כן","בוצע", IF(D47 = "לא", "לא הוגש", IF((D45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E48" s="22" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(E47 = "כן","בוצע", IF(E47 = "לא", "לא הוגש", IF((E45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F48" s="22" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(F47 = "כן","בוצע", IF(F47 = "לא", "לא הוגש", IF((F45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G48" s="22" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H48" s="22" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A49" s="34"/>
+        <f>IF(G47 = "כן","בוצע", IF(G47 = "לא", "לא הוגש", IF((G45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G45)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A49" s="36"/>
       <c r="B49" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49:H49" si="30">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49" si="29">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(D45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(E45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F49" s="23" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(F45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G49" s="23" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="H49" s="23" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A50" s="33" t="s">
+        <f>IF(G45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A50" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -5413,40 +5201,35 @@
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A51" s="33"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A51" s="35"/>
       <c r="B51" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51:H51" ca="1" si="31">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51" ca="1" si="30">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D50)), NOT(D50 = "לא ניתן תרגיל")), IF(OR(D52 = "כן", D52 = "לא"), "", D50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E51" s="13" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E50)), NOT(E50 = "לא ניתן תרגיל")), IF(OR(E52 = "כן", E52 = "לא"), "", E50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F51" s="13" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F50)), NOT(F50 = "לא ניתן תרגיל")), IF(OR(F52 = "כן", F52 = "לא"), "", F50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G51" s="13" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="H51" s="13" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A52" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G50)), NOT(G50 = "לא ניתן תרגיל")), IF(OR(G52 = "כן", G52 = "לא"), "", G50-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A52" s="35"/>
       <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
@@ -5455,70 +5238,61 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A53" s="33"/>
+    </row>
+    <row r="53" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A53" s="35"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53:H53" si="32">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53" si="31">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(D52 = "כן","בוצע", IF(D52 = "לא", "לא הוגש", IF((D50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E53" s="22" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(E52 = "כן","בוצע", IF(E52 = "לא", "לא הוגש", IF((E50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F53" s="22" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(F52 = "כן","בוצע", IF(F52 = "לא", "לא הוגש", IF((F50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G53" s="22" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H53" s="22" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A54" s="34"/>
+        <f>IF(G52 = "כן","בוצע", IF(G52 = "לא", "לא הוגש", IF((G50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G50)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A54" s="36"/>
       <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54:H54" si="33">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54" si="32">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(D50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(E50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F54" s="23" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(F50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G54" s="23" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H54" s="23" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A55" s="33" t="s">
+        <f>IF(G50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A55" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -5529,40 +5303,35 @@
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A56" s="33"/>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A56" s="35"/>
       <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56:H56" ca="1" si="34">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56" ca="1" si="33">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D55)), NOT(D55 = "לא ניתן תרגיל")), IF(OR(D57 = "כן", D57 = "לא"), "", D55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E56" s="13" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E55)), NOT(E55 = "לא ניתן תרגיל")), IF(OR(E57 = "כן", E57 = "לא"), "", E55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F56" s="13" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F55)), NOT(F55 = "לא ניתן תרגיל")), IF(OR(F57 = "כן", F57 = "לא"), "", F55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G56" s="13" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="H56" s="13" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A57" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G55)), NOT(G55 = "לא ניתן תרגיל")), IF(OR(G57 = "כן", G57 = "לא"), "", G55-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A57" s="35"/>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
@@ -5571,70 +5340,61 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A58" s="33"/>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A58" s="35"/>
       <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58:H58" si="35">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58" si="34">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(D57 = "כן","בוצע", IF(D57 = "לא", "לא הוגש", IF((D55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E58" s="22" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(E57 = "כן","בוצע", IF(E57 = "לא", "לא הוגש", IF((E55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F58" s="22" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(F57 = "כן","בוצע", IF(F57 = "לא", "לא הוגש", IF((F55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G58" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H58" s="22" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="34"/>
+        <f>IF(G57 = "כן","בוצע", IF(G57 = "לא", "לא הוגש", IF((G55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G55)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A59" s="36"/>
       <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59:H59" si="36">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59" si="35">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(D55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(E55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F59" s="23" t="str">
-        <f t="shared" si="36"/>
+        <f>IF(F55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G59" s="23" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H59" s="23" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A60" s="33" t="s">
+        <f>IF(G55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A60" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -5645,40 +5405,35 @@
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A61" s="33"/>
+    </row>
+    <row r="61" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A61" s="35"/>
       <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61:H61" ca="1" si="37">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61" ca="1" si="36">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D60)), NOT(D60 = "לא ניתן תרגיל")), IF(OR(D62 = "כן", D62 = "לא"), "", D60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E61" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E60)), NOT(E60 = "לא ניתן תרגיל")), IF(OR(E62 = "כן", E62 = "לא"), "", E60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F61" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F60)), NOT(F60 = "לא ניתן תרגיל")), IF(OR(F62 = "כן", F62 = "לא"), "", F60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G61" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="H61" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A62" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G60)), NOT(G60 = "לא ניתן תרגיל")), IF(OR(G62 = "כן", G62 = "לא"), "", G60-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A62" s="35"/>
       <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
@@ -5687,70 +5442,61 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A63" s="33"/>
+    </row>
+    <row r="63" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A63" s="35"/>
       <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63:H63" si="38">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63" si="37">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(D62 = "כן","בוצע", IF(D62 = "לא", "לא הוגש", IF((D60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E63" s="22" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(E62 = "כן","בוצע", IF(E62 = "לא", "לא הוגש", IF((E60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F63" s="22" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(F62 = "כן","בוצע", IF(F62 = "לא", "לא הוגש", IF((F60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G63" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H63" s="22" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A64" s="34"/>
+        <f>IF(G62 = "כן","בוצע", IF(G62 = "לא", "לא הוגש", IF((G60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G60)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A64" s="36"/>
       <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64:H64" si="39">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64" si="38">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(D60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(E60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F64" s="23" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(F60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G64" s="23" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H64" s="23" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A65" s="33" t="s">
+        <f>IF(G60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A65" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -5761,40 +5507,35 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A66" s="33"/>
+    </row>
+    <row r="66" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A66" s="35"/>
       <c r="B66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66:H66" ca="1" si="40">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66" ca="1" si="39">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D65)), NOT(D65 = "לא ניתן תרגיל")), IF(OR(D67 = "כן", D67 = "לא"), "", D65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E66" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E65)), NOT(E65 = "לא ניתן תרגיל")), IF(OR(E67 = "כן", E67 = "לא"), "", E65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F66" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F65)), NOT(F65 = "לא ניתן תרגיל")), IF(OR(F67 = "כן", F67 = "לא"), "", F65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G66" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="H66" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A67" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G65)), NOT(G65 = "לא ניתן תרגיל")), IF(OR(G67 = "כן", G67 = "לא"), "", G65-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A67" s="35"/>
       <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
@@ -5803,70 +5544,61 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A68" s="33"/>
+    </row>
+    <row r="68" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A68" s="35"/>
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68:H68" si="41">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68" si="40">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(D67 = "כן","בוצע", IF(D67 = "לא", "לא הוגש", IF((D65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E68" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(E67 = "כן","בוצע", IF(E67 = "לא", "לא הוגש", IF((E65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F68" s="22" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(F67 = "כן","בוצע", IF(F67 = "לא", "לא הוגש", IF((F65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G68" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H68" s="22" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A69" s="34"/>
+        <f>IF(G67 = "כן","בוצע", IF(G67 = "לא", "לא הוגש", IF((G65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G65)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A69" s="36"/>
       <c r="B69" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69:H69" si="42">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69" si="41">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(D65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E69" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(E65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F69" s="23" t="str">
-        <f t="shared" si="42"/>
+        <f>IF(F65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G69" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H69" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A70" s="33" t="s">
+        <f>IF(G65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A70" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -5877,40 +5609,35 @@
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A71" s="33"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A71" s="35"/>
       <c r="B71" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f t="shared" ref="C71:H71" ca="1" si="43">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <f t="shared" ref="C71" ca="1" si="42">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D71" s="13" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(D70)), NOT(D70 = "לא ניתן תרגיל")), IF(OR(D72 = "כן", D72 = "לא"), "", D70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="E71" s="13" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(E70)), NOT(E70 = "לא ניתן תרגיל")), IF(OR(E72 = "כן", E72 = "לא"), "", E70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="F71" s="13" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(F70)), NOT(F70 = "לא ניתן תרגיל")), IF(OR(F72 = "כן", F72 = "לא"), "", F70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="G71" s="13" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="H71" s="13" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A72" s="33"/>
+        <f ca="1">IF(AND(NOT(ISBLANK(G70)), NOT(G70 = "לא ניתן תרגיל")), IF(OR(G72 = "כן", G72 = "לא"), "", G70-TODAY()), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A72" s="35"/>
       <c r="B72" s="11" t="s">
         <v>3</v>
       </c>
@@ -5919,102 +5646,89 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A73" s="33"/>
+    </row>
+    <row r="73" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A73" s="35"/>
       <c r="B73" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="22" t="str">
-        <f t="shared" ref="C73:H73" si="44">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <f t="shared" ref="C73" si="43">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(D72 = "כן","בוצע", IF(D72 = "לא", "לא הוגש", IF((D70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="E73" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(E72 = "כן","בוצע", IF(E72 = "לא", "לא הוגש", IF((E70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="F73" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f>IF(F72 = "כן","בוצע", IF(F72 = "לא", "לא הוגש", IF((F70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="G73" s="22" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H73" s="22" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A74" s="34"/>
+        <f>IF(G72 = "כן","בוצע", IF(G72 = "לא", "לא הוגש", IF((G70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G70)), "טרם", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A74" s="36"/>
       <c r="B74" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="23" t="str">
-        <f t="shared" ref="C74:H74" si="45">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C74" si="44">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(D70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="E74" s="23" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(E70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="F74" s="23" t="str">
-        <f t="shared" si="45"/>
+        <f>IF(F70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="G74" s="23" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H74" s="23" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.399999999999999" customHeight="1">
+        <f>IF(G70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A75" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="9" t="e">
-        <f t="shared" ref="C75:H75" si="46">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
-        <v>#DIV/0!</v>
+      <c r="C75" s="9">
+        <f t="shared" ref="C75" si="45">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
+        <v>91</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="46"/>
+        <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
+        <v>91</v>
+      </c>
+      <c r="E75" s="9">
+        <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
         <v>100</v>
       </c>
-      <c r="E75" s="9">
-        <f t="shared" si="46"/>
-        <v>84</v>
-      </c>
       <c r="F75" s="9">
-        <f t="shared" si="46"/>
+        <f>AVERAGE(F6,F11,F19,F29,F34,F39,F44,F49,F54,F59,F64,F69,F74)</f>
         <v>100</v>
       </c>
       <c r="G75" s="9">
-        <f t="shared" si="46"/>
+        <f>AVERAGE(G6,G11,G19,G29,G34,G39,G44,G49,G54,G59,G64,G69,G74)</f>
         <v>100</v>
       </c>
-      <c r="H75" s="9">
-        <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.399999999999999" customHeight="1">
+    </row>
+    <row r="76" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="B76" s="17"/>
     </row>
-    <row r="77" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="77" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A77"/>
       <c r="B77" s="2"/>
       <c r="C77" s="19" t="s">
@@ -6033,31 +5747,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.399999999999999" customHeight="1">
+    <row r="78" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="5" t="e">
+      <c r="C78" s="5">
         <f>C75</f>
-        <v>#DIV/0!</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="5" t="e">
+      <c r="F78" s="5">
         <f>0.15*C78+0.1*D78+0.6*E78+0.15*MAX(D78,E78)</f>
-        <v>#DIV/0!</v>
+        <v>13.65</v>
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="17.399999999999999" customHeight="1">
+    <row r="79" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="5">
-        <f>D75</f>
-        <v>100</v>
+      <c r="C79" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -6067,30 +5780,30 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:8" ht="17.399999999999999" customHeight="1">
+    <row r="80" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="5">
-        <f>E75</f>
-        <v>84</v>
+        <f>D75</f>
+        <v>91</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
         <f>0.25*C80+0.75*E80</f>
-        <v>21</v>
+        <v>22.75</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="5">
-        <f>F75</f>
+        <f>E75</f>
         <v>100</v>
       </c>
       <c r="D81" s="5"/>
@@ -6103,11 +5816,11 @@
     </row>
     <row r="82" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="5">
-        <f>G75</f>
+        <f>F75</f>
         <v>100</v>
       </c>
       <c r="D82" s="5"/>
@@ -6120,11 +5833,11 @@
     </row>
     <row r="83" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="5">
-        <f>H75</f>
+        <f>G75</f>
         <v>100</v>
       </c>
       <c r="D83" s="5"/>
@@ -6161,17 +5874,17 @@
     </row>
     <row r="86" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B91" si="47">G78</f>
+        <f t="shared" ref="B86:B91" si="46">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:D91" si="48">B86*C86</f>
+        <f t="shared" ref="D86:D91" si="47">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -6180,17 +5893,17 @@
     </row>
     <row r="87" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -6199,17 +5912,17 @@
     </row>
     <row r="88" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C88" s="5">
         <v>5</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E88"/>
@@ -6218,17 +5931,17 @@
     </row>
     <row r="89" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E89"/>
@@ -6237,17 +5950,17 @@
     </row>
     <row r="90" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E90"/>
@@ -6256,17 +5969,17 @@
     </row>
     <row r="91" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A91" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E91"/>
@@ -6275,7 +5988,7 @@
     </row>
     <row r="92" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="20">
         <f>D92/C92</f>
@@ -8203,11 +7916,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -8216,885 +7924,826 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:F5">
-    <cfRule type="containsText" dxfId="370" priority="208" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="209" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="356" priority="211" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="210" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="355" priority="212" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="cellIs" dxfId="367" priority="207" operator="between">
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="cellIs" dxfId="354" priority="209" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="366" priority="206" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="353" priority="208" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="365" priority="205" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="352" priority="206" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="364" priority="204" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="351" priority="205" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="363" priority="203" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="362" priority="200" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="201" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="202" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="359" priority="199" operator="between">
+  <conditionalFormatting sqref="F5:G5">
+    <cfRule type="containsText" dxfId="350" priority="202" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="203" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="204" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G6">
+    <cfRule type="cellIs" dxfId="347" priority="201" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="346" priority="200" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="358" priority="198" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="345" priority="199" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="357" priority="197" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="356" priority="194" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C10:E10">
+    <cfRule type="containsText" dxfId="344" priority="196" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="195" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="343" priority="197" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="196" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="342" priority="198" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F11">
-    <cfRule type="cellIs" dxfId="353" priority="193" operator="between">
+  <conditionalFormatting sqref="C11:E11">
+    <cfRule type="cellIs" dxfId="341" priority="195" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="352" priority="192" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="340" priority="194" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="351" priority="191" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="339" priority="192" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="350" priority="190" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="338" priority="191" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="349" priority="189" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsText" dxfId="348" priority="186" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="187" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="188" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="345" priority="185" operator="between">
+  <conditionalFormatting sqref="F10:G10">
+    <cfRule type="containsText" dxfId="337" priority="188" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="189" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="190" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:G11">
+    <cfRule type="cellIs" dxfId="334" priority="187" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="333" priority="186" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="344" priority="184" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="332" priority="185" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="343" priority="183" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="containsText" dxfId="342" priority="180" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C15:E15">
+    <cfRule type="containsText" dxfId="331" priority="182" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="181" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="330" priority="183" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="182" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="329" priority="184" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="containsText" dxfId="339" priority="172" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="173" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="174" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:F24">
-    <cfRule type="containsText" dxfId="336" priority="166" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="F15:G15">
+    <cfRule type="containsText" dxfId="328" priority="174" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="175" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="176" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule type="containsText" dxfId="325" priority="168" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="167" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="324" priority="169" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="168" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="323" priority="170" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F29">
-    <cfRule type="cellIs" dxfId="333" priority="165" operator="between">
+  <conditionalFormatting sqref="C29:E29">
+    <cfRule type="cellIs" dxfId="322" priority="167" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="332" priority="164" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="321" priority="166" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="331" priority="163" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="320" priority="164" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="330" priority="162" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="319" priority="163" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F24:G24">
+    <cfRule type="containsText" dxfId="318" priority="160" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="161" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="162" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="329" priority="161" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
-    <cfRule type="containsText" dxfId="328" priority="158" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="159" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="160" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="325" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="315" priority="159" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="324" priority="156" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="323" priority="155" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:F33">
-    <cfRule type="containsText" dxfId="322" priority="152" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="314" priority="158" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:E33">
+    <cfRule type="containsText" dxfId="313" priority="154" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="153" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="312" priority="155" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="154" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="311" priority="156" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F34">
-    <cfRule type="cellIs" dxfId="319" priority="151" operator="between">
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="cellIs" dxfId="310" priority="153" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="318" priority="150" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="309" priority="152" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="317" priority="149" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="308" priority="150" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="316" priority="148" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="307" priority="149" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="315" priority="147" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="314" priority="144" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="145" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="146" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="cellIs" dxfId="311" priority="143" operator="between">
+  <conditionalFormatting sqref="F33:G33">
+    <cfRule type="containsText" dxfId="306" priority="146" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="147" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="148" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="cellIs" dxfId="303" priority="145" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="302" priority="144" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="310" priority="142" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="301" priority="143" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="309" priority="141" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:F38">
-    <cfRule type="containsText" dxfId="308" priority="138" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C38:E38">
+    <cfRule type="containsText" dxfId="300" priority="140" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="139" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="299" priority="141" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="140" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="298" priority="142" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:F39">
-    <cfRule type="cellIs" dxfId="305" priority="137" operator="between">
+  <conditionalFormatting sqref="C39:E39">
+    <cfRule type="cellIs" dxfId="297" priority="139" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="304" priority="136" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="296" priority="138" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="303" priority="135" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="295" priority="136" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="302" priority="134" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="294" priority="135" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="301" priority="133" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H38">
-    <cfRule type="containsText" dxfId="300" priority="130" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="131" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="132" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
-    <cfRule type="cellIs" dxfId="297" priority="129" operator="between">
+  <conditionalFormatting sqref="F38:G38">
+    <cfRule type="containsText" dxfId="293" priority="132" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="133" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="134" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:G39">
+    <cfRule type="cellIs" dxfId="290" priority="131" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="289" priority="130" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="296" priority="128" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="288" priority="129" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="295" priority="127" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:F43">
-    <cfRule type="containsText" dxfId="294" priority="124" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C43:E43">
+    <cfRule type="containsText" dxfId="287" priority="126" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="125" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="286" priority="127" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="126" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="285" priority="128" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:F44">
-    <cfRule type="cellIs" dxfId="291" priority="123" operator="between">
+  <conditionalFormatting sqref="C44:E44">
+    <cfRule type="cellIs" dxfId="284" priority="125" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="290" priority="122" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="283" priority="124" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="289" priority="121" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="282" priority="122" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" dxfId="288" priority="120" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="281" priority="121" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="286" priority="116" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="117" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="118" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="283" priority="115" operator="between">
+  <conditionalFormatting sqref="F43:G43">
+    <cfRule type="containsText" dxfId="280" priority="118" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="119" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="120" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:G44">
+    <cfRule type="cellIs" dxfId="277" priority="117" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="276" priority="116" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="275" priority="115" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="281" priority="113" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:F48">
-    <cfRule type="containsText" dxfId="280" priority="110" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C48:E48">
+    <cfRule type="containsText" dxfId="274" priority="112" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="111" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="273" priority="113" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="112" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="272" priority="114" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="277" priority="109" operator="between">
+  <conditionalFormatting sqref="C49:E49">
+    <cfRule type="cellIs" dxfId="271" priority="111" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="276" priority="108" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="270" priority="110" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="275" priority="107" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="269" priority="108" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="274" priority="106" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="268" priority="107" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="273" priority="105" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48">
-    <cfRule type="containsText" dxfId="272" priority="102" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="103" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="104" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="269" priority="101" operator="between">
+  <conditionalFormatting sqref="F48:G48">
+    <cfRule type="containsText" dxfId="267" priority="104" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="266" priority="105" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="106" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:G49">
+    <cfRule type="cellIs" dxfId="264" priority="103" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="263" priority="102" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="268" priority="100" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="262" priority="101" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="267" priority="99" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:F53">
-    <cfRule type="containsText" dxfId="266" priority="96" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C53:E53">
+    <cfRule type="containsText" dxfId="261" priority="98" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="97" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="260" priority="99" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="259" priority="100" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:F54">
-    <cfRule type="cellIs" dxfId="263" priority="95" operator="between">
+  <conditionalFormatting sqref="C54:E54">
+    <cfRule type="cellIs" dxfId="258" priority="97" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="262" priority="94" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="257" priority="96" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="261" priority="93" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="256" priority="94" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="260" priority="92" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="255" priority="93" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="259" priority="91" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:H53">
-    <cfRule type="containsText" dxfId="258" priority="88" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="89" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:H54">
-    <cfRule type="cellIs" dxfId="255" priority="87" operator="between">
+  <conditionalFormatting sqref="F53:G53">
+    <cfRule type="containsText" dxfId="254" priority="90" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="91" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="92" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:G54">
+    <cfRule type="cellIs" dxfId="251" priority="89" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="250" priority="88" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="containsText" dxfId="254" priority="86" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="249" priority="87" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="containsText" dxfId="253" priority="85" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:F58">
-    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C58:E58">
+    <cfRule type="containsText" dxfId="248" priority="84" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="247" priority="85" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="246" priority="86" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:F59">
-    <cfRule type="cellIs" dxfId="249" priority="81" operator="between">
+  <conditionalFormatting sqref="C59:E59">
+    <cfRule type="cellIs" dxfId="245" priority="83" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="244" priority="82" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="243" priority="80" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="242" priority="79" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:H58">
-    <cfRule type="containsText" dxfId="244" priority="74" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="76" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
-    <cfRule type="cellIs" dxfId="241" priority="73" operator="between">
+  <conditionalFormatting sqref="F58:G58">
+    <cfRule type="containsText" dxfId="241" priority="76" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="77" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="239" priority="78" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:G59">
+    <cfRule type="cellIs" dxfId="238" priority="75" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="237" priority="74" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="236" priority="73" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:F63">
-    <cfRule type="containsText" dxfId="238" priority="68" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C63:E63">
+    <cfRule type="containsText" dxfId="235" priority="70" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="234" priority="71" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="70" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="233" priority="72" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:F64">
-    <cfRule type="cellIs" dxfId="235" priority="67" operator="between">
+  <conditionalFormatting sqref="C64:E64">
+    <cfRule type="cellIs" dxfId="232" priority="69" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="231" priority="68" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="230" priority="66" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="229" priority="65" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:H63">
-    <cfRule type="containsText" dxfId="230" priority="60" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G64:H64">
-    <cfRule type="cellIs" dxfId="227" priority="59" operator="between">
+  <conditionalFormatting sqref="F63:G63">
+    <cfRule type="containsText" dxfId="228" priority="62" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="227" priority="63" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="64" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:G64">
+    <cfRule type="cellIs" dxfId="225" priority="61" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="224" priority="60" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="223" priority="59" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:F68">
-    <cfRule type="containsText" dxfId="224" priority="54" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C68:E68">
+    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="221" priority="57" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="56" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="220" priority="58" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:F69">
-    <cfRule type="cellIs" dxfId="221" priority="53" operator="between">
+  <conditionalFormatting sqref="C69:E69">
+    <cfRule type="cellIs" dxfId="219" priority="55" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="218" priority="54" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="217" priority="52" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="216" priority="51" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68:H68">
-    <cfRule type="containsText" dxfId="216" priority="46" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="48" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69:H69">
-    <cfRule type="cellIs" dxfId="213" priority="45" operator="between">
+  <conditionalFormatting sqref="F68:G68">
+    <cfRule type="containsText" dxfId="215" priority="48" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="49" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="50" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:G69">
+    <cfRule type="cellIs" dxfId="212" priority="47" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="211" priority="46" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="210" priority="45" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73:F73">
-    <cfRule type="containsText" dxfId="210" priority="40" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C73:E73">
+    <cfRule type="containsText" dxfId="209" priority="42" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="208" priority="43" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="42" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="207" priority="44" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74:F74">
-    <cfRule type="cellIs" dxfId="207" priority="39" operator="between">
+  <conditionalFormatting sqref="C74:E74">
+    <cfRule type="cellIs" dxfId="206" priority="41" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="205" priority="40" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="204" priority="38" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="203" priority="37" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G73:H73">
-    <cfRule type="containsText" dxfId="202" priority="32" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="34" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74:H74">
-    <cfRule type="cellIs" dxfId="199" priority="31" operator="between">
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="containsText" dxfId="202" priority="34" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="35" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="36" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="199" priority="33" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="198" priority="32" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="197" priority="31" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:F19">
-    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="לא הוגש">
+  <conditionalFormatting sqref="C19:E19">
+    <cfRule type="containsText" dxfId="196" priority="28" operator="containsText" text="לא הוגש">
       <formula>NOT(ISERROR(SEARCH("לא הוגש",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="בוצע">
+    <cfRule type="containsText" dxfId="195" priority="29" operator="containsText" text="בוצע">
       <formula>NOT(ISERROR(SEARCH("בוצע",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="28" operator="containsText" text="טרם">
+    <cfRule type="containsText" dxfId="194" priority="30" operator="containsText" text="טרם">
       <formula>NOT(ISERROR(SEARCH("טרם",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:F21">
-    <cfRule type="cellIs" dxfId="193" priority="25" operator="between">
+  <conditionalFormatting sqref="C21:E21">
+    <cfRule type="cellIs" dxfId="193" priority="27" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="192" priority="26" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="191" priority="24" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="190" priority="23" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="188" priority="18" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="20" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="cellIs" dxfId="185" priority="17" operator="between">
+  <conditionalFormatting sqref="F19:G19">
+    <cfRule type="containsText" dxfId="189" priority="20" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="21" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="22" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:G21">
+    <cfRule type="cellIs" dxfId="186" priority="19" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="185" priority="18" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="לא ניתן תרגיל">
+    <cfRule type="containsText" dxfId="184" priority="17" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="182" priority="7" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",H20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:F20">
-    <cfRule type="cellIs" dxfId="181" priority="14" operator="between">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="183" priority="9" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="cellIs" dxfId="182" priority="16" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="181" priority="15" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="containsText" dxfId="180" priority="13" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
     <cfRule type="containsText" dxfId="179" priority="12" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="לא ניתן תרגיל">
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:G20">
+    <cfRule type="cellIs" dxfId="178" priority="11" operator="between">
+      <formula>1</formula>
+      <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
@@ -9102,41 +8751,41 @@
       <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="cellIs" dxfId="176" priority="9" operator="between">
+  <conditionalFormatting sqref="C28:E28">
+    <cfRule type="containsText" dxfId="176" priority="6" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="8" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:G28">
+    <cfRule type="containsText" dxfId="173" priority="3" operator="containsText" text="לא הוגש">
+      <formula>NOT(ISERROR(SEARCH("לא הוגש",F28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="4" operator="containsText" text="בוצע">
+      <formula>NOT(ISERROR(SEARCH("בוצע",F28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="5" operator="containsText" text="טרם">
+      <formula>NOT(ISERROR(SEARCH("טרם",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="between">
       <formula>1</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="175" priority="8" operator="containsText" text="לא ניתן תרגיל">
-      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:F28">
-    <cfRule type="containsText" dxfId="174" priority="4" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="containsText" dxfId="171" priority="1" operator="containsText" text="לא הוגש">
-      <formula>NOT(ISERROR(SEARCH("לא הוגש",G28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="בוצע">
-      <formula>NOT(ISERROR(SEARCH("בוצע",G28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="3" operator="containsText" text="טרם">
-      <formula>NOT(ISERROR(SEARCH("טרם",G28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:H69 C6:H6 C11:H11 C74:H74 C29:H29 C34:H34 C39:H39 C44:H44 C49:H49 C54:H54 C59:H59 C64:H64 C20:H21">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="לא ניתן תרגיל">
+      <formula>NOT(ISERROR(SEARCH("לא ניתן תרגיל",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D11:G11 D74:G74 D20:G21 D34:G34 D39:G39 D44:G44 D49:G49 D54:G54 D59:G59 D64:G64 D29:G29 C29 C64 C59 C54 C49 C44 C39 C34 C20:C21 C74 C11 C6 C69 D69:G69">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -9170,23 +8819,23 @@
       <c r="A1" s="7"/>
       <c r="B1" s="2"/>
       <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9199,7 +8848,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -9225,7 +8874,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9236,7 +8885,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -9262,7 +8911,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -9288,7 +8937,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -9301,7 +8950,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9327,7 +8976,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9338,7 +8987,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -9364,7 +9013,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -9390,7 +9039,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9403,7 +9052,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9429,7 +9078,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9440,7 +9089,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9115,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -9492,7 +9141,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9505,7 +9154,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9531,7 +9180,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9542,7 +9191,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9568,7 +9217,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9594,7 +9243,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9607,7 +9256,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9633,7 +9282,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9644,7 +9293,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9670,7 +9319,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9696,7 +9345,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9709,7 +9358,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9735,7 +9384,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9746,7 +9395,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9772,7 +9421,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9447,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9811,7 +9460,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9837,7 +9486,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9848,7 +9497,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9874,7 +9523,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9900,7 +9549,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9913,7 +9562,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9939,7 +9588,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9950,7 +9599,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="36"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9976,7 +9625,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -10002,7 +9651,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -10015,7 +9664,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="36"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -10041,7 +9690,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="36"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -10052,7 +9701,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -10078,7 +9727,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -10104,7 +9753,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -10117,7 +9766,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -10143,7 +9792,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -10154,7 +9803,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="36"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -10180,7 +9829,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="37"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -10206,7 +9855,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -10219,7 +9868,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +9894,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="36"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +9905,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="36"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -10282,7 +9931,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="37"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -10308,7 +9957,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -10321,7 +9970,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -10347,7 +9996,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="36"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10007,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="36"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10384,7 +10033,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -10410,7 +10059,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -10423,7 +10072,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="36"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -10449,7 +10098,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -10460,7 +10109,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="36"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -10486,7 +10135,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="37"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10558,7 +10207,7 @@
     </row>
     <row r="70" spans="1:7" ht="17.399999999999999">
       <c r="A70" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="5" t="e">
@@ -10572,7 +10221,7 @@
     </row>
     <row r="71" spans="1:7" ht="17.399999999999999">
       <c r="A71" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="5" t="e">
@@ -10586,7 +10235,7 @@
     </row>
     <row r="72" spans="1:7" ht="17.399999999999999">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="5" t="e">
@@ -10600,7 +10249,7 @@
     </row>
     <row r="73" spans="1:7" ht="17.399999999999999">
       <c r="A73" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="5" t="e">
@@ -10614,7 +10263,7 @@
     </row>
     <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="5" t="e">
@@ -10640,7 +10289,7 @@
     </row>
     <row r="77" spans="1:7" ht="15">
       <c r="A77" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="5">
         <f>G70</f>
@@ -10656,7 +10305,7 @@
     </row>
     <row r="78" spans="1:7" ht="15">
       <c r="A78" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="5">
         <f>G71</f>
@@ -10672,7 +10321,7 @@
     </row>
     <row r="79" spans="1:7" ht="15">
       <c r="A79" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="5">
         <f>G72</f>
@@ -10688,7 +10337,7 @@
     </row>
     <row r="80" spans="1:7" ht="15">
       <c r="A80" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="5">
         <f>G73</f>
@@ -10704,7 +10353,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.6" thickBot="1">
       <c r="A81" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="28">
         <f>G74</f>
@@ -10734,11 +10383,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10747,6 +10391,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="52">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>לא רלוונטי</t>
+  </si>
+  <si>
+    <t>לא</t>
   </si>
 </sst>
 </file>
@@ -4124,7 +4127,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4570,13 +4573,11 @@
         <f>IF(D16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="E20" s="32" t="str">
-        <f>IF(E16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="32" t="str">
-        <f>IF(F16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="E20" s="32">
+        <v>100</v>
+      </c>
+      <c r="F20" s="32">
+        <v>100</v>
       </c>
       <c r="G20" s="32" t="str">
         <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -4702,19 +4703,19 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v>8</v>
-      </c>
-      <c r="D26" s="13">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E26" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E25)), NOT(E25 = "לא ניתן תרגיל")), IF(OR(E27 = "כן", E27 = "לא"), "", E25-TODAY()), "")</f>
-        <v>5</v>
-      </c>
-      <c r="F26" s="13">
+        <v>4</v>
+      </c>
+      <c r="F26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F25)), NOT(F25 = "לא ניתן תרגיל")), IF(OR(F27 = "כן", F27 = "לא"), "", F25-TODAY()), "")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="G26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
@@ -4727,9 +4728,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4743,7 +4748,7 @@
       </c>
       <c r="D28" s="31" t="str">
         <f>IF(D27 = "כן","בוצע", IF(D27 = "לא", "לא הוגש", IF((D25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D25)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="E28" s="31" t="str">
         <f>IF(E27 = "כן","בוצע", IF(E27 = "לא", "לא הוגש", IF((E25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E25)), "טרם", ""))))</f>
@@ -4751,7 +4756,7 @@
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>לא הוגש</v>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -4579,9 +4579,8 @@
       <c r="F20" s="32">
         <v>100</v>
       </c>
-      <c r="G20" s="32" t="str">
-        <f>IF(G16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="G20" s="32">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
@@ -4703,7 +4702,7 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
@@ -4711,7 +4710,7 @@
       </c>
       <c r="E26" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E25)), NOT(E25 = "לא ניתן תרגיל")), IF(OR(E27 = "כן", E27 = "לא"), "", E25-TODAY()), "")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F25)), NOT(F25 = "לא ניתן תרגיל")), IF(OR(F27 = "כן", F27 = "לא"), "", F25-TODAY()), "")</f>
@@ -7921,6 +7920,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7929,11 +7933,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10388,6 +10387,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10396,11 +10400,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -4127,7 +4127,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4691,8 +4691,8 @@
       <c r="F25" s="24">
         <v>41969</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>49</v>
+      <c r="G25" s="24">
+        <v>41983</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4702,23 +4702,23 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E25)), NOT(E25 = "לא ניתן תרגיל")), IF(OR(E27 = "כן", E27 = "לא"), "", E25-TODAY()), "")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F25)), NOT(F25 = "לא ניתן תרגיל")), IF(OR(F27 = "כן", F27 = "לא"), "", F25-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4730,7 +4730,9 @@
       <c r="D27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>51</v>
       </c>
@@ -4751,7 +4753,7 @@
       </c>
       <c r="E28" s="31" t="str">
         <f>IF(E27 = "כן","בוצע", IF(E27 = "לא", "לא הוגש", IF((E25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E25)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
@@ -4759,7 +4761,7 @@
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4781,8 +4783,8 @@
         <v/>
       </c>
       <c r="G29" s="33" t="str">
-        <f t="shared" ref="G29" si="17">IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v>לא ניתן תרגיל</v>
+        <f>IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4793,7 +4795,9 @@
         <v>2</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="24">
+        <v>41978</v>
+      </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -4804,12 +4808,12 @@
         <v>5</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31" ca="1" si="18">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="13" t="str">
+        <f t="shared" ref="C31" ca="1" si="17">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E30)), NOT(E30 = "לא ניתן תרגיל")), IF(OR(E32 = "כן", E32 = "לא"), "", E30-TODAY()), "")</f>
@@ -4841,12 +4845,12 @@
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33" si="19">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <f t="shared" ref="C33" si="18">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D33" s="22" t="str">
         <f>IF(D32 = "כן","בוצע", IF(D32 = "לא", "לא הוגש", IF((D30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D30)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="E33" s="22" t="str">
         <f>IF(E32 = "כן","בוצע", IF(E32 = "לא", "לא הוגש", IF((E30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E30)), "טרם", ""))))</f>
@@ -4867,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34" si="20">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34" si="19">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
@@ -4906,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36" ca="1" si="21">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36" ca="1" si="20">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
@@ -4943,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38" si="22">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38" si="21">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
@@ -4969,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39" si="23">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39" si="22">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
@@ -5008,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41" ca="1" si="24">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41" ca="1" si="23">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13" t="str">
@@ -5045,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43" si="25">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43" si="24">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
@@ -5071,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44" si="26">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44" si="25">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
@@ -5110,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46" ca="1" si="27">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46" ca="1" si="26">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
@@ -5147,7 +5151,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48" si="28">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48" si="27">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
@@ -5173,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49" si="29">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49" si="28">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
@@ -5212,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51" ca="1" si="30">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51" ca="1" si="29">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
@@ -5249,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53" si="31">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53" si="30">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
@@ -5275,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54" si="32">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54" si="31">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
@@ -5314,7 +5318,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56" ca="1" si="33">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56" ca="1" si="32">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
@@ -5351,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58" si="34">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58" si="33">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
@@ -5377,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59" si="35">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59" si="34">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
@@ -5416,7 +5420,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61" ca="1" si="36">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61" ca="1" si="35">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
@@ -5453,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63" si="37">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63" si="36">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
@@ -5479,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64" si="38">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64" si="37">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
@@ -5518,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66" ca="1" si="39">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66" ca="1" si="38">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
@@ -5555,7 +5559,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68" si="40">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68" si="39">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
@@ -5581,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69" si="41">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69" si="40">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
@@ -5620,7 +5624,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f t="shared" ref="C71" ca="1" si="42">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <f t="shared" ref="C71" ca="1" si="41">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D71" s="13" t="str">
@@ -5657,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="22" t="str">
-        <f t="shared" ref="C73" si="43">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <f t="shared" ref="C73" si="42">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
@@ -5683,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="23" t="str">
-        <f t="shared" ref="C74" si="44">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C74" si="43">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D74" s="23" t="str">
@@ -5709,7 +5713,7 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="9">
-        <f t="shared" ref="C75" si="45">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
+        <f t="shared" ref="C75" si="44">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
         <v>91</v>
       </c>
       <c r="D75" s="9">
@@ -5881,14 +5885,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B91" si="46">G78</f>
+        <f t="shared" ref="B86:B91" si="45">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:D91" si="47">B86*C86</f>
+        <f t="shared" ref="D86:D91" si="46">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -5900,14 +5904,14 @@
         <v>32</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -5919,14 +5923,14 @@
         <v>33</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C88" s="5">
         <v>5</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E88"/>
@@ -5938,14 +5942,14 @@
         <v>34</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E89"/>
@@ -5957,14 +5961,14 @@
         <v>35</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E90"/>
@@ -5976,14 +5980,14 @@
         <v>36</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E91"/>
@@ -7920,11 +7924,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7933,6 +7932,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10387,11 +10391,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10400,6 +10399,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="52">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4126,8 +4126,8 @@
   <dimension ref="A1:G728"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="G26" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4799,7 +4799,9 @@
         <v>41978</v>
       </c>
       <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="24">
+        <v>41976</v>
+      </c>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4813,7 +4815,7 @@
       </c>
       <c r="D31" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E30)), NOT(E30 = "לא ניתן תרגיל")), IF(OR(E32 = "כן", E32 = "לא"), "", E30-TODAY()), "")</f>
@@ -4836,7 +4838,9 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4858,7 +4862,7 @@
       </c>
       <c r="F33" s="22" t="str">
         <f>IF(F32 = "כן","בוצע", IF(F32 = "לא", "לא הוגש", IF((F30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F30)), "טרם", ""))))</f>
-        <v/>
+        <v>בוצע</v>
       </c>
       <c r="G33" s="22" t="str">
         <f>IF(G32 = "כן","בוצע", IF(G32 = "לא", "לא הוגש", IF((G30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G30)), "טרם", ""))))</f>
@@ -7924,6 +7928,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7932,11 +7941,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10391,6 +10395,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10399,11 +10408,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -169,9 +169,6 @@
   <si>
     <t>לא רלוונטי</t>
   </si>
-  <si>
-    <t>לא</t>
-  </si>
 </sst>
 </file>
 
@@ -225,11 +222,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4127,7 +4126,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4375,9 +4374,8 @@
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23" t="str">
-        <f t="shared" ref="C11" si="6">IF(C7 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="C11" s="23">
+        <v>100</v>
       </c>
       <c r="D11" s="23">
         <v>98</v>
@@ -4411,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f t="shared" ref="C13" ca="1" si="7">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
+        <f t="shared" ref="C13" ca="1" si="6">IF(AND(NOT(ISBLANK(C12)), NOT(C12 = "לא ניתן תרגיל")), IF(OR(C14 = "כן", C14 = "לא"), "", C12-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D13" s="13" t="str">
@@ -4448,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f t="shared" ref="C15" si="8">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
+        <f t="shared" ref="C15" si="7">IF(C14 = "כן","בוצע", IF(C14 = "לא", "לא הוגש", IF((C12 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C12)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D15" s="22" t="str">
@@ -4468,7 +4466,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
@@ -4489,13 +4487,13 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="13" t="str">
-        <f t="shared" ref="C17" ca="1" si="9">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
+        <f t="shared" ref="C17" ca="1" si="8">IF(AND(NOT(ISBLANK(C16)), NOT(C16 = "לא ניתן תרגיל")), IF(OR(C18 = "כן", C18 = "לא"), "", C16-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D17" s="13" t="str">
@@ -4515,7 +4513,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
@@ -4534,13 +4532,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" ref="C19" si="10">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
+        <f t="shared" ref="C19" si="9">IF(C18 = "כן","בוצע", IF(C18 = "לא", "לא הוגש", IF((C16 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C16)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D19" s="29" t="str">
@@ -4566,12 +4564,11 @@
         <v>4</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f t="shared" ref="C20" si="11">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C20" si="10">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v>לא ניתן תרגיל</v>
       </c>
-      <c r="D20" s="32" t="str">
-        <f>IF(D16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="D20" s="32">
+        <v>100</v>
       </c>
       <c r="E20" s="32">
         <v>100</v>
@@ -4591,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="30" t="str">
-        <f t="shared" ref="C21" si="12">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C21" si="11">IF(C16 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v>לא ניתן תרגיל</v>
       </c>
       <c r="D21" s="30" t="str">
@@ -4617,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="13" t="str">
-        <f t="shared" ref="C22" ca="1" si="13">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
+        <f t="shared" ref="C22" ca="1" si="12">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D22" s="13" t="e">
@@ -4654,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f t="shared" ref="C24" si="14">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
+        <f t="shared" ref="C24" si="13">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D24" s="22" t="str">
@@ -4692,7 +4689,7 @@
         <v>41969</v>
       </c>
       <c r="G25" s="24">
-        <v>41983</v>
+        <v>41987</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4700,9 +4697,9 @@
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13">
-        <f t="shared" ref="C26" ca="1" si="15">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
-        <v>2</v>
+      <c r="C26" s="13" t="str">
+        <f t="shared" ref="C26" ca="1" si="14">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
+        <v/>
       </c>
       <c r="D26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D25)), NOT(D25 = "לא ניתן תרגיל")), IF(OR(D27 = "כן", D27 = "לא"), "", D25-TODAY()), "")</f>
@@ -4718,7 +4715,7 @@
       </c>
       <c r="G26" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4726,7 +4723,9 @@
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="13" t="s">
         <v>48</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>48</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="13"/>
     </row>
@@ -4744,8 +4743,8 @@
         <v>6</v>
       </c>
       <c r="C28" s="31" t="str">
-        <f t="shared" ref="C28" si="16">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <f t="shared" ref="C28" si="15">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <v>בוצע</v>
       </c>
       <c r="D28" s="31" t="str">
         <f>IF(D27 = "כן","בוצע", IF(D27 = "לא", "לא הוגש", IF((D25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D25)), "טרם", ""))))</f>
@@ -4757,7 +4756,7 @@
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(F27 = "כן","בוצע", IF(F27 = "לא", "לא הוגש", IF((F25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F25)), "טרם", ""))))</f>
-        <v>לא הוגש</v>
+        <v>בוצע</v>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
@@ -4794,7 +4793,9 @@
       <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24">
+        <v>41987</v>
+      </c>
       <c r="D30" s="24">
         <v>41978</v>
       </c>
@@ -4809,13 +4810,13 @@
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31" ca="1" si="17">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31" s="13">
+        <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <v>10</v>
+      </c>
+      <c r="D31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E30)), NOT(E30 = "לא ניתן תרגיל")), IF(OR(E32 = "כן", E32 = "לא"), "", E30-TODAY()), "")</f>
@@ -4836,7 +4837,9 @@
         <v>3</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
         <v>48</v>
@@ -4849,12 +4852,12 @@
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33" si="18">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
-        <v/>
+        <f t="shared" ref="C33" si="17">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <v>טרם</v>
       </c>
       <c r="D33" s="22" t="str">
         <f>IF(D32 = "כן","בוצע", IF(D32 = "לא", "לא הוגש", IF((D30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D30)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="E33" s="22" t="str">
         <f>IF(E32 = "כן","בוצע", IF(E32 = "לא", "לא הוגש", IF((E30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E30)), "טרם", ""))))</f>
@@ -4875,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34" si="19">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34" si="18">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
@@ -4914,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36" ca="1" si="20">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36" ca="1" si="19">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
@@ -4951,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38" si="21">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38" si="20">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
@@ -4977,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39" si="22">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39" si="21">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
@@ -5016,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41" ca="1" si="23">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41" ca="1" si="22">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13" t="str">
@@ -5053,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43" si="24">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43" si="23">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
@@ -5079,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44" si="25">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44" si="24">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
@@ -5118,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46" ca="1" si="26">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46" ca="1" si="25">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
@@ -5155,7 +5158,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48" si="27">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48" si="26">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
@@ -5181,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49" si="28">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49" si="27">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
@@ -5220,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51" ca="1" si="29">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51" ca="1" si="28">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
@@ -5257,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53" si="30">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53" si="29">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
@@ -5283,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54" si="31">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54" si="30">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
@@ -5322,7 +5325,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56" ca="1" si="32">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56" ca="1" si="31">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
@@ -5359,7 +5362,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58" si="33">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58" si="32">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
@@ -5385,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59" si="34">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59" si="33">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
@@ -5424,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61" ca="1" si="35">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61" ca="1" si="34">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
@@ -5461,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63" si="36">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63" si="35">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
@@ -5487,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64" si="37">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64" si="36">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
@@ -5526,7 +5529,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66" ca="1" si="38">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66" ca="1" si="37">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
@@ -5563,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68" si="39">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68" si="38">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
@@ -5589,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69" si="40">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69" si="39">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
@@ -5628,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f t="shared" ref="C71" ca="1" si="41">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <f t="shared" ref="C71" ca="1" si="40">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D71" s="13" t="str">
@@ -5665,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="22" t="str">
-        <f t="shared" ref="C73" si="42">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <f t="shared" ref="C73" si="41">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
@@ -5691,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="23" t="str">
-        <f t="shared" ref="C74" si="43">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C74" si="42">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D74" s="23" t="str">
@@ -5717,8 +5720,8 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="9">
-        <f t="shared" ref="C75" si="44">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
-        <v>91</v>
+        <f t="shared" ref="C75" si="43">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
+        <v>95.5</v>
       </c>
       <c r="D75" s="9">
         <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
@@ -5766,13 +5769,13 @@
       <c r="B78" s="2"/>
       <c r="C78" s="5">
         <f>C75</f>
-        <v>91</v>
+        <v>95.5</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5">
         <f>0.15*C78+0.1*D78+0.6*E78+0.15*MAX(D78,E78)</f>
-        <v>13.65</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="G78" s="5"/>
     </row>
@@ -5889,14 +5892,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B91" si="45">G78</f>
+        <f t="shared" ref="B86:B91" si="44">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:D91" si="46">B86*C86</f>
+        <f t="shared" ref="D86:D91" si="45">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -5908,14 +5911,14 @@
         <v>32</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -5927,14 +5930,14 @@
         <v>33</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C88" s="5">
         <v>5</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E88"/>
@@ -5946,14 +5949,14 @@
         <v>34</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E89"/>
@@ -5965,14 +5968,14 @@
         <v>35</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E90"/>
@@ -5984,14 +5987,14 @@
         <v>36</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E91"/>
@@ -8797,7 +8800,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D11:G11 D74:G74 D20:G21 D34:G34 D39:G39 D44:G44 D49:G49 D54:G54 D59:G59 D64:G64 D29:G29 C29 C64 C59 C54 C49 C44 C39 C34 C20:C21 C74 C11 C6 C69 D69:G69">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:G29 C64:G64 C59:G59 C54:G54 C49:G49 C44:G44 C39:G39 C34:G34 C20:G21 C74:G74 C11:G11 C6:G6 C69:G69">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר א" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -584,6 +584,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4125,8 +4128,8 @@
   <dimension ref="A1:G728"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4580,7 +4583,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>7</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>טרם</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="15" t="s">
         <v>2</v>
@@ -4688,11 +4691,11 @@
       <c r="F25" s="24">
         <v>41969</v>
       </c>
-      <c r="G25" s="24">
-        <v>41987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="G25" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="11" t="s">
         <v>5</v>
@@ -4713,12 +4716,12 @@
         <f ca="1">IF(AND(NOT(ISBLANK(F25)), NOT(F25 = "לא ניתן תרגיל")), IF(OR(F27 = "כן", F27 = "לא"), "", F25-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(G25)), NOT(G25 = "לא ניתן תרגיל")), IF(OR(G27 = "כן", G27 = "לא"), "", G25-TODAY()), "")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="11" t="s">
         <v>3</v>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="11" t="s">
         <v>6</v>
@@ -4760,7 +4763,7 @@
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4783,7 +4786,7 @@
       </c>
       <c r="G29" s="33" t="str">
         <f>IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+        <v>לא ניתן תרגיל</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4799,11 +4802,15 @@
       <c r="D30" s="24">
         <v>41978</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="24">
         <v>41976</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="24">
+        <v>41987</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A31" s="35"/>
@@ -4812,7 +4819,7 @@
       </c>
       <c r="C31" s="13">
         <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
@@ -4826,9 +4833,9 @@
         <f ca="1">IF(AND(NOT(ISBLANK(F30)), NOT(F30 = "לא ניתן תרגיל")), IF(OR(F32 = "כן", F32 = "לא"), "", F30-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="G31" s="13" t="str">
+      <c r="G31" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G30)), NOT(G30 = "לא ניתן תרגיל")), IF(OR(G32 = "כן", G32 = "לא"), "", G30-TODAY()), "")</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4869,7 +4876,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f>IF(G32 = "כן","בוצע", IF(G32 = "לא", "לא הוגש", IF((G30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G30)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4887,7 +4894,7 @@
       </c>
       <c r="E34" s="23" t="str">
         <f>IF(E30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+        <v>לא ניתן תרגיל</v>
       </c>
       <c r="F34" s="23" t="str">
         <f>IF(F30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -4898,7 +4905,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A35" s="35" t="s">
         <v>9</v>
       </c>
@@ -4906,12 +4913,18 @@
         <v>2</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="D35" s="24">
+        <v>41983</v>
+      </c>
+      <c r="E35" s="24">
+        <v>41990</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A36" s="35"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
@@ -4920,13 +4933,13 @@
         <f t="shared" ref="C36" ca="1" si="19">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
-        <v/>
-      </c>
-      <c r="E36" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
@@ -4937,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="35"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -4948,7 +4961,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A38" s="35"/>
       <c r="B38" s="11" t="s">
         <v>6</v>
@@ -4959,11 +4972,11 @@
       </c>
       <c r="D38" s="22" t="str">
         <f>IF(D37 = "כן","בוצע", IF(D37 = "לא", "לא הוגש", IF((D35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D35)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="E38" s="22" t="str">
         <f>IF(E37 = "כן","בוצע", IF(E37 = "לא", "לא הוגש", IF((E35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E35)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="F38" s="22" t="str">
         <f>IF(F37 = "כן","בוצע", IF(F37 = "לא", "לא הוגש", IF((F35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F35)), "טרם", ""))))</f>
@@ -4993,7 +5006,7 @@
       </c>
       <c r="F39" s="23" t="str">
         <f>IF(F35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+        <v>לא ניתן תרגיל</v>
       </c>
       <c r="G39" s="23" t="str">
         <f>IF(G35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -5662,7 +5675,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="73" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A73" s="35"/>
       <c r="B73" s="11" t="s">
         <v>6</v>
@@ -7931,11 +7944,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7944,6 +7952,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -8819,7 +8832,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10398,11 +10411,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10411,6 +10419,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -562,6 +562,9 @@
     <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,9 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4129,7 +4129,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4160,7 +4160,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" hidden="1" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4209,7 +4209,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
@@ -4347,7 +4347,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4407,7 +4407,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -4470,7 +4470,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
@@ -4562,7 +4562,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1" thickBot="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4612,7 +4612,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
@@ -4638,7 +4638,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
@@ -4691,12 +4691,12 @@
       <c r="F25" s="24">
         <v>41969</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
@@ -4722,7 +4722,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
@@ -4776,13 +4776,11 @@
         <f>IF(D21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="E29" s="23" t="str">
-        <f>IF(E21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
-      </c>
-      <c r="F29" s="23" t="str">
-        <f>IF(F21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="E29" s="23">
+        <v>85</v>
+      </c>
+      <c r="F29" s="23">
+        <v>100</v>
       </c>
       <c r="G29" s="33" t="str">
         <f>IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -4790,7 +4788,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4802,7 +4800,7 @@
       <c r="D30" s="24">
         <v>41978</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="24">
@@ -4813,13 +4811,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
@@ -4835,11 +4833,11 @@
       </c>
       <c r="G31" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G30)), NOT(G30 = "לא ניתן תרגיל")), IF(OR(G32 = "כן", G32 = "לא"), "", G30-TODAY()), "")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
@@ -4854,7 +4852,7 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
@@ -4880,7 +4878,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -4906,7 +4904,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -4919,13 +4917,13 @@
       <c r="E35" s="24">
         <v>41990</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="35" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
@@ -4935,11 +4933,11 @@
       </c>
       <c r="D36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
@@ -4951,7 +4949,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
@@ -4962,7 +4960,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
@@ -4988,7 +4986,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5012,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -5027,7 +5025,7 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5051,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="35"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
@@ -5064,7 +5062,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
@@ -5090,7 +5088,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A44" s="36"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5114,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -5129,7 +5127,7 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
@@ -5155,7 +5153,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
@@ -5166,7 +5164,7 @@
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="11" t="s">
         <v>6</v>
       </c>
@@ -5192,7 +5190,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="14" t="s">
         <v>4</v>
       </c>
@@ -5218,7 +5216,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -5231,7 +5229,7 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="11" t="s">
         <v>5</v>
       </c>
@@ -5257,7 +5255,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A52" s="35"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
@@ -5268,7 +5266,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
@@ -5294,7 +5292,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A54" s="36"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
@@ -5320,7 +5318,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -5333,7 +5331,7 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A56" s="35"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
@@ -5359,7 +5357,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A57" s="35"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
@@ -5370,7 +5368,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A58" s="35"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
@@ -5396,7 +5394,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="36"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
@@ -5422,7 +5420,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -5435,7 +5433,7 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
@@ -5461,7 +5459,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A62" s="35"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
@@ -5472,7 +5470,7 @@
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A63" s="35"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
@@ -5498,7 +5496,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A64" s="36"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
@@ -5524,7 +5522,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -5537,7 +5535,7 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A66" s="35"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="11" t="s">
         <v>5</v>
       </c>
@@ -5563,7 +5561,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A67" s="35"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A68" s="35"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
@@ -5600,7 +5598,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A69" s="36"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="14" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5624,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -5639,7 +5637,7 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A71" s="35"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="11" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5663,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A72" s="35"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="11" t="s">
         <v>3</v>
       </c>
@@ -5676,7 +5674,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A73" s="35"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="11" t="s">
         <v>6</v>
       </c>
@@ -5702,7 +5700,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A74" s="36"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="14" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +5740,7 @@
       </c>
       <c r="E75" s="9">
         <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F75" s="9">
         <f>AVERAGE(F6,F11,F19,F29,F34,F39,F44,F49,F54,F59,F64,F69,F74)</f>
@@ -5832,13 +5830,13 @@
       <c r="B81" s="2"/>
       <c r="C81" s="5">
         <f>E75</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
         <f>0.2*C81+0.1*D81+0.7*E81</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" s="5"/>
     </row>
@@ -7944,6 +7942,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7952,11 +7955,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -8863,7 +8861,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8876,7 +8874,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -8902,7 +8900,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +8911,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8939,7 +8937,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -8965,7 +8963,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8978,7 +8976,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9004,7 +9002,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9015,7 +9013,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +9039,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -9067,7 +9065,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9080,7 +9078,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9106,7 +9104,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9117,7 +9115,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9143,7 +9141,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -9169,7 +9167,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9182,7 +9180,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9208,7 +9206,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9219,7 +9217,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9245,7 +9243,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9271,7 +9269,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9284,7 +9282,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9310,7 +9308,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9321,7 +9319,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9347,7 +9345,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9373,7 +9371,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9386,7 +9384,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9410,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9423,7 +9421,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9449,7 +9447,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9475,7 +9473,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9488,7 +9486,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9514,7 +9512,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9525,7 +9523,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9551,7 +9549,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9577,7 +9575,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9590,7 +9588,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="38"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9616,7 +9614,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9627,7 +9625,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9651,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -9679,7 +9677,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9692,7 +9690,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="38"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9718,7 +9716,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="38"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9729,7 +9727,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="38"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -9755,7 +9753,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -9781,7 +9779,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9794,7 +9792,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -9820,7 +9818,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="38"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9831,7 +9829,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="38"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9857,7 +9855,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="39"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -9883,7 +9881,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -9896,7 +9894,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="38"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -9922,7 +9920,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="38"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -9933,7 +9931,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="38"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -9959,7 +9957,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -9985,7 +9983,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -9998,7 +9996,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="38"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -10024,7 +10022,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="38"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -10035,7 +10033,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="38"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10061,7 +10059,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="39"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -10087,7 +10085,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -10100,7 +10098,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="38"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -10126,7 +10124,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="38"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -10137,7 +10135,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="38"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -10163,7 +10161,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10411,6 +10409,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10419,11 +10422,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,6 +587,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4129,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4817,7 +4820,7 @@
       </c>
       <c r="C31" s="13">
         <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="G31" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G30)), NOT(G30 = "לא ניתן תרגיל")), IF(OR(G32 = "כן", G32 = "לא"), "", G30-TODAY()), "")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4931,13 +4934,13 @@
         <f t="shared" ref="C36" ca="1" si="19">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="E36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
@@ -4954,7 +4957,9 @@
         <v>3</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -4970,7 +4975,7 @@
       </c>
       <c r="D38" s="22" t="str">
         <f>IF(D37 = "כן","בוצע", IF(D37 = "לא", "לא הוגש", IF((D35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D35)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="E38" s="22" t="str">
         <f>IF(E37 = "כן","בוצע", IF(E37 = "לא", "לא הוגש", IF((E35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E35)), "טרם", ""))))</f>
@@ -7942,11 +7947,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7955,6 +7955,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10409,11 +10414,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10422,6 +10422,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -565,6 +565,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,9 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4132,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4163,7 +4163,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" hidden="1" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
@@ -4280,7 +4280,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4303,7 +4303,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4410,7 +4410,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4436,7 +4436,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4539,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4565,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +4587,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1" thickBot="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A22" s="36"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
@@ -4641,7 +4641,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
@@ -4770,14 +4770,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="23" t="str">
-        <f>IF(D21 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="D29" s="23">
+        <v>100</v>
       </c>
       <c r="E29" s="23">
         <v>85</v>
@@ -4790,8 +4789,8 @@
         <v>לא ניתן תרגיל</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A30" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4813,14 +4812,14 @@
         <v>41987</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A31" s="37"/>
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="13" t="str">
         <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D30)), NOT(D30 = "לא ניתן תרגיל")), IF(OR(D32 = "כן", D32 = "לא"), "", D30-TODAY()), "")</f>
@@ -4834,17 +4833,19 @@
         <f ca="1">IF(AND(NOT(ISBLANK(F30)), NOT(F30 = "לא ניתן תרגיל")), IF(OR(F32 = "כן", F32 = "לא"), "", F30-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(G30)), NOT(G30 = "לא ניתן תרגיל")), IF(OR(G32 = "כן", G32 = "לא"), "", G30-TODAY()), "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A32" s="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A32" s="37"/>
       <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>48</v>
       </c>
@@ -4852,16 +4853,18 @@
       <c r="F32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A33" s="36"/>
+      <c r="G32" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+      <c r="A33" s="37"/>
       <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
         <f t="shared" ref="C33" si="17">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="D33" s="22" t="str">
         <f>IF(D32 = "כן","בוצע", IF(D32 = "לא", "לא הוגש", IF((D30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D30)), "טרם", ""))))</f>
@@ -4877,11 +4880,11 @@
       </c>
       <c r="G33" s="22" t="str">
         <f>IF(G32 = "כן","בוצע", IF(G32 = "לא", "לא הוגש", IF((G30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G30)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -4907,7 +4910,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -4923,10 +4926,12 @@
       <c r="F35" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="24">
+        <v>42001</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
@@ -4946,18 +4951,18 @@
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="G36" s="13" t="str">
+      <c r="G36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
-        <v/>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A37" s="36"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="36" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="13"/>
@@ -4965,7 +4970,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
@@ -4987,11 +4992,11 @@
       </c>
       <c r="G38" s="22" t="str">
         <f>IF(G37 = "כן","בוצע", IF(G37 = "לא", "לא הוגש", IF((G35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G35)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
@@ -5016,21 +5021,23 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A40" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="24">
+        <v>41990</v>
+      </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A41" s="37"/>
       <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
@@ -5038,9 +5045,9 @@
         <f t="shared" ref="C41" ca="1" si="22">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="D41" s="13" t="str">
+      <c r="D41" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D40)), NOT(D40 = "לא ניתן תרגיל")), IF(OR(D42 = "כן", D42 = "לא"), "", D40-TODAY()), "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
@@ -5055,8 +5062,8 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="36"/>
+    <row r="42" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A42" s="37"/>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
@@ -5066,8 +5073,8 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A43" s="37"/>
       <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +5084,7 @@
       </c>
       <c r="D43" s="22" t="str">
         <f>IF(D42 = "כן","בוצע", IF(D42 = "לא", "לא הוגש", IF((D40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D40)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="E43" s="22" t="str">
         <f>IF(E42 = "כן","בוצע", IF(E42 = "לא", "לא הוגש", IF((E40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E40)), "טרם", ""))))</f>
@@ -5093,7 +5100,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A44" s="37"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
@@ -5119,7 +5126,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -5132,7 +5139,7 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A46" s="36"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +5165,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
@@ -5169,7 +5176,7 @@
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="11" t="s">
         <v>6</v>
       </c>
@@ -5195,7 +5202,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="14" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5228,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -5234,7 +5241,7 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A51" s="36"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="11" t="s">
         <v>5</v>
       </c>
@@ -5260,7 +5267,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A52" s="36"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
@@ -5271,7 +5278,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5304,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
@@ -5323,7 +5330,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -5336,7 +5343,7 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A56" s="36"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
@@ -5362,7 +5369,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A57" s="36"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
@@ -5373,7 +5380,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A58" s="36"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="11" t="s">
         <v>6</v>
       </c>
@@ -5399,7 +5406,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="37"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="14" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5432,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -5438,7 +5445,7 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A61" s="36"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="11" t="s">
         <v>5</v>
       </c>
@@ -5464,7 +5471,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A62" s="36"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="11" t="s">
         <v>3</v>
       </c>
@@ -5475,7 +5482,7 @@
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A63" s="36"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="11" t="s">
         <v>6</v>
       </c>
@@ -5501,7 +5508,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A64" s="37"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
@@ -5527,7 +5534,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -5540,7 +5547,7 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A66" s="36"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="11" t="s">
         <v>5</v>
       </c>
@@ -5566,7 +5573,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A67" s="36"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
@@ -5577,7 +5584,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A68" s="36"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
@@ -5603,7 +5610,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A69" s="37"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="14" t="s">
         <v>4</v>
       </c>
@@ -5629,7 +5636,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -5642,7 +5649,7 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A71" s="36"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="11" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5675,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
-      <c r="A72" s="36"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="11" t="s">
         <v>3</v>
       </c>
@@ -5679,7 +5686,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A73" s="36"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="11" t="s">
         <v>6</v>
       </c>
@@ -5705,7 +5712,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A74" s="37"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="14" t="s">
         <v>4</v>
       </c>
@@ -5741,7 +5748,7 @@
       </c>
       <c r="D75" s="9">
         <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E75" s="9">
         <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
@@ -5818,13 +5825,13 @@
       <c r="B80" s="2"/>
       <c r="C80" s="5">
         <f>D75</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
         <f>0.25*C80+0.75*E80</f>
-        <v>22.75</v>
+        <v>23.5</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -7947,6 +7954,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7955,11 +7967,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -8866,7 +8873,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8879,7 +8886,7 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -8905,7 +8912,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8916,7 +8923,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8942,7 +8949,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -8968,7 +8975,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8981,7 +8988,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9007,7 +9014,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9018,7 +9025,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -9044,7 +9051,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -9070,7 +9077,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9083,7 +9090,7 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9109,7 +9116,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9120,7 +9127,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9153,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -9172,7 +9179,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9185,7 +9192,7 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9211,7 +9218,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9222,7 +9229,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9248,7 +9255,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -9274,7 +9281,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -9287,7 +9294,7 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -9313,7 +9320,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -9324,7 +9331,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -9350,7 +9357,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -9376,7 +9383,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9389,7 +9396,7 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -9415,7 +9422,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9426,7 +9433,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -9452,7 +9459,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickBot="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -9478,7 +9485,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9491,7 +9498,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -9517,7 +9524,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -9528,7 +9535,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -9554,7 +9561,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickBot="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -9580,7 +9587,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9593,7 +9600,7 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -9619,7 +9626,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -9630,7 +9637,7 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -9656,7 +9663,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickBot="1">
-      <c r="A41" s="40"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
@@ -9682,7 +9689,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9695,7 +9702,7 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9721,7 +9728,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9732,7 +9739,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A45" s="39"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -9758,7 +9765,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -9784,7 +9791,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9797,7 +9804,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -9823,7 +9830,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A49" s="39"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9841,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9860,7 +9867,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1">
-      <c r="A51" s="40"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -9886,7 +9893,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -9899,7 +9906,7 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A53" s="39"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -9925,7 +9932,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
@@ -9936,7 +9943,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A55" s="39"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -9962,7 +9969,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickBot="1">
-      <c r="A56" s="40"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -9988,7 +9995,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -10001,7 +10008,7 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -10027,7 +10034,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A59" s="39"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -10038,7 +10045,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10064,7 +10071,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickBot="1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
@@ -10090,7 +10097,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -10103,7 +10110,7 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A63" s="39"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
@@ -10129,7 +10136,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A64" s="39"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -10140,7 +10147,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" hidden="1">
-      <c r="A65" s="39"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -10166,7 +10173,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickBot="1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -10414,6 +10421,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10422,11 +10434,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -4132,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4620,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="13" t="str">
-        <f t="shared" ref="C22" ca="1" si="12">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
+        <f ca="1">IF(AND(NOT(ISBLANK(C21)), NOT(C21 = "לא ניתן תרגיל")), IF(OR(C23 = "כן", C23 = "לא"), "", C21-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D22" s="13" t="e">
@@ -4657,7 +4657,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="22" t="str">
-        <f t="shared" ref="C24" si="13">IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
+        <f>IF(C23 = "כן","בוצע", IF(C23 = "לא", "לא הוגש", IF((C21 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C21)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D24" s="22" t="str">
@@ -4694,8 +4694,8 @@
       <c r="F25" s="24">
         <v>41969</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>49</v>
+      <c r="G25" s="35">
+        <v>41969</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
@@ -4704,7 +4704,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f t="shared" ref="C26" ca="1" si="14">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
+        <f t="shared" ref="C26" ca="1" si="12">IF(AND(NOT(ISBLANK(C25)), NOT(C25 = "לא ניתן תרגיל")), IF(OR(C27 = "כן", C27 = "לא"), "", C25-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D26" s="13" t="str">
@@ -4741,7 +4741,9 @@
       <c r="F27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="36" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A28" s="39"/>
@@ -4749,7 +4751,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="31" t="str">
-        <f t="shared" ref="C28" si="15">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
+        <f t="shared" ref="C28" si="13">IF(C27 = "כן","בוצע", IF(C27 = "לא", "לא הוגש", IF((C25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C25)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="D28" s="31" t="str">
@@ -4766,7 +4768,7 @@
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(G27 = "כן","בוצע", IF(G27 = "לא", "לא הוגש", IF((G25 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G25)), "טרם", ""))))</f>
-        <v/>
+        <v>בוצע</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1">
@@ -4784,9 +4786,8 @@
       <c r="F29" s="23">
         <v>100</v>
       </c>
-      <c r="G29" s="33" t="str">
-        <f>IF(G25 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v>לא ניתן תרגיל</v>
+      <c r="G29" s="33">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
@@ -4818,7 +4819,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31" ca="1" si="16">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
+        <f t="shared" ref="C31" ca="1" si="14">IF(AND(NOT(ISBLANK(C30)), NOT(C30 = "לא ניתן תרגיל")), IF(OR(C32 = "כן", C32 = "לא"), "", C30-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D31" s="13" t="str">
@@ -4863,7 +4864,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f t="shared" ref="C33" si="17">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
+        <f t="shared" ref="C33" si="15">IF(C32 = "כן","בוצע", IF(C32 = "לא", "לא הוגש", IF((C30 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C30)), "טרם", ""))))</f>
         <v>בוצע</v>
       </c>
       <c r="D33" s="22" t="str">
@@ -4889,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f t="shared" ref="C34" si="18">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C34" si="16">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D34" s="23" t="str">
@@ -4923,8 +4924,8 @@
       <c r="E35" s="24">
         <v>41990</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>49</v>
+      <c r="F35" s="35">
+        <v>41990</v>
       </c>
       <c r="G35" s="24">
         <v>42001</v>
@@ -4936,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="13" t="str">
-        <f t="shared" ref="C36" ca="1" si="19">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
+        <f t="shared" ref="C36" ca="1" si="17">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D36" s="13" t="str">
@@ -4945,7 +4946,7 @@
       </c>
       <c r="E36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
@@ -4953,7 +4954,7 @@
       </c>
       <c r="G36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4966,7 +4967,9 @@
         <v>48</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4975,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="22" t="str">
-        <f t="shared" ref="C38" si="20">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
+        <f t="shared" ref="C38" si="18">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D38" s="22" t="str">
@@ -4988,7 +4991,7 @@
       </c>
       <c r="F38" s="22" t="str">
         <f>IF(F37 = "כן","בוצע", IF(F37 = "לא", "לא הוגש", IF((F35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F35)), "טרם", ""))))</f>
-        <v/>
+        <v>בוצע</v>
       </c>
       <c r="G38" s="22" t="str">
         <f>IF(G37 = "כן","בוצע", IF(G37 = "לא", "לא הוגש", IF((G35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(G35)), "טרם", ""))))</f>
@@ -5001,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="23" t="str">
-        <f t="shared" ref="C39" si="21">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C39" si="19">IF(C35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D39" s="23" t="str">
@@ -5014,7 +5017,7 @@
       </c>
       <c r="F39" s="23" t="str">
         <f>IF(F35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v>לא ניתן תרגיל</v>
+        <v/>
       </c>
       <c r="G39" s="23" t="str">
         <f>IF(G35 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -5042,12 +5045,12 @@
         <v>5</v>
       </c>
       <c r="C41" s="13" t="str">
-        <f t="shared" ref="C41" ca="1" si="22">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
+        <f t="shared" ref="C41" ca="1" si="20">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D41" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D40)), NOT(D40 = "לא ניתן תרגיל")), IF(OR(D42 = "כן", D42 = "לא"), "", D40-TODAY()), "")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
@@ -5079,7 +5082,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" ref="C43" si="23">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
+        <f t="shared" ref="C43" si="21">IF(C42 = "כן","בוצע", IF(C42 = "לא", "לא הוגש", IF((C40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C40)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
@@ -5105,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f t="shared" ref="C44" si="24">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C44" si="22">IF(C40 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D44" s="23" t="str">
@@ -5144,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="13" t="str">
-        <f t="shared" ref="C46" ca="1" si="25">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
+        <f t="shared" ref="C46" ca="1" si="23">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D46" s="13" t="str">
@@ -5181,7 +5184,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f t="shared" ref="C48" si="26">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
+        <f t="shared" ref="C48" si="24">IF(C47 = "כן","בוצע", IF(C47 = "לא", "לא הוגש", IF((C45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C45)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
@@ -5207,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="23" t="str">
-        <f t="shared" ref="C49" si="27">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C49" si="25">IF(C45 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D49" s="23" t="str">
@@ -5246,7 +5249,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="13" t="str">
-        <f t="shared" ref="C51" ca="1" si="28">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
+        <f t="shared" ref="C51" ca="1" si="26">IF(AND(NOT(ISBLANK(C50)), NOT(C50 = "לא ניתן תרגיל")), IF(OR(C52 = "כן", C52 = "לא"), "", C50-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D51" s="13" t="str">
@@ -5283,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="22" t="str">
-        <f t="shared" ref="C53" si="29">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
+        <f t="shared" ref="C53" si="27">IF(C52 = "כן","בוצע", IF(C52 = "לא", "לא הוגש", IF((C50 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C50)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
@@ -5309,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="23" t="str">
-        <f t="shared" ref="C54" si="30">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C54" si="28">IF(C50 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D54" s="23" t="str">
@@ -5348,7 +5351,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="13" t="str">
-        <f t="shared" ref="C56" ca="1" si="31">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
+        <f t="shared" ref="C56" ca="1" si="29">IF(AND(NOT(ISBLANK(C55)), NOT(C55 = "לא ניתן תרגיל")), IF(OR(C57 = "כן", C57 = "לא"), "", C55-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D56" s="13" t="str">
@@ -5385,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ref="C58" si="32">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
+        <f t="shared" ref="C58" si="30">IF(C57 = "כן","בוצע", IF(C57 = "לא", "לא הוגש", IF((C55 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C55)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
@@ -5411,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="23" t="str">
-        <f t="shared" ref="C59" si="33">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C59" si="31">IF(C55 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D59" s="23" t="str">
@@ -5450,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f t="shared" ref="C61" ca="1" si="34">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
+        <f t="shared" ref="C61" ca="1" si="32">IF(AND(NOT(ISBLANK(C60)), NOT(C60 = "לא ניתן תרגיל")), IF(OR(C62 = "כן", C62 = "לא"), "", C60-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D61" s="13" t="str">
@@ -5487,7 +5490,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="22" t="str">
-        <f t="shared" ref="C63" si="35">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
+        <f t="shared" ref="C63" si="33">IF(C62 = "כן","בוצע", IF(C62 = "לא", "לא הוגש", IF((C60 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C60)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D63" s="22" t="str">
@@ -5513,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="23" t="str">
-        <f t="shared" ref="C64" si="36">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C64" si="34">IF(C60 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D64" s="23" t="str">
@@ -5552,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="13" t="str">
-        <f t="shared" ref="C66" ca="1" si="37">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
+        <f t="shared" ref="C66" ca="1" si="35">IF(AND(NOT(ISBLANK(C65)), NOT(C65 = "לא ניתן תרגיל")), IF(OR(C67 = "כן", C67 = "לא"), "", C65-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D66" s="13" t="str">
@@ -5589,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="22" t="str">
-        <f t="shared" ref="C68" si="38">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
+        <f t="shared" ref="C68" si="36">IF(C67 = "כן","בוצע", IF(C67 = "לא", "לא הוגש", IF((C65 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C65)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
@@ -5615,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69" si="39">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C69" si="37">IF(C65 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D69" s="23" t="str">
@@ -5654,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="13" t="str">
-        <f t="shared" ref="C71" ca="1" si="40">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
+        <f t="shared" ref="C71" ca="1" si="38">IF(AND(NOT(ISBLANK(C70)), NOT(C70 = "לא ניתן תרגיל")), IF(OR(C72 = "כן", C72 = "לא"), "", C70-TODAY()), "")</f>
         <v/>
       </c>
       <c r="D71" s="13" t="str">
@@ -5691,7 +5694,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="22" t="str">
-        <f t="shared" ref="C73" si="41">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
+        <f t="shared" ref="C73" si="39">IF(C72 = "כן","בוצע", IF(C72 = "לא", "לא הוגש", IF((C70 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C70)), "טרם", ""))))</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
@@ -5717,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="23" t="str">
-        <f t="shared" ref="C74" si="42">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
+        <f t="shared" ref="C74" si="40">IF(C70 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
       <c r="D74" s="23" t="str">
@@ -5743,7 +5746,7 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="9">
-        <f t="shared" ref="C75" si="43">AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
+        <f>AVERAGE(C6,C11,C19,C29,C34,C39,C44,C49,C54,C59,C64,C69,C74)</f>
         <v>95.5</v>
       </c>
       <c r="D75" s="9">
@@ -5760,7 +5763,7 @@
       </c>
       <c r="G75" s="9">
         <f>AVERAGE(G6,G11,G19,G29,G34,G39,G44,G49,G54,G59,G64,G69,G74)</f>
-        <v>100</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -5876,13 +5879,13 @@
       <c r="B83" s="2"/>
       <c r="C83" s="5">
         <f>G75</f>
-        <v>100</v>
+        <v>101.66666666666667</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5">
         <f>0.2*C83+0.8*E83</f>
-        <v>20</v>
+        <v>20.333333333333336</v>
       </c>
       <c r="G83" s="5"/>
     </row>
@@ -5915,14 +5918,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B91" si="44">G78</f>
+        <f t="shared" ref="B86:B91" si="41">G78</f>
         <v>0</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:D91" si="45">B86*C86</f>
+        <f t="shared" ref="D86:D91" si="42">B86*C86</f>
         <v>0</v>
       </c>
       <c r="E86"/>
@@ -5934,14 +5937,14 @@
         <v>32</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E87"/>
@@ -5953,14 +5956,14 @@
         <v>33</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C88" s="5">
         <v>5</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E88"/>
@@ -5972,14 +5975,14 @@
         <v>34</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E89"/>
@@ -5991,14 +5994,14 @@
         <v>35</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E90"/>
@@ -6010,14 +6013,14 @@
         <v>36</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E91"/>

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4132,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4917,7 +4917,9 @@
       <c r="B35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="24">
+        <v>42001</v>
+      </c>
       <c r="D35" s="24">
         <v>41983</v>
       </c>
@@ -4936,17 +4938,17 @@
       <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="13">
         <f t="shared" ref="C36" ca="1" si="17">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="D36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E35)), NOT(E35 = "לא ניתן תרגיל")), IF(OR(E37 = "כן", E37 = "לא"), "", E35-TODAY()), "")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F35)), NOT(F35 = "לא ניתן תרגיל")), IF(OR(F37 = "כן", F37 = "לא"), "", F35-TODAY()), "")</f>
@@ -4954,7 +4956,7 @@
       </c>
       <c r="G36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4966,7 +4968,9 @@
       <c r="D37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="F37" s="36" t="s">
         <v>48</v>
       </c>
@@ -4979,7 +4983,7 @@
       </c>
       <c r="C38" s="22" t="str">
         <f t="shared" ref="C38" si="18">IF(C37 = "כן","בוצע", IF(C37 = "לא", "לא הוגש", IF((C35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(C35)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="D38" s="22" t="str">
         <f>IF(D37 = "כן","בוצע", IF(D37 = "לא", "לא הוגש", IF((D35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D35)), "טרם", ""))))</f>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="E38" s="22" t="str">
         <f>IF(E37 = "כן","בוצע", IF(E37 = "לא", "לא הוגש", IF((E35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E35)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="F38" s="22" t="str">
         <f>IF(F37 = "כן","בוצע", IF(F37 = "לא", "לא הוגש", IF((F35 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F35)), "טרם", ""))))</f>
@@ -5035,7 +5039,9 @@
       <c r="D40" s="24">
         <v>41990</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="24">
+        <v>42004</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
@@ -5048,13 +5054,13 @@
         <f t="shared" ref="C41" ca="1" si="20">IF(AND(NOT(ISBLANK(C40)), NOT(C40 = "לא ניתן תרגיל")), IF(OR(C42 = "כן", C42 = "לא"), "", C40-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D40)), NOT(D40 = "לא ניתן תרגיל")), IF(OR(D42 = "כן", D42 = "לא"), "", D40-TODAY()), "")</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="13" t="str">
+        <v/>
+      </c>
+      <c r="E41" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="F41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F40)), NOT(F40 = "לא ניתן תרגיל")), IF(OR(F42 = "כן", F42 = "לא"), "", F40-TODAY()), "")</f>
@@ -5071,7 +5077,9 @@
         <v>3</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -5087,11 +5095,11 @@
       </c>
       <c r="D43" s="22" t="str">
         <f>IF(D42 = "כן","בוצע", IF(D42 = "לא", "לא הוגש", IF((D40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D40)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="E43" s="22" t="str">
         <f>IF(E42 = "כן","בוצע", IF(E42 = "לא", "לא הוגש", IF((E40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E40)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="F43" s="22" t="str">
         <f>IF(F42 = "כן","בוצע", IF(F42 = "לא", "לא הוגש", IF((F40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F40)), "טרם", ""))))</f>
@@ -5128,7 +5136,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="45" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A45" s="37" t="s">
         <v>11</v>
       </c>
@@ -5136,12 +5144,14 @@
         <v>2</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="24">
+        <v>42004</v>
+      </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="46" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
@@ -5150,9 +5160,9 @@
         <f t="shared" ref="C46" ca="1" si="23">IF(AND(NOT(ISBLANK(C45)), NOT(C45 = "לא ניתן תרגיל")), IF(OR(C47 = "כן", C47 = "לא"), "", C45-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="D46" s="13" t="str">
+      <c r="D46" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D45)), NOT(D45 = "לא ניתן תרגיל")), IF(OR(D47 = "כן", D47 = "לא"), "", D45-TODAY()), "")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E46" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E45)), NOT(E45 = "לא ניתן תרגיל")), IF(OR(E47 = "כן", E47 = "לא"), "", E45-TODAY()), "")</f>
@@ -5167,7 +5177,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="47" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="11" t="s">
         <v>3</v>
@@ -5178,7 +5188,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="48" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="11" t="s">
         <v>6</v>
@@ -5189,7 +5199,7 @@
       </c>
       <c r="D48" s="22" t="str">
         <f>IF(D47 = "כן","בוצע", IF(D47 = "לא", "לא הוגש", IF((D45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(D45)), "טרם", ""))))</f>
-        <v/>
+        <v>טרם</v>
       </c>
       <c r="E48" s="22" t="str">
         <f>IF(E47 = "כן","בוצע", IF(E47 = "לא", "לא הוגש", IF((E45 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E45)), "טרם", ""))))</f>
@@ -5230,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5253,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A51" s="37"/>
       <c r="B51" s="11" t="s">
         <v>5</v>
@@ -5269,7 +5279,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A52" s="37"/>
       <c r="B52" s="11" t="s">
         <v>3</v>
@@ -5280,7 +5290,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="1:7" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A53" s="37"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
@@ -7957,11 +7967,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7970,6 +7975,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10424,11 +10434,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10437,6 +10442,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -4132,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4930,7 +4930,7 @@
         <v>41990</v>
       </c>
       <c r="G35" s="24">
-        <v>42001</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" ref="C36" ca="1" si="17">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E41" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F40)), NOT(F40 = "לא ניתן תרגיל")), IF(OR(F42 = "כן", F42 = "לא"), "", F40-TODAY()), "")</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D46" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D45)), NOT(D45 = "לא ניתן תרגיל")), IF(OR(D47 = "כן", D47 = "לא"), "", D45-TODAY()), "")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E45)), NOT(E45 = "לא ניתן תרגיל")), IF(OR(E47 = "כן", E47 = "לא"), "", E45-TODAY()), "")</f>
@@ -7967,6 +7967,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7975,11 +7980,6 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10434,6 +10434,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10442,11 +10447,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">

--- a/מעקב תרגילים.xlsx
+++ b/מעקב תרגילים.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="51">
   <si>
     <t>שבוע 1</t>
   </si>
@@ -4132,7 +4132,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -4893,9 +4893,8 @@
         <f t="shared" ref="C34" si="16">IF(C30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
         <v/>
       </c>
-      <c r="D34" s="23" t="str">
-        <f>IF(D30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
-        <v/>
+      <c r="D34" s="23">
+        <v>93</v>
       </c>
       <c r="E34" s="23" t="str">
         <f>IF(E30 = "לא ניתן תרגיל", "לא ניתן תרגיל", "")</f>
@@ -4940,7 +4939,7 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" ref="C36" ca="1" si="17">IF(AND(NOT(ISBLANK(C35)), NOT(C35 = "לא ניתן תרגיל")), IF(OR(C37 = "כן", C37 = "לא"), "", C35-TODAY()), "")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(D35)), NOT(D35 = "לא ניתן תרגיל")), IF(OR(D37 = "כן", D37 = "לא"), "", D35-TODAY()), "")</f>
@@ -4956,7 +4955,7 @@
       </c>
       <c r="G36" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(G35)), NOT(G35 = "לא ניתן תרגיל")), IF(OR(G37 = "כן", G37 = "לא"), "", G35-TODAY()), "")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" customHeight="1">
@@ -5058,9 +5057,9 @@
         <f ca="1">IF(AND(NOT(ISBLANK(D40)), NOT(D40 = "לא ניתן תרגיל")), IF(OR(D42 = "כן", D42 = "לא"), "", D40-TODAY()), "")</f>
         <v/>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E40)), NOT(E40 = "לא ניתן תרגיל")), IF(OR(E42 = "כן", E42 = "לא"), "", E40-TODAY()), "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="F41" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(F40)), NOT(F40 = "לא ניתן תרגיל")), IF(OR(F42 = "כן", F42 = "לא"), "", F40-TODAY()), "")</f>
@@ -5080,7 +5079,9 @@
       <c r="D42" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
@@ -5099,7 +5100,7 @@
       </c>
       <c r="E43" s="22" t="str">
         <f>IF(E42 = "כן","בוצע", IF(E42 = "לא", "לא הוגש", IF((E40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(E40)), "טרם", ""))))</f>
-        <v>טרם</v>
+        <v>בוצע</v>
       </c>
       <c r="F43" s="22" t="str">
         <f>IF(F42 = "כן","בוצע", IF(F42 = "לא", "לא הוגש", IF((F40 = "לא ניתן תרגיל"), "", IF(NOT(ISBLANK(F40)), "טרם", ""))))</f>
@@ -5162,7 +5163,7 @@
       </c>
       <c r="D46" s="13">
         <f ca="1">IF(AND(NOT(ISBLANK(D45)), NOT(D45 = "לא ניתן תרגיל")), IF(OR(D47 = "כן", D47 = "לא"), "", D45-TODAY()), "")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46" s="13" t="str">
         <f ca="1">IF(AND(NOT(ISBLANK(E45)), NOT(E45 = "לא ניתן תרגיל")), IF(OR(E47 = "כן", E47 = "לא"), "", E45-TODAY()), "")</f>
@@ -5761,7 +5762,7 @@
       </c>
       <c r="D75" s="9">
         <f>AVERAGE(D6,D11,D19,D29,D34,D39,D44,D49,D54,D59,D64,D69,D74)</f>
-        <v>94</v>
+        <v>93.75</v>
       </c>
       <c r="E75" s="9">
         <f>AVERAGE(E6,E11,E19,E29,E34,E39,E44,E49,E54,E59,E64,E69,E74)</f>
@@ -5838,13 +5839,13 @@
       <c r="B80" s="2"/>
       <c r="C80" s="5">
         <f>D75</f>
-        <v>94</v>
+        <v>93.75</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
         <f>0.25*C80+0.75*E80</f>
-        <v>23.5</v>
+        <v>23.4375</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -7967,11 +7968,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A70:A74"/>
@@ -7980,6 +7976,11 @@
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="containsText" dxfId="357" priority="210" operator="containsText" text="לא הוגש">
@@ -10434,11 +10435,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A32:A36"/>
@@ -10447,6 +10443,11 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:F5">
     <cfRule type="containsText" dxfId="168" priority="215" operator="containsText" text="לא הוגש">
